--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1800350.276307126</v>
+        <v>1767753.357775934</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6555689.629549495</v>
+        <v>6555689.629549498</v>
       </c>
     </row>
     <row r="9">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>176.3999046708537</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7034381600318</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>160.9331746971628</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>135.3637749794424</v>
       </c>
       <c r="H12" t="n">
-        <v>26.16899518119199</v>
+        <v>93.11530261957643</v>
       </c>
       <c r="I12" t="n">
-        <v>21.23445678746313</v>
+        <v>21.23445678746312</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>134.9103283483173</v>
       </c>
       <c r="T12" t="n">
-        <v>192.1849784014749</v>
+        <v>125.2386709630915</v>
       </c>
       <c r="U12" t="n">
         <v>225.8111358846743</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>132.4786770405776</v>
       </c>
       <c r="F13" t="n">
-        <v>39.65443305968228</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5372855934949</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>95.18684569580169</v>
+        <v>293.9223336334288</v>
       </c>
       <c r="H14" t="n">
         <v>301.5808821335967</v>
@@ -1660,19 +1660,19 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>99.586876211483</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1703,7 +1703,7 @@
         <v>135.3637749794424</v>
       </c>
       <c r="H15" t="n">
-        <v>26.16899518119199</v>
+        <v>93.11530261957644</v>
       </c>
       <c r="I15" t="n">
         <v>21.23445678746313</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8539331444638</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2284975741443</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>201.9161949209957</v>
+        <v>146.3369551446218</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>131.2533548218468</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>67.82676469672091</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>61.20921597206654</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>105.7621915499304</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>67.96402090993234</v>
+        <v>134.9103283483173</v>
       </c>
       <c r="T18" t="n">
         <v>192.1849784014749</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>69.11749686434493</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>105.5372855934949</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.8539331444638</v>
@@ -2061,16 +2061,16 @@
         <v>286.2284975741443</v>
       </c>
       <c r="V19" t="n">
-        <v>175.8167809646084</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>81.9140540458518</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>43.74826607959425</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>93.11530261957644</v>
       </c>
       <c r="I21" t="n">
-        <v>21.23445678746313</v>
+        <v>21.23445678746316</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>184.7486757225339</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>138.73638833892</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>55.37860521987653</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.2411626151882</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>305.9054809984042</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>18.70704751633137</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.602611067468</v>
       </c>
       <c r="H23" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.82676469672091</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7034381600318</v>
       </c>
       <c r="T23" t="n">
         <v>206.8985460394687</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>135.3637749794424</v>
       </c>
       <c r="H24" t="n">
-        <v>47.40345196865512</v>
+        <v>93.11530261957644</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>21.23445678746315</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>138.8266777650919</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S25" t="n">
         <v>195.0916935772309</v>
@@ -2532,19 +2532,19 @@
         <v>220.8539331444638</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2284975741443</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>138.2499903683399</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>201.8792341621284</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>78.46651386669059</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.602611067468</v>
+        <v>124.6613070358114</v>
       </c>
       <c r="H26" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7034381600318</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>68.41746754105701</v>
+        <v>135.3637749794424</v>
       </c>
       <c r="H27" t="n">
         <v>93.11530261957644</v>
       </c>
       <c r="I27" t="n">
-        <v>21.23445678746313</v>
+        <v>21.23445678746315</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>134.9103283483173</v>
+        <v>67.9640209099328</v>
       </c>
       <c r="T27" t="n">
         <v>192.1849784014749</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>195.0916935772309</v>
@@ -2772,16 +2772,16 @@
         <v>286.2284975741443</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>105.0183679167356</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.7582896284851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>201.7775125860177</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>40.89976259118234</v>
       </c>
     </row>
     <row r="30">
@@ -2882,16 +2882,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>99.35736174246207</v>
       </c>
       <c r="G30" t="n">
-        <v>68.41746754105789</v>
+        <v>135.3637749794424</v>
       </c>
       <c r="H30" t="n">
         <v>93.11530261957644</v>
       </c>
       <c r="I30" t="n">
-        <v>21.23445678746313</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>41.92277516200111</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I31" t="n">
         <v>105.5372855934949</v>
@@ -3000,7 +3000,7 @@
         <v>102.665025462782</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>276.6165649991464</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>81.91405404585089</v>
       </c>
       <c r="D32" t="n">
-        <v>274.0597021783212</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H32" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7034381600318</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>135.3637749794424</v>
+        <v>68.41746754105566</v>
       </c>
       <c r="H33" t="n">
         <v>93.11530261957644</v>
       </c>
       <c r="I33" t="n">
-        <v>21.23445678746313</v>
+        <v>21.23445678746315</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>192.1849784014749</v>
       </c>
       <c r="U33" t="n">
-        <v>158.8648284462891</v>
+        <v>225.8111358846743</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5372855934949</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T34" t="n">
         <v>220.8539331444638</v>
       </c>
       <c r="U34" t="n">
-        <v>66.22290711890788</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>78.87156499474038</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>326.8557224254583</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H35" t="n">
         <v>301.5808821335967</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.498186832728343</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>135.3637749794424</v>
       </c>
       <c r="H36" t="n">
-        <v>26.16899518119199</v>
+        <v>93.11530261957644</v>
       </c>
       <c r="I36" t="n">
-        <v>21.23445678746313</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>192.1849784014749</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8111358846743</v>
+        <v>180.0992852337518</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H37" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>14.79052786486366</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>195.0916935772309</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2.286139438314312</v>
       </c>
       <c r="U37" t="n">
         <v>286.2284975741443</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>113.4689510812231</v>
+        <v>81.9140540458518</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>135.3637749794424</v>
       </c>
       <c r="H39" t="n">
-        <v>26.16899518119199</v>
+        <v>93.11530261957644</v>
       </c>
       <c r="I39" t="n">
-        <v>21.23445678746313</v>
+        <v>21.23445678746315</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>138.8266777650919</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>5.10268296315512</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>187.5373621793162</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>10.20380387041349</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0496427920231</v>
+        <v>86.37226295331305</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3830,13 +3830,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>78.12290495499809</v>
       </c>
       <c r="G42" t="n">
         <v>135.3637749794424</v>
       </c>
       <c r="H42" t="n">
-        <v>26.16899518119065</v>
+        <v>93.11530261957644</v>
       </c>
       <c r="I42" t="n">
         <v>21.23445678746315</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.37665719759916</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>86.60929916903643</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8539331444638</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2284975741443</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3982,13 +3982,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>52.54940843123323</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>271.6680534293953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>301.5808821335967</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7034381600318</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>206.8985460394687</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>93.11530261957644</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.23445678746315</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>134.9103283483173</v>
       </c>
       <c r="T45" t="n">
-        <v>146.4731277505524</v>
+        <v>192.1849784014749</v>
       </c>
       <c r="U45" t="n">
         <v>225.8111358846743</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>138.8266777650919</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>220.8539331444638</v>
       </c>
       <c r="U46" t="n">
-        <v>146.5154092167898</v>
+        <v>213.1129548655501</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1008.037914428373</v>
+        <v>829.8561925386216</v>
       </c>
       <c r="C11" t="n">
-        <v>639.075397487961</v>
+        <v>460.8936755982099</v>
       </c>
       <c r="D11" t="n">
-        <v>639.075397487961</v>
+        <v>460.8936755982099</v>
       </c>
       <c r="E11" t="n">
-        <v>639.075397487961</v>
+        <v>460.8936755982099</v>
       </c>
       <c r="F11" t="n">
-        <v>228.0894926983535</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="G11" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I11" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J11" t="n">
-        <v>181.5754963439895</v>
+        <v>181.5754963439898</v>
       </c>
       <c r="K11" t="n">
-        <v>429.6498038307154</v>
+        <v>429.6498038307158</v>
       </c>
       <c r="L11" t="n">
         <v>774.309680356748</v>
@@ -5056,37 +5056,37 @@
         <v>1615.981290573628</v>
       </c>
       <c r="O11" t="n">
-        <v>2005.37944447543</v>
+        <v>2005.379444475431</v>
       </c>
       <c r="P11" t="n">
-        <v>2303.220758926973</v>
+        <v>2303.220758926974</v>
       </c>
       <c r="Q11" t="n">
-        <v>2478.714435577521</v>
+        <v>2478.714435577522</v>
       </c>
       <c r="R11" t="n">
         <v>2495.388540430115</v>
       </c>
       <c r="S11" t="n">
-        <v>2369.425471581597</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="T11" t="n">
-        <v>2369.425471581597</v>
+        <v>2332.829778109749</v>
       </c>
       <c r="U11" t="n">
-        <v>2115.839973811877</v>
+        <v>2332.829778109749</v>
       </c>
       <c r="V11" t="n">
-        <v>1784.777086468306</v>
+        <v>2332.829778109749</v>
       </c>
       <c r="W11" t="n">
-        <v>1784.777086468306</v>
+        <v>1980.061122839635</v>
       </c>
       <c r="X11" t="n">
-        <v>1784.777086468306</v>
+        <v>1606.595364578555</v>
       </c>
       <c r="Y11" t="n">
-        <v>1394.637754492494</v>
+        <v>1216.456032602743</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>863.6805832831849</v>
+        <v>931.3031160492297</v>
       </c>
       <c r="C12" t="n">
-        <v>689.2275540020579</v>
+        <v>756.8500867681028</v>
       </c>
       <c r="D12" t="n">
-        <v>540.2931443408066</v>
+        <v>607.9156771068515</v>
       </c>
       <c r="E12" t="n">
-        <v>381.0556893353511</v>
+        <v>448.678222101396</v>
       </c>
       <c r="F12" t="n">
-        <v>234.5211313622361</v>
+        <v>302.143664128281</v>
       </c>
       <c r="G12" t="n">
-        <v>97.79004552441555</v>
+        <v>165.4125782904604</v>
       </c>
       <c r="H12" t="n">
         <v>71.35671705856505</v>
       </c>
       <c r="I12" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J12" t="n">
-        <v>234.3404441532698</v>
+        <v>109.5103191662651</v>
       </c>
       <c r="K12" t="n">
-        <v>676.1861020181203</v>
+        <v>289.535392388663</v>
       </c>
       <c r="L12" t="n">
-        <v>1081.392727892928</v>
+        <v>577.9238609652477</v>
       </c>
       <c r="M12" t="n">
-        <v>1437.285336488774</v>
+        <v>1195.532524721701</v>
       </c>
       <c r="N12" t="n">
-        <v>1817.006008358391</v>
+        <v>1813.141188478155</v>
       </c>
       <c r="O12" t="n">
-        <v>2142.156443465626</v>
+        <v>2138.291623585389</v>
       </c>
       <c r="P12" t="n">
-        <v>2383.785267164626</v>
+        <v>2379.920447284389</v>
       </c>
       <c r="Q12" t="n">
         <v>2495.388540430115</v>
@@ -5147,25 +5147,25 @@
         <v>2495.388540430115</v>
       </c>
       <c r="S12" t="n">
-        <v>2359.11548149242</v>
+        <v>2359.115481492421</v>
       </c>
       <c r="T12" t="n">
-        <v>2164.98924068285</v>
+        <v>2232.611773448894</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.897184233684</v>
+        <v>2004.519716999729</v>
       </c>
       <c r="V12" t="n">
-        <v>1701.745076001941</v>
+        <v>1769.367608767986</v>
       </c>
       <c r="W12" t="n">
-        <v>1447.50771927374</v>
+        <v>1515.130252039784</v>
       </c>
       <c r="X12" t="n">
-        <v>1239.656219068207</v>
+        <v>1307.278751834252</v>
       </c>
       <c r="Y12" t="n">
-        <v>1031.895920303253</v>
+        <v>1099.518453069298</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>980.5034247651341</v>
+        <v>352.6607992320421</v>
       </c>
       <c r="C13" t="n">
-        <v>811.5672418372272</v>
+        <v>183.7246163041352</v>
       </c>
       <c r="D13" t="n">
-        <v>661.4506024248915</v>
+        <v>183.7246163041352</v>
       </c>
       <c r="E13" t="n">
-        <v>513.5375088424984</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="F13" t="n">
-        <v>473.4825259539304</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="G13" t="n">
-        <v>305.4711825039934</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="H13" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I13" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J13" t="n">
-        <v>73.65301825917584</v>
+        <v>73.65301825917589</v>
       </c>
       <c r="K13" t="n">
-        <v>242.5105907858448</v>
+        <v>242.510590785845</v>
       </c>
       <c r="L13" t="n">
-        <v>514.1165825954694</v>
+        <v>514.1165825954696</v>
       </c>
       <c r="M13" t="n">
-        <v>810.8761420831153</v>
+        <v>810.8761420831156</v>
       </c>
       <c r="N13" t="n">
         <v>1106.014038958228</v>
@@ -5217,34 +5217,34 @@
         <v>1362.605360660763</v>
       </c>
       <c r="P13" t="n">
-        <v>1558.642881668988</v>
+        <v>1558.642881668989</v>
       </c>
       <c r="Q13" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R13" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="S13" t="n">
-        <v>1610.934019636921</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="T13" t="n">
-        <v>1610.934019636921</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="U13" t="n">
-        <v>1610.934019636921</v>
+        <v>1124.752008372907</v>
       </c>
       <c r="V13" t="n">
-        <v>1610.934019636921</v>
+        <v>870.06752016702</v>
       </c>
       <c r="W13" t="n">
-        <v>1610.934019636921</v>
+        <v>580.6503501300595</v>
       </c>
       <c r="X13" t="n">
-        <v>1382.944468738904</v>
+        <v>352.6607992320421</v>
       </c>
       <c r="Y13" t="n">
-        <v>1162.151889595374</v>
+        <v>352.6607992320421</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>888.1576539370133</v>
+        <v>1516.712211493168</v>
       </c>
       <c r="C14" t="n">
-        <v>519.1951369966016</v>
+        <v>1516.712211493168</v>
       </c>
       <c r="D14" t="n">
-        <v>519.1951369966016</v>
+        <v>1516.712211493168</v>
       </c>
       <c r="E14" t="n">
-        <v>519.1951369966016</v>
+        <v>1130.923958894923</v>
       </c>
       <c r="F14" t="n">
-        <v>519.1951369966016</v>
+        <v>719.9380541053158</v>
       </c>
       <c r="G14" t="n">
         <v>423.0468080109433</v>
@@ -5308,22 +5308,22 @@
         <v>2369.425471581597</v>
       </c>
       <c r="T14" t="n">
-        <v>2369.425471581597</v>
+        <v>2160.4370412387</v>
       </c>
       <c r="U14" t="n">
-        <v>2369.425471581597</v>
+        <v>1906.851543468979</v>
       </c>
       <c r="V14" t="n">
-        <v>2038.362584238027</v>
+        <v>1906.851543468979</v>
       </c>
       <c r="W14" t="n">
-        <v>2038.362584238027</v>
+        <v>1906.851543468979</v>
       </c>
       <c r="X14" t="n">
-        <v>1664.896825976947</v>
+        <v>1906.851543468979</v>
       </c>
       <c r="Y14" t="n">
-        <v>1274.757494001135</v>
+        <v>1516.712211493168</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>863.6805832831849</v>
+        <v>931.3031160492297</v>
       </c>
       <c r="C15" t="n">
-        <v>689.2275540020579</v>
+        <v>756.8500867681028</v>
       </c>
       <c r="D15" t="n">
-        <v>540.2931443408066</v>
+        <v>607.9156771068515</v>
       </c>
       <c r="E15" t="n">
-        <v>381.0556893353511</v>
+        <v>448.678222101396</v>
       </c>
       <c r="F15" t="n">
-        <v>234.5211313622361</v>
+        <v>302.143664128281</v>
       </c>
       <c r="G15" t="n">
-        <v>97.79004552441555</v>
+        <v>165.4125782904605</v>
       </c>
       <c r="H15" t="n">
         <v>71.35671705856505</v>
@@ -5360,25 +5360,25 @@
         <v>109.510319166265</v>
       </c>
       <c r="K15" t="n">
-        <v>551.3559770311156</v>
+        <v>289.5353923886628</v>
       </c>
       <c r="L15" t="n">
-        <v>1081.392727892928</v>
+        <v>577.9238609652473</v>
       </c>
       <c r="M15" t="n">
-        <v>1437.285336488774</v>
+        <v>1122.294863431857</v>
       </c>
       <c r="N15" t="n">
-        <v>1817.006008358391</v>
+        <v>1502.015535301475</v>
       </c>
       <c r="O15" t="n">
-        <v>2142.156443465626</v>
+        <v>2119.624199057928</v>
       </c>
       <c r="P15" t="n">
-        <v>2383.785267164626</v>
+        <v>2361.253022756928</v>
       </c>
       <c r="Q15" t="n">
-        <v>2495.388540430115</v>
+        <v>2472.856296022417</v>
       </c>
       <c r="R15" t="n">
         <v>2495.388540430115</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.90777080860229</v>
+        <v>516.8736867312381</v>
       </c>
       <c r="C16" t="n">
-        <v>49.90777080860229</v>
+        <v>347.9375038033311</v>
       </c>
       <c r="D16" t="n">
-        <v>49.90777080860229</v>
+        <v>197.8208643909954</v>
       </c>
       <c r="E16" t="n">
         <v>49.90777080860229</v>
@@ -5460,28 +5460,28 @@
         <v>1610.934019636921</v>
       </c>
       <c r="R16" t="n">
-        <v>1507.231973714919</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="S16" t="n">
-        <v>1310.169656970241</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="T16" t="n">
-        <v>1087.084876016238</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="U16" t="n">
-        <v>797.9651814969</v>
+        <v>1321.814325117584</v>
       </c>
       <c r="V16" t="n">
-        <v>543.2806932910131</v>
+        <v>1067.129836911697</v>
       </c>
       <c r="W16" t="n">
-        <v>253.8635232540525</v>
+        <v>1067.129836911697</v>
       </c>
       <c r="X16" t="n">
-        <v>49.90777080860229</v>
+        <v>919.3147307050079</v>
       </c>
       <c r="Y16" t="n">
-        <v>49.90777080860229</v>
+        <v>698.5221515614778</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2362.80939414542</v>
+        <v>777.1359863557645</v>
       </c>
       <c r="C17" t="n">
-        <v>1993.846877205008</v>
+        <v>408.1734694153528</v>
       </c>
       <c r="D17" t="n">
-        <v>1635.581178598258</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="E17" t="n">
-        <v>1249.792926000013</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="F17" t="n">
-        <v>838.807021210406</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="G17" t="n">
-        <v>423.0468080109433</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="H17" t="n">
-        <v>118.4196543406436</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I17" t="n">
         <v>49.90777080860227</v>
@@ -5521,7 +5521,7 @@
         <v>429.6498038307155</v>
       </c>
       <c r="L17" t="n">
-        <v>774.3096803567478</v>
+        <v>774.3096803567475</v>
       </c>
       <c r="M17" t="n">
         <v>1189.47963928463</v>
@@ -5545,22 +5545,22 @@
         <v>2495.388540430114</v>
       </c>
       <c r="T17" t="n">
-        <v>2495.388540430114</v>
+        <v>2286.400110087216</v>
       </c>
       <c r="U17" t="n">
-        <v>2495.388540430114</v>
+        <v>2224.572619206341</v>
       </c>
       <c r="V17" t="n">
-        <v>2495.388540430114</v>
+        <v>1893.50973186277</v>
       </c>
       <c r="W17" t="n">
-        <v>2495.388540430114</v>
+        <v>1540.741076592656</v>
       </c>
       <c r="X17" t="n">
-        <v>2495.388540430114</v>
+        <v>1167.275318331576</v>
       </c>
       <c r="Y17" t="n">
-        <v>2495.388540430114</v>
+        <v>777.1359863557645</v>
       </c>
     </row>
     <row r="18">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3031160492297</v>
+        <v>863.680583283184</v>
       </c>
       <c r="C18" t="n">
         <v>756.8500867681028</v>
@@ -5594,52 +5594,52 @@
         <v>49.90777080860227</v>
       </c>
       <c r="J18" t="n">
-        <v>109.510319166265</v>
+        <v>234.3404441532698</v>
       </c>
       <c r="K18" t="n">
-        <v>289.5353923886628</v>
+        <v>585.0277444578514</v>
       </c>
       <c r="L18" t="n">
-        <v>577.9238609652473</v>
+        <v>873.4162130344361</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.86510019424</v>
+        <v>1229.308821630282</v>
       </c>
       <c r="N18" t="n">
-        <v>1794.473763950693</v>
+        <v>1609.0294934999</v>
       </c>
       <c r="O18" t="n">
-        <v>2119.624199057927</v>
+        <v>1934.179928607134</v>
       </c>
       <c r="P18" t="n">
-        <v>2361.253022756927</v>
+        <v>2175.808752306134</v>
       </c>
       <c r="Q18" t="n">
-        <v>2472.856296022416</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="R18" t="n">
         <v>2495.388540430114</v>
       </c>
       <c r="S18" t="n">
-        <v>2426.738014258465</v>
+        <v>2359.115481492419</v>
       </c>
       <c r="T18" t="n">
-        <v>2232.611773448894</v>
+        <v>2164.989240682849</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.519716999729</v>
+        <v>1936.897184233683</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.367608767986</v>
+        <v>1701.74507600194</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.130252039784</v>
+        <v>1447.507719273739</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.278751834252</v>
+        <v>1239.656219068206</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.518453069298</v>
+        <v>1031.895920303252</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1504.826994245033</v>
+        <v>325.4472725178172</v>
       </c>
       <c r="C19" t="n">
-        <v>1504.826994245033</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="D19" t="n">
-        <v>1504.826994245033</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="E19" t="n">
-        <v>1504.826994245033</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="F19" t="n">
-        <v>1357.937046747123</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="G19" t="n">
-        <v>1189.925703297186</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="H19" t="n">
-        <v>1040.965610383103</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="I19" t="n">
-        <v>934.3622916017948</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J19" t="n">
-        <v>958.1075390523683</v>
+        <v>73.65301825917582</v>
       </c>
       <c r="K19" t="n">
-        <v>1126.965111579037</v>
+        <v>242.5105907858448</v>
       </c>
       <c r="L19" t="n">
-        <v>1398.571103388662</v>
+        <v>514.1165825954694</v>
       </c>
       <c r="M19" t="n">
-        <v>1695.330662876308</v>
+        <v>810.8761420831153</v>
       </c>
       <c r="N19" t="n">
-        <v>1990.46855975142</v>
+        <v>1106.014038958228</v>
       </c>
       <c r="O19" t="n">
-        <v>2247.059881453955</v>
+        <v>1362.605360660763</v>
       </c>
       <c r="P19" t="n">
-        <v>2443.097402462181</v>
+        <v>1558.642881668988</v>
       </c>
       <c r="Q19" t="n">
-        <v>2495.388540430114</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="R19" t="n">
-        <v>2391.686494508112</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="S19" t="n">
-        <v>2194.624177763434</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="T19" t="n">
-        <v>1971.53939680943</v>
+        <v>1387.849238682917</v>
       </c>
       <c r="U19" t="n">
-        <v>1682.419702290092</v>
+        <v>1098.72954416358</v>
       </c>
       <c r="V19" t="n">
-        <v>1504.826994245033</v>
+        <v>844.0450559576929</v>
       </c>
       <c r="W19" t="n">
-        <v>1504.826994245033</v>
+        <v>844.0450559576929</v>
       </c>
       <c r="X19" t="n">
-        <v>1504.826994245033</v>
+        <v>616.0555050596755</v>
       </c>
       <c r="Y19" t="n">
-        <v>1504.826994245033</v>
+        <v>395.2629259161454</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.1734694153528</v>
+        <v>1345.1836101291</v>
       </c>
       <c r="C20" t="n">
-        <v>408.1734694153528</v>
+        <v>1345.1836101291</v>
       </c>
       <c r="D20" t="n">
-        <v>49.90777080860229</v>
+        <v>1262.442141395917</v>
       </c>
       <c r="E20" t="n">
-        <v>49.90777080860229</v>
+        <v>876.6538887976725</v>
       </c>
       <c r="F20" t="n">
-        <v>49.90777080860229</v>
+        <v>465.6679840080649</v>
       </c>
       <c r="G20" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="H20" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I20" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J20" t="n">
-        <v>181.5754963439895</v>
+        <v>181.5754963439899</v>
       </c>
       <c r="K20" t="n">
-        <v>429.649803830715</v>
+        <v>429.6498038307154</v>
       </c>
       <c r="L20" t="n">
-        <v>774.3096803567475</v>
+        <v>774.3096803567478</v>
       </c>
       <c r="M20" t="n">
         <v>1189.47963928463</v>
@@ -5773,31 +5773,31 @@
         <v>2303.220758926972</v>
       </c>
       <c r="Q20" t="n">
-        <v>2478.714435577521</v>
+        <v>2478.71443557752</v>
       </c>
       <c r="R20" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S20" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="T20" t="n">
-        <v>2286.400110087217</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="U20" t="n">
-        <v>2242.209942330051</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="V20" t="n">
-        <v>1911.14705498648</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="W20" t="n">
-        <v>1558.378399716366</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="X20" t="n">
-        <v>1184.912641455286</v>
+        <v>2121.922782169034</v>
       </c>
       <c r="Y20" t="n">
-        <v>794.7733094794746</v>
+        <v>1731.783450193222</v>
       </c>
     </row>
     <row r="21">
@@ -5825,55 +5825,55 @@
         <v>165.4125782904605</v>
       </c>
       <c r="H21" t="n">
-        <v>71.35671705856505</v>
+        <v>71.35671705856507</v>
       </c>
       <c r="I21" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J21" t="n">
         <v>109.510319166265</v>
       </c>
       <c r="K21" t="n">
-        <v>289.5353923886628</v>
+        <v>289.5353923886627</v>
       </c>
       <c r="L21" t="n">
-        <v>577.9238609652473</v>
+        <v>577.9238609652472</v>
       </c>
       <c r="M21" t="n">
-        <v>1195.532524721701</v>
+        <v>933.8164695610931</v>
       </c>
       <c r="N21" t="n">
-        <v>1794.473763950694</v>
+        <v>1313.537141430711</v>
       </c>
       <c r="O21" t="n">
-        <v>2119.624199057928</v>
+        <v>1638.687576537945</v>
       </c>
       <c r="P21" t="n">
-        <v>2361.253022756928</v>
+        <v>2195.594541190482</v>
       </c>
       <c r="Q21" t="n">
-        <v>2472.856296022417</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="R21" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S21" t="n">
-        <v>2359.11548149242</v>
+        <v>2359.115481492419</v>
       </c>
       <c r="T21" t="n">
-        <v>2164.98924068285</v>
+        <v>2164.989240682849</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.897184233684</v>
+        <v>1936.897184233683</v>
       </c>
       <c r="V21" t="n">
-        <v>1701.745076001941</v>
+        <v>1701.74507600194</v>
       </c>
       <c r="W21" t="n">
-        <v>1447.50771927374</v>
+        <v>1515.130252039784</v>
       </c>
       <c r="X21" t="n">
-        <v>1239.656219068207</v>
+        <v>1307.278751834252</v>
       </c>
       <c r="Y21" t="n">
         <v>1099.518453069298</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>980.5034247651341</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="C22" t="n">
-        <v>811.5672418372272</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="D22" t="n">
-        <v>661.4506024248915</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="E22" t="n">
-        <v>513.5375088424984</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="F22" t="n">
-        <v>366.647561344588</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="G22" t="n">
-        <v>198.636217894651</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="H22" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I22" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J22" t="n">
-        <v>73.65301825917584</v>
+        <v>73.65301825917579</v>
       </c>
       <c r="K22" t="n">
         <v>242.5105907858448</v>
       </c>
       <c r="L22" t="n">
-        <v>514.1165825954694</v>
+        <v>514.1165825954693</v>
       </c>
       <c r="M22" t="n">
-        <v>810.8761420831153</v>
+        <v>810.8761420831152</v>
       </c>
       <c r="N22" t="n">
-        <v>1106.014038958228</v>
+        <v>1106.014038958227</v>
       </c>
       <c r="O22" t="n">
         <v>1362.605360660763</v>
@@ -5940,22 +5940,22 @@
         <v>1610.934019636921</v>
       </c>
       <c r="T22" t="n">
-        <v>1610.934019636921</v>
+        <v>1387.849238682917</v>
       </c>
       <c r="U22" t="n">
-        <v>1610.934019636921</v>
+        <v>1098.729544163579</v>
       </c>
       <c r="V22" t="n">
-        <v>1610.934019636921</v>
+        <v>844.0450559576926</v>
       </c>
       <c r="W22" t="n">
-        <v>1610.934019636921</v>
+        <v>554.6278859207321</v>
       </c>
       <c r="X22" t="n">
-        <v>1382.944468738904</v>
+        <v>326.6383350227147</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.151889595374</v>
+        <v>105.8457558791846</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1215.96872740941</v>
+        <v>876.6538887976725</v>
       </c>
       <c r="C23" t="n">
-        <v>1215.96872740941</v>
+        <v>876.6538887976725</v>
       </c>
       <c r="D23" t="n">
-        <v>857.7030288026599</v>
+        <v>876.6538887976725</v>
       </c>
       <c r="E23" t="n">
-        <v>838.807021210406</v>
+        <v>876.6538887976725</v>
       </c>
       <c r="F23" t="n">
-        <v>838.807021210406</v>
+        <v>465.6679840080649</v>
       </c>
       <c r="G23" t="n">
-        <v>423.0468080109433</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="H23" t="n">
-        <v>118.4196543406436</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I23" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J23" t="n">
-        <v>181.5754963439898</v>
+        <v>181.5754963439892</v>
       </c>
       <c r="K23" t="n">
-        <v>429.6498038307157</v>
+        <v>429.649803830715</v>
       </c>
       <c r="L23" t="n">
-        <v>774.3096803567482</v>
+        <v>774.3096803567475</v>
       </c>
       <c r="M23" t="n">
-        <v>1189.479639284631</v>
+        <v>1189.47963928463</v>
       </c>
       <c r="N23" t="n">
-        <v>1615.981290573628</v>
+        <v>1615.981290573627</v>
       </c>
       <c r="O23" t="n">
-        <v>2005.37944447543</v>
+        <v>2005.379444475429</v>
       </c>
       <c r="P23" t="n">
-        <v>2303.220758926973</v>
+        <v>2303.220758926972</v>
       </c>
       <c r="Q23" t="n">
-        <v>2478.714435577521</v>
+        <v>2478.71443557752</v>
       </c>
       <c r="R23" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S23" t="n">
-        <v>2495.388540430115</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="T23" t="n">
-        <v>2286.400110087217</v>
+        <v>2160.437041238699</v>
       </c>
       <c r="U23" t="n">
-        <v>2286.400110087217</v>
+        <v>1906.851543468978</v>
       </c>
       <c r="V23" t="n">
-        <v>1955.337222743646</v>
+        <v>1575.788656125408</v>
       </c>
       <c r="W23" t="n">
-        <v>1602.568567473532</v>
+        <v>1575.788656125408</v>
       </c>
       <c r="X23" t="n">
-        <v>1602.568567473532</v>
+        <v>1575.788656125408</v>
       </c>
       <c r="Y23" t="n">
-        <v>1602.568567473532</v>
+        <v>1185.649324149596</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>863.6805832831849</v>
+        <v>931.3031160492297</v>
       </c>
       <c r="C24" t="n">
-        <v>689.2275540020579</v>
+        <v>756.8500867681028</v>
       </c>
       <c r="D24" t="n">
-        <v>540.2931443408066</v>
+        <v>607.9156771068515</v>
       </c>
       <c r="E24" t="n">
-        <v>381.0556893353511</v>
+        <v>448.678222101396</v>
       </c>
       <c r="F24" t="n">
-        <v>234.5211313622361</v>
+        <v>302.143664128281</v>
       </c>
       <c r="G24" t="n">
-        <v>97.79004552441555</v>
+        <v>165.4125782904604</v>
       </c>
       <c r="H24" t="n">
-        <v>49.90777080860229</v>
+        <v>71.35671705856504</v>
       </c>
       <c r="I24" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J24" t="n">
-        <v>109.510319166265</v>
+        <v>234.3404441532698</v>
       </c>
       <c r="K24" t="n">
-        <v>289.5353923886628</v>
+        <v>676.1861020181203</v>
       </c>
       <c r="L24" t="n">
-        <v>581.7886808454848</v>
+        <v>964.5745705947049</v>
       </c>
       <c r="M24" t="n">
-        <v>1199.397344601938</v>
+        <v>1320.467179190551</v>
       </c>
       <c r="N24" t="n">
-        <v>1817.006008358391</v>
+        <v>1700.187851060169</v>
       </c>
       <c r="O24" t="n">
-        <v>2142.156443465626</v>
+        <v>2025.338286167403</v>
       </c>
       <c r="P24" t="n">
-        <v>2383.785267164626</v>
+        <v>2266.967109866403</v>
       </c>
       <c r="Q24" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S24" t="n">
-        <v>2359.11548149242</v>
+        <v>2359.115481492419</v>
       </c>
       <c r="T24" t="n">
-        <v>2164.98924068285</v>
+        <v>2164.989240682849</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.897184233684</v>
+        <v>1936.897184233683</v>
       </c>
       <c r="V24" t="n">
-        <v>1701.745076001941</v>
+        <v>1701.74507600194</v>
       </c>
       <c r="W24" t="n">
-        <v>1447.50771927374</v>
+        <v>1447.507719273738</v>
       </c>
       <c r="X24" t="n">
-        <v>1239.656219068207</v>
+        <v>1307.278751834252</v>
       </c>
       <c r="Y24" t="n">
-        <v>1031.895920303253</v>
+        <v>1099.518453069298</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1102.373635051733</v>
+        <v>218.8439537365092</v>
       </c>
       <c r="C25" t="n">
-        <v>1102.373635051733</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="D25" t="n">
-        <v>1102.373635051733</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="E25" t="n">
-        <v>1102.373635051733</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="F25" t="n">
-        <v>1102.373635051733</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="G25" t="n">
-        <v>934.3622916017957</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="H25" t="n">
-        <v>934.3622916017957</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I25" t="n">
-        <v>934.3622916017957</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J25" t="n">
-        <v>958.1075390523692</v>
+        <v>73.65301825917581</v>
       </c>
       <c r="K25" t="n">
-        <v>1126.965111579038</v>
+        <v>242.5105907858448</v>
       </c>
       <c r="L25" t="n">
-        <v>1398.571103388663</v>
+        <v>514.1165825954693</v>
       </c>
       <c r="M25" t="n">
-        <v>1695.330662876309</v>
+        <v>810.8761420831152</v>
       </c>
       <c r="N25" t="n">
-        <v>1990.468559751421</v>
+        <v>1106.014038958227</v>
       </c>
       <c r="O25" t="n">
-        <v>2247.059881453956</v>
+        <v>1362.605360660763</v>
       </c>
       <c r="P25" t="n">
-        <v>2443.097402462181</v>
+        <v>1558.642881668988</v>
       </c>
       <c r="Q25" t="n">
-        <v>2495.388540430115</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="R25" t="n">
-        <v>2495.388540430115</v>
+        <v>1507.231973714919</v>
       </c>
       <c r="S25" t="n">
-        <v>2298.326223685437</v>
+        <v>1310.169656970241</v>
       </c>
       <c r="T25" t="n">
-        <v>2075.241442731433</v>
+        <v>1087.084876016237</v>
       </c>
       <c r="U25" t="n">
-        <v>1786.121748212095</v>
+        <v>1087.084876016237</v>
       </c>
       <c r="V25" t="n">
-        <v>1531.437260006208</v>
+        <v>832.4003878103505</v>
       </c>
       <c r="W25" t="n">
-        <v>1242.020089969248</v>
+        <v>832.4003878103505</v>
       </c>
       <c r="X25" t="n">
-        <v>1102.373635051733</v>
+        <v>604.4108369123331</v>
       </c>
       <c r="Y25" t="n">
-        <v>1102.373635051733</v>
+        <v>400.4924185667489</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>849.5542425942137</v>
+        <v>1382.554286834799</v>
       </c>
       <c r="C26" t="n">
-        <v>849.5542425942137</v>
+        <v>1013.591769894387</v>
       </c>
       <c r="D26" t="n">
-        <v>849.5542425942137</v>
+        <v>655.3260712876365</v>
       </c>
       <c r="E26" t="n">
-        <v>849.5542425942137</v>
+        <v>655.3260712876365</v>
       </c>
       <c r="F26" t="n">
-        <v>770.2951376783647</v>
+        <v>244.340166498029</v>
       </c>
       <c r="G26" t="n">
-        <v>354.534924478902</v>
+        <v>118.4196543406437</v>
       </c>
       <c r="H26" t="n">
-        <v>49.90777080860227</v>
+        <v>118.4196543406437</v>
       </c>
       <c r="I26" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J26" t="n">
-        <v>181.5754963439896</v>
+        <v>181.5754963439904</v>
       </c>
       <c r="K26" t="n">
-        <v>429.6498038307155</v>
+        <v>429.6498038307159</v>
       </c>
       <c r="L26" t="n">
-        <v>774.3096803567475</v>
+        <v>774.3096803567485</v>
       </c>
       <c r="M26" t="n">
-        <v>1189.47963928463</v>
+        <v>1189.479639284631</v>
       </c>
       <c r="N26" t="n">
-        <v>1615.981290573627</v>
+        <v>1615.981290573628</v>
       </c>
       <c r="O26" t="n">
         <v>2005.37944447543</v>
       </c>
       <c r="P26" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926973</v>
       </c>
       <c r="Q26" t="n">
-        <v>2478.71443557752</v>
+        <v>2478.714435577521</v>
       </c>
       <c r="R26" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S26" t="n">
-        <v>2369.425471581596</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="T26" t="n">
-        <v>2160.437041238699</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="U26" t="n">
-        <v>1906.851543468978</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="V26" t="n">
-        <v>1575.788656125408</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="W26" t="n">
-        <v>1223.020000855294</v>
+        <v>2142.61988516</v>
       </c>
       <c r="X26" t="n">
-        <v>849.5542425942137</v>
+        <v>1769.15412689892</v>
       </c>
       <c r="Y26" t="n">
-        <v>849.5542425942137</v>
+        <v>1769.15412689892</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>863.680583283184</v>
+        <v>931.3031160492297</v>
       </c>
       <c r="C27" t="n">
-        <v>689.227554002057</v>
+        <v>756.8500867681028</v>
       </c>
       <c r="D27" t="n">
-        <v>540.2931443408057</v>
+        <v>607.9156771068515</v>
       </c>
       <c r="E27" t="n">
-        <v>381.0556893353502</v>
+        <v>448.678222101396</v>
       </c>
       <c r="F27" t="n">
-        <v>234.5211313622352</v>
+        <v>302.143664128281</v>
       </c>
       <c r="G27" t="n">
-        <v>165.4125782904604</v>
+        <v>165.4125782904605</v>
       </c>
       <c r="H27" t="n">
-        <v>71.35671705856504</v>
+        <v>71.35671705856507</v>
       </c>
       <c r="I27" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J27" t="n">
-        <v>234.3404441532698</v>
+        <v>143.1820865930025</v>
       </c>
       <c r="K27" t="n">
-        <v>414.3655173756675</v>
+        <v>585.027744457853</v>
       </c>
       <c r="L27" t="n">
-        <v>702.7539859522522</v>
+        <v>873.4162130344375</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.86510019424</v>
+        <v>1229.308821630284</v>
       </c>
       <c r="N27" t="n">
-        <v>1794.473763950693</v>
+        <v>1609.029493499901</v>
       </c>
       <c r="O27" t="n">
-        <v>2119.624199057927</v>
+        <v>1934.179928607135</v>
       </c>
       <c r="P27" t="n">
-        <v>2361.253022756927</v>
+        <v>2175.808752306135</v>
       </c>
       <c r="Q27" t="n">
-        <v>2472.856296022416</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="R27" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S27" t="n">
-        <v>2359.115481492419</v>
+        <v>2426.738014258465</v>
       </c>
       <c r="T27" t="n">
-        <v>2164.989240682849</v>
+        <v>2232.611773448894</v>
       </c>
       <c r="U27" t="n">
-        <v>1936.897184233683</v>
+        <v>2004.519716999729</v>
       </c>
       <c r="V27" t="n">
-        <v>1701.74507600194</v>
+        <v>1769.367608767986</v>
       </c>
       <c r="W27" t="n">
-        <v>1447.507719273739</v>
+        <v>1515.130252039784</v>
       </c>
       <c r="X27" t="n">
-        <v>1239.656219068206</v>
+        <v>1307.278751834252</v>
       </c>
       <c r="Y27" t="n">
-        <v>1031.895920303252</v>
+        <v>1099.518453069298</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1188.878703965496</v>
+        <v>324.5224330398472</v>
       </c>
       <c r="C28" t="n">
-        <v>1188.878703965496</v>
+        <v>324.5224330398472</v>
       </c>
       <c r="D28" t="n">
-        <v>1188.878703965496</v>
+        <v>324.5224330398472</v>
       </c>
       <c r="E28" t="n">
-        <v>1040.965610383103</v>
+        <v>324.5224330398472</v>
       </c>
       <c r="F28" t="n">
-        <v>1040.965610383103</v>
+        <v>324.5224330398472</v>
       </c>
       <c r="G28" t="n">
-        <v>1040.965610383103</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="H28" t="n">
-        <v>1040.965610383103</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="I28" t="n">
-        <v>934.3622916017948</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J28" t="n">
-        <v>958.1075390523683</v>
+        <v>73.65301825917582</v>
       </c>
       <c r="K28" t="n">
-        <v>1126.965111579037</v>
+        <v>242.5105907858448</v>
       </c>
       <c r="L28" t="n">
-        <v>1398.571103388662</v>
+        <v>514.1165825954693</v>
       </c>
       <c r="M28" t="n">
-        <v>1695.330662876308</v>
+        <v>810.8761420831152</v>
       </c>
       <c r="N28" t="n">
-        <v>1990.46855975142</v>
+        <v>1106.014038958227</v>
       </c>
       <c r="O28" t="n">
-        <v>2247.059881453955</v>
+        <v>1362.605360660763</v>
       </c>
       <c r="P28" t="n">
-        <v>2443.097402462181</v>
+        <v>1558.642881668988</v>
       </c>
       <c r="Q28" t="n">
-        <v>2495.388540430114</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="R28" t="n">
-        <v>2391.686494508112</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="S28" t="n">
-        <v>2194.624177763434</v>
+        <v>1413.871702892243</v>
       </c>
       <c r="T28" t="n">
-        <v>1971.53939680943</v>
+        <v>1190.786921938239</v>
       </c>
       <c r="U28" t="n">
-        <v>1682.419702290092</v>
+        <v>901.6672274189018</v>
       </c>
       <c r="V28" t="n">
-        <v>1427.735214084205</v>
+        <v>795.5880679070476</v>
       </c>
       <c r="W28" t="n">
-        <v>1427.735214084205</v>
+        <v>506.1708978700869</v>
       </c>
       <c r="X28" t="n">
-        <v>1199.745663186188</v>
+        <v>506.1708978700869</v>
       </c>
       <c r="Y28" t="n">
-        <v>1188.878703965496</v>
+        <v>506.1708978700869</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1777.725813022422</v>
+        <v>1231.43612248605</v>
       </c>
       <c r="C29" t="n">
-        <v>1408.76329608201</v>
+        <v>862.4736055456384</v>
       </c>
       <c r="D29" t="n">
-        <v>1050.49759747526</v>
+        <v>504.2079069388879</v>
       </c>
       <c r="E29" t="n">
-        <v>664.7093448770156</v>
+        <v>118.4196543406437</v>
       </c>
       <c r="F29" t="n">
-        <v>253.7234400874081</v>
+        <v>118.4196543406437</v>
       </c>
       <c r="G29" t="n">
-        <v>49.90777080860229</v>
+        <v>118.4196543406437</v>
       </c>
       <c r="H29" t="n">
-        <v>49.90777080860229</v>
+        <v>118.4196543406437</v>
       </c>
       <c r="I29" t="n">
         <v>49.90777080860229</v>
       </c>
       <c r="J29" t="n">
-        <v>181.5754963439895</v>
+        <v>181.5754963439896</v>
       </c>
       <c r="K29" t="n">
-        <v>429.649803830715</v>
+        <v>429.6498038307154</v>
       </c>
       <c r="L29" t="n">
-        <v>774.3096803567475</v>
+        <v>774.309680356748</v>
       </c>
       <c r="M29" t="n">
         <v>1189.47963928463</v>
@@ -6481,7 +6481,7 @@
         <v>2005.37944447543</v>
       </c>
       <c r="P29" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926973</v>
       </c>
       <c r="Q29" t="n">
         <v>2478.714435577521</v>
@@ -6493,22 +6493,22 @@
         <v>2495.388540430115</v>
       </c>
       <c r="T29" t="n">
-        <v>2495.388540430115</v>
+        <v>2286.400110087217</v>
       </c>
       <c r="U29" t="n">
-        <v>2495.388540430115</v>
+        <v>2032.814612317497</v>
       </c>
       <c r="V29" t="n">
-        <v>2164.325653086544</v>
+        <v>2032.814612317497</v>
       </c>
       <c r="W29" t="n">
-        <v>2164.325653086544</v>
+        <v>2032.814612317497</v>
       </c>
       <c r="X29" t="n">
-        <v>2164.325653086544</v>
+        <v>1659.348854056417</v>
       </c>
       <c r="Y29" t="n">
-        <v>2164.325653086544</v>
+        <v>1618.035962550172</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>863.6805832831849</v>
+        <v>863.6805832831844</v>
       </c>
       <c r="C30" t="n">
-        <v>689.2275540020579</v>
+        <v>689.2275540020574</v>
       </c>
       <c r="D30" t="n">
-        <v>540.2931443408066</v>
+        <v>540.2931443408062</v>
       </c>
       <c r="E30" t="n">
-        <v>381.0556893353511</v>
+        <v>381.0556893353507</v>
       </c>
       <c r="F30" t="n">
-        <v>234.5211313622361</v>
+        <v>280.6947178783183</v>
       </c>
       <c r="G30" t="n">
-        <v>165.4125782904605</v>
+        <v>143.9636320404977</v>
       </c>
       <c r="H30" t="n">
-        <v>71.35671705856505</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I30" t="n">
         <v>49.90777080860229</v>
       </c>
       <c r="J30" t="n">
-        <v>143.1820865930018</v>
+        <v>234.3404441532698</v>
       </c>
       <c r="K30" t="n">
-        <v>585.0277444578524</v>
+        <v>676.1861020181203</v>
       </c>
       <c r="L30" t="n">
-        <v>873.416213034437</v>
+        <v>964.5745705947049</v>
       </c>
       <c r="M30" t="n">
-        <v>1229.308821630283</v>
+        <v>1320.467179190551</v>
       </c>
       <c r="N30" t="n">
-        <v>1609.029493499901</v>
+        <v>1700.187851060169</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.179928607135</v>
+        <v>2025.338286167403</v>
       </c>
       <c r="P30" t="n">
-        <v>2175.808752306135</v>
+        <v>2266.967109866403</v>
       </c>
       <c r="Q30" t="n">
         <v>2495.388540430115</v>
@@ -6572,19 +6572,19 @@
         <v>2359.11548149242</v>
       </c>
       <c r="T30" t="n">
-        <v>2164.98924068285</v>
+        <v>2164.989240682849</v>
       </c>
       <c r="U30" t="n">
-        <v>1936.897184233684</v>
+        <v>1936.897184233683</v>
       </c>
       <c r="V30" t="n">
         <v>1701.745076001941</v>
       </c>
       <c r="W30" t="n">
-        <v>1447.50771927374</v>
+        <v>1447.507719273739</v>
       </c>
       <c r="X30" t="n">
-        <v>1239.656219068207</v>
+        <v>1239.656219068206</v>
       </c>
       <c r="Y30" t="n">
         <v>1031.895920303253</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>791.488348962483</v>
+        <v>645.8471530360972</v>
       </c>
       <c r="C31" t="n">
-        <v>622.5521660345761</v>
+        <v>645.8471530360972</v>
       </c>
       <c r="D31" t="n">
-        <v>472.4355266222403</v>
+        <v>495.7305136237615</v>
       </c>
       <c r="E31" t="n">
-        <v>324.5224330398472</v>
+        <v>347.8174200413683</v>
       </c>
       <c r="F31" t="n">
-        <v>324.5224330398472</v>
+        <v>305.4711825039935</v>
       </c>
       <c r="G31" t="n">
-        <v>156.5110895899102</v>
+        <v>305.4711825039935</v>
       </c>
       <c r="H31" t="n">
         <v>156.5110895899102</v>
@@ -6621,19 +6621,19 @@
         <v>49.90777080860229</v>
       </c>
       <c r="J31" t="n">
-        <v>73.65301825917584</v>
+        <v>73.65301825917582</v>
       </c>
       <c r="K31" t="n">
         <v>242.5105907858448</v>
       </c>
       <c r="L31" t="n">
-        <v>514.1165825954694</v>
+        <v>514.1165825954693</v>
       </c>
       <c r="M31" t="n">
-        <v>810.8761420831153</v>
+        <v>810.8761420831152</v>
       </c>
       <c r="N31" t="n">
-        <v>1106.014038958228</v>
+        <v>1106.014038958227</v>
       </c>
       <c r="O31" t="n">
         <v>1362.605360660763</v>
@@ -6648,25 +6648,25 @@
         <v>1507.231973714919</v>
       </c>
       <c r="S31" t="n">
-        <v>1507.231973714919</v>
+        <v>1310.169656970241</v>
       </c>
       <c r="T31" t="n">
-        <v>1507.231973714919</v>
+        <v>1310.169656970241</v>
       </c>
       <c r="U31" t="n">
-        <v>1507.231973714919</v>
+        <v>1310.169656970241</v>
       </c>
       <c r="V31" t="n">
-        <v>1252.547485509032</v>
+        <v>1055.485168764354</v>
       </c>
       <c r="W31" t="n">
-        <v>973.1368137927227</v>
+        <v>1055.485168764354</v>
       </c>
       <c r="X31" t="n">
-        <v>973.1368137927227</v>
+        <v>827.4956178663369</v>
       </c>
       <c r="Y31" t="n">
-        <v>973.1368137927227</v>
+        <v>827.4956178663369</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1411.311328207225</v>
+        <v>1345.183610129099</v>
       </c>
       <c r="C32" t="n">
-        <v>1042.348811266814</v>
+        <v>1262.442141395917</v>
       </c>
       <c r="D32" t="n">
-        <v>765.5208292685095</v>
+        <v>1262.442141395917</v>
       </c>
       <c r="E32" t="n">
-        <v>765.5208292685095</v>
+        <v>876.6538887976725</v>
       </c>
       <c r="F32" t="n">
-        <v>354.534924478902</v>
+        <v>465.6679840080649</v>
       </c>
       <c r="G32" t="n">
-        <v>354.534924478902</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="H32" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="I32" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="J32" t="n">
         <v>181.5754963439896</v>
       </c>
       <c r="K32" t="n">
-        <v>429.6498038307155</v>
+        <v>429.6498038307154</v>
       </c>
       <c r="L32" t="n">
-        <v>774.3096803567475</v>
+        <v>774.3096803567473</v>
       </c>
       <c r="M32" t="n">
-        <v>1189.47963928463</v>
+        <v>1189.479639284629</v>
       </c>
       <c r="N32" t="n">
-        <v>1615.981290573627</v>
+        <v>1615.981290573626</v>
       </c>
       <c r="O32" t="n">
-        <v>2005.37944447543</v>
+        <v>2005.379444475428</v>
       </c>
       <c r="P32" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926971</v>
       </c>
       <c r="Q32" t="n">
-        <v>2478.71443557752</v>
+        <v>2478.714435577519</v>
       </c>
       <c r="R32" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="S32" t="n">
-        <v>2369.425471581596</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="T32" t="n">
-        <v>2369.425471581596</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="U32" t="n">
-        <v>2115.839973811876</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="V32" t="n">
-        <v>1784.777086468305</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="W32" t="n">
-        <v>1784.777086468305</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="X32" t="n">
-        <v>1411.311328207225</v>
+        <v>2121.922782169033</v>
       </c>
       <c r="Y32" t="n">
-        <v>1411.311328207225</v>
+        <v>1731.783450193221</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3031160492297</v>
+        <v>863.6805832831826</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8500867681028</v>
+        <v>689.2275540020556</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9156771068515</v>
+        <v>540.2931443408044</v>
       </c>
       <c r="E33" t="n">
-        <v>448.678222101396</v>
+        <v>381.0556893353489</v>
       </c>
       <c r="F33" t="n">
-        <v>302.143664128281</v>
+        <v>234.5211313622338</v>
       </c>
       <c r="G33" t="n">
         <v>165.4125782904604</v>
@@ -6776,55 +6776,55 @@
         <v>71.35671705856504</v>
       </c>
       <c r="I33" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="J33" t="n">
-        <v>109.510319166265</v>
+        <v>143.1820865930007</v>
       </c>
       <c r="K33" t="n">
-        <v>289.5353923886628</v>
+        <v>585.0277444578512</v>
       </c>
       <c r="L33" t="n">
-        <v>743.5823425316916</v>
+        <v>873.4162130344357</v>
       </c>
       <c r="M33" t="n">
-        <v>1099.474951127538</v>
+        <v>1229.308821630282</v>
       </c>
       <c r="N33" t="n">
-        <v>1479.195622997155</v>
+        <v>1609.029493499899</v>
       </c>
       <c r="O33" t="n">
-        <v>1804.34605810439</v>
+        <v>1934.179928607133</v>
       </c>
       <c r="P33" t="n">
-        <v>2361.253022756927</v>
+        <v>2175.808752306133</v>
       </c>
       <c r="Q33" t="n">
-        <v>2472.856296022416</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="R33" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="S33" t="n">
-        <v>2359.115481492419</v>
+        <v>2359.115481492418</v>
       </c>
       <c r="T33" t="n">
-        <v>2164.989240682849</v>
+        <v>2164.989240682848</v>
       </c>
       <c r="U33" t="n">
-        <v>2004.519716999729</v>
+        <v>1936.897184233682</v>
       </c>
       <c r="V33" t="n">
-        <v>1769.367608767986</v>
+        <v>1701.745076001939</v>
       </c>
       <c r="W33" t="n">
-        <v>1515.130252039784</v>
+        <v>1447.507719273737</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.278751834252</v>
+        <v>1239.656219068205</v>
       </c>
       <c r="Y33" t="n">
-        <v>1099.518453069298</v>
+        <v>1031.895920303251</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1336.815650795096</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="C34" t="n">
-        <v>1336.815650795096</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="D34" t="n">
-        <v>1336.815650795096</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="E34" t="n">
-        <v>1336.815650795096</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="F34" t="n">
-        <v>1189.925703297186</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="G34" t="n">
-        <v>1189.925703297186</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="H34" t="n">
-        <v>1040.965610383103</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="I34" t="n">
-        <v>934.3622916017948</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="J34" t="n">
-        <v>958.1075390523683</v>
+        <v>73.65301825917579</v>
       </c>
       <c r="K34" t="n">
-        <v>1126.965111579037</v>
+        <v>242.5105907858448</v>
       </c>
       <c r="L34" t="n">
-        <v>1398.571103388662</v>
+        <v>514.1165825954693</v>
       </c>
       <c r="M34" t="n">
-        <v>1695.330662876308</v>
+        <v>810.8761420831152</v>
       </c>
       <c r="N34" t="n">
-        <v>1990.46855975142</v>
+        <v>1106.014038958227</v>
       </c>
       <c r="O34" t="n">
-        <v>2247.059881453955</v>
+        <v>1362.605360660763</v>
       </c>
       <c r="P34" t="n">
-        <v>2443.097402462181</v>
+        <v>1558.642881668988</v>
       </c>
       <c r="Q34" t="n">
-        <v>2495.388540430114</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="R34" t="n">
-        <v>2391.686494508112</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="S34" t="n">
-        <v>2391.686494508112</v>
+        <v>1413.871702892243</v>
       </c>
       <c r="T34" t="n">
-        <v>2168.601713554108</v>
+        <v>1190.786921938239</v>
       </c>
       <c r="U34" t="n">
-        <v>2101.709888181474</v>
+        <v>901.6672274189018</v>
       </c>
       <c r="V34" t="n">
-        <v>1847.025399975587</v>
+        <v>646.982739213015</v>
       </c>
       <c r="W34" t="n">
-        <v>1557.608229938626</v>
+        <v>357.5655691760543</v>
       </c>
       <c r="X34" t="n">
-        <v>1557.608229938626</v>
+        <v>129.576018278037</v>
       </c>
       <c r="Y34" t="n">
-        <v>1336.815650795096</v>
+        <v>49.90777080860226</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1520.271598807165</v>
+        <v>1855.203202596271</v>
       </c>
       <c r="C35" t="n">
-        <v>1151.309081866754</v>
+        <v>1486.24068565586</v>
       </c>
       <c r="D35" t="n">
-        <v>1151.309081866754</v>
+        <v>1486.24068565586</v>
       </c>
       <c r="E35" t="n">
-        <v>765.5208292685095</v>
+        <v>1100.452433057616</v>
       </c>
       <c r="F35" t="n">
-        <v>354.534924478902</v>
+        <v>770.2951376783647</v>
       </c>
       <c r="G35" t="n">
         <v>354.534924478902</v>
       </c>
       <c r="H35" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I35" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J35" t="n">
         <v>181.5754963439895</v>
       </c>
       <c r="K35" t="n">
-        <v>429.6498038307154</v>
+        <v>429.649803830715</v>
       </c>
       <c r="L35" t="n">
-        <v>774.309680356748</v>
+        <v>774.3096803567475</v>
       </c>
       <c r="M35" t="n">
-        <v>1189.479639284631</v>
+        <v>1189.47963928463</v>
       </c>
       <c r="N35" t="n">
-        <v>1615.981290573628</v>
+        <v>1615.981290573627</v>
       </c>
       <c r="O35" t="n">
-        <v>2005.379444475431</v>
+        <v>2005.379444475429</v>
       </c>
       <c r="P35" t="n">
-        <v>2303.220758926973</v>
+        <v>2303.220758926972</v>
       </c>
       <c r="Q35" t="n">
-        <v>2478.714435577521</v>
+        <v>2478.71443557752</v>
       </c>
       <c r="R35" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S35" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="T35" t="n">
-        <v>2286.400110087217</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="U35" t="n">
-        <v>2283.876689044057</v>
+        <v>2241.803042660393</v>
       </c>
       <c r="V35" t="n">
-        <v>2283.876689044057</v>
+        <v>2241.803042660393</v>
       </c>
       <c r="W35" t="n">
-        <v>2283.876689044057</v>
+        <v>2241.803042660393</v>
       </c>
       <c r="X35" t="n">
-        <v>1910.410930782977</v>
+        <v>2241.803042660393</v>
       </c>
       <c r="Y35" t="n">
-        <v>1520.271598807165</v>
+        <v>2241.803042660393</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>863.6805832831849</v>
+        <v>909.854169799267</v>
       </c>
       <c r="C36" t="n">
-        <v>689.2275540020579</v>
+        <v>735.40114051814</v>
       </c>
       <c r="D36" t="n">
-        <v>540.2931443408066</v>
+        <v>586.4667308568887</v>
       </c>
       <c r="E36" t="n">
-        <v>381.0556893353511</v>
+        <v>427.2292758514333</v>
       </c>
       <c r="F36" t="n">
-        <v>234.5211313622361</v>
+        <v>280.6947178783182</v>
       </c>
       <c r="G36" t="n">
-        <v>97.79004552441555</v>
+        <v>143.9636320404977</v>
       </c>
       <c r="H36" t="n">
-        <v>71.35671705856505</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I36" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J36" t="n">
-        <v>109.510319166265</v>
+        <v>234.3404441532698</v>
       </c>
       <c r="K36" t="n">
-        <v>551.3559770311156</v>
+        <v>676.1861020181203</v>
       </c>
       <c r="L36" t="n">
-        <v>839.7444456077001</v>
+        <v>964.5745705947049</v>
       </c>
       <c r="M36" t="n">
-        <v>1206.776577222586</v>
+        <v>1320.467179190551</v>
       </c>
       <c r="N36" t="n">
-        <v>1586.497249092203</v>
+        <v>1700.187851060169</v>
       </c>
       <c r="O36" t="n">
-        <v>1911.647684199438</v>
+        <v>2025.338286167403</v>
       </c>
       <c r="P36" t="n">
-        <v>2153.276507898438</v>
+        <v>2266.967109866403</v>
       </c>
       <c r="Q36" t="n">
-        <v>2472.856296022417</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S36" t="n">
-        <v>2359.11548149242</v>
+        <v>2359.115481492419</v>
       </c>
       <c r="T36" t="n">
-        <v>2164.98924068285</v>
+        <v>2164.989240682849</v>
       </c>
       <c r="U36" t="n">
-        <v>1936.897184233684</v>
+        <v>1983.070770749766</v>
       </c>
       <c r="V36" t="n">
-        <v>1701.745076001941</v>
+        <v>1747.918662518023</v>
       </c>
       <c r="W36" t="n">
-        <v>1447.50771927374</v>
+        <v>1493.681305789822</v>
       </c>
       <c r="X36" t="n">
-        <v>1239.656219068207</v>
+        <v>1285.829805584289</v>
       </c>
       <c r="Y36" t="n">
-        <v>1031.895920303253</v>
+        <v>1078.069506819335</v>
       </c>
     </row>
     <row r="37">
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>363.9244302712472</v>
+        <v>474.639072452183</v>
       </c>
       <c r="C37" t="n">
-        <v>363.9244302712472</v>
+        <v>474.639072452183</v>
       </c>
       <c r="D37" t="n">
-        <v>213.8077908589114</v>
+        <v>324.5224330398472</v>
       </c>
       <c r="E37" t="n">
-        <v>213.8077908589114</v>
+        <v>324.5224330398472</v>
       </c>
       <c r="F37" t="n">
-        <v>213.8077908589114</v>
+        <v>324.5224330398472</v>
       </c>
       <c r="G37" t="n">
-        <v>213.8077908589114</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="H37" t="n">
-        <v>64.84769794482821</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="I37" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J37" t="n">
-        <v>73.65301825917584</v>
+        <v>73.65301825917581</v>
       </c>
       <c r="K37" t="n">
         <v>242.5105907858448</v>
       </c>
       <c r="L37" t="n">
-        <v>514.1165825954694</v>
+        <v>514.1165825954693</v>
       </c>
       <c r="M37" t="n">
-        <v>810.8761420831153</v>
+        <v>810.8761420831152</v>
       </c>
       <c r="N37" t="n">
-        <v>1106.014038958228</v>
+        <v>1106.014038958227</v>
       </c>
       <c r="O37" t="n">
         <v>1362.605360660763</v>
@@ -7125,22 +7125,22 @@
         <v>1310.169656970241</v>
       </c>
       <c r="T37" t="n">
-        <v>1310.169656970241</v>
+        <v>1307.860425214368</v>
       </c>
       <c r="U37" t="n">
-        <v>1021.049962450904</v>
+        <v>1018.74073069503</v>
       </c>
       <c r="V37" t="n">
-        <v>766.365474245017</v>
+        <v>764.0562424891436</v>
       </c>
       <c r="W37" t="n">
-        <v>766.365474245017</v>
+        <v>474.639072452183</v>
       </c>
       <c r="X37" t="n">
-        <v>766.365474245017</v>
+        <v>474.639072452183</v>
       </c>
       <c r="Y37" t="n">
-        <v>545.5728951014869</v>
+        <v>474.639072452183</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1735.322942104913</v>
+        <v>1345.1836101291</v>
       </c>
       <c r="C38" t="n">
-        <v>1620.707840002667</v>
+        <v>1262.442141395917</v>
       </c>
       <c r="D38" t="n">
         <v>1262.442141395917</v>
       </c>
       <c r="E38" t="n">
-        <v>876.6538887976726</v>
+        <v>876.6538887976725</v>
       </c>
       <c r="F38" t="n">
-        <v>465.667984008065</v>
+        <v>465.6679840080649</v>
       </c>
       <c r="G38" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="H38" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I38" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J38" t="n">
-        <v>181.5754963439895</v>
+        <v>181.5754963439892</v>
       </c>
       <c r="K38" t="n">
         <v>429.649803830715</v>
@@ -7189,37 +7189,37 @@
         <v>1615.981290573627</v>
       </c>
       <c r="O38" t="n">
-        <v>2005.37944447543</v>
+        <v>2005.379444475429</v>
       </c>
       <c r="P38" t="n">
         <v>2303.220758926972</v>
       </c>
       <c r="Q38" t="n">
-        <v>2478.714435577521</v>
+        <v>2478.71443557752</v>
       </c>
       <c r="R38" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S38" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="T38" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="U38" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="V38" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="W38" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="X38" t="n">
-        <v>2121.922782169035</v>
+        <v>2121.922782169034</v>
       </c>
       <c r="Y38" t="n">
-        <v>2121.922782169035</v>
+        <v>1731.783450193222</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>863.6805832831849</v>
+        <v>931.3031160492297</v>
       </c>
       <c r="C39" t="n">
-        <v>689.2275540020579</v>
+        <v>756.8500867681028</v>
       </c>
       <c r="D39" t="n">
-        <v>540.2931443408066</v>
+        <v>607.9156771068515</v>
       </c>
       <c r="E39" t="n">
-        <v>381.0556893353511</v>
+        <v>448.678222101396</v>
       </c>
       <c r="F39" t="n">
-        <v>234.5211313622361</v>
+        <v>302.143664128281</v>
       </c>
       <c r="G39" t="n">
-        <v>97.79004552441555</v>
+        <v>165.4125782904604</v>
       </c>
       <c r="H39" t="n">
-        <v>71.35671705856505</v>
+        <v>71.35671705856504</v>
       </c>
       <c r="I39" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J39" t="n">
-        <v>234.3404441532698</v>
+        <v>143.1820865930016</v>
       </c>
       <c r="K39" t="n">
-        <v>414.3655173756675</v>
+        <v>585.0277444578521</v>
       </c>
       <c r="L39" t="n">
-        <v>702.7539859522522</v>
+        <v>873.4162130344366</v>
       </c>
       <c r="M39" t="n">
-        <v>1058.646594548098</v>
+        <v>1229.308821630283</v>
       </c>
       <c r="N39" t="n">
-        <v>1676.255258304551</v>
+        <v>1609.0294934999</v>
       </c>
       <c r="O39" t="n">
-        <v>2001.405693411786</v>
+        <v>1934.179928607134</v>
       </c>
       <c r="P39" t="n">
-        <v>2243.034517110786</v>
+        <v>2175.808752306134</v>
       </c>
       <c r="Q39" t="n">
-        <v>2472.856296022417</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S39" t="n">
-        <v>2359.11548149242</v>
+        <v>2359.115481492419</v>
       </c>
       <c r="T39" t="n">
-        <v>2164.98924068285</v>
+        <v>2164.989240682849</v>
       </c>
       <c r="U39" t="n">
-        <v>1936.897184233684</v>
+        <v>1936.897184233683</v>
       </c>
       <c r="V39" t="n">
-        <v>1701.745076001941</v>
+        <v>1701.74507600194</v>
       </c>
       <c r="W39" t="n">
-        <v>1447.50771927374</v>
+        <v>1447.507719273738</v>
       </c>
       <c r="X39" t="n">
-        <v>1239.656219068207</v>
+        <v>1307.278751834252</v>
       </c>
       <c r="Y39" t="n">
-        <v>1031.895920303253</v>
+        <v>1099.518453069298</v>
       </c>
     </row>
     <row r="40">
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>691.0862547281733</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="C40" t="n">
-        <v>522.1500718002665</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="D40" t="n">
-        <v>372.0334323879307</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="E40" t="n">
-        <v>372.0334323879307</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="F40" t="n">
-        <v>372.0334323879307</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="G40" t="n">
-        <v>204.0220889379937</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="H40" t="n">
-        <v>55.0619960239105</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I40" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J40" t="n">
-        <v>73.65301825917584</v>
+        <v>73.65301825917581</v>
       </c>
       <c r="K40" t="n">
         <v>242.5105907858448</v>
       </c>
       <c r="L40" t="n">
-        <v>514.1165825954694</v>
+        <v>514.1165825954693</v>
       </c>
       <c r="M40" t="n">
-        <v>810.8761420831153</v>
+        <v>810.8761420831152</v>
       </c>
       <c r="N40" t="n">
-        <v>1106.014038958228</v>
+        <v>1106.014038958227</v>
       </c>
       <c r="O40" t="n">
         <v>1362.605360660763</v>
@@ -7359,25 +7359,25 @@
         <v>1610.934019636921</v>
       </c>
       <c r="S40" t="n">
-        <v>1610.934019636921</v>
+        <v>1413.871702892243</v>
       </c>
       <c r="T40" t="n">
-        <v>1610.934019636921</v>
+        <v>1413.871702892243</v>
       </c>
       <c r="U40" t="n">
-        <v>1610.934019636921</v>
+        <v>1224.440023923237</v>
       </c>
       <c r="V40" t="n">
-        <v>1610.934019636921</v>
+        <v>969.7555357173501</v>
       </c>
       <c r="W40" t="n">
-        <v>1321.516849599961</v>
+        <v>680.3383656803894</v>
       </c>
       <c r="X40" t="n">
-        <v>1093.527298701943</v>
+        <v>452.3488147823721</v>
       </c>
       <c r="Y40" t="n">
-        <v>872.7347195584131</v>
+        <v>231.556235638842</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1272.749013992294</v>
+        <v>1631.404658336328</v>
       </c>
       <c r="C41" t="n">
-        <v>1272.749013992294</v>
+        <v>1262.442141395917</v>
       </c>
       <c r="D41" t="n">
-        <v>1272.749013992294</v>
+        <v>1262.442141395917</v>
       </c>
       <c r="E41" t="n">
-        <v>886.9607613940498</v>
+        <v>876.6538887976725</v>
       </c>
       <c r="F41" t="n">
-        <v>475.9748566044422</v>
+        <v>465.6679840080649</v>
       </c>
       <c r="G41" t="n">
-        <v>60.21464340497954</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="H41" t="n">
-        <v>60.21464340497954</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I41" t="n">
         <v>49.90777080860227</v>
       </c>
       <c r="J41" t="n">
-        <v>181.5754963439896</v>
+        <v>181.5754963439887</v>
       </c>
       <c r="K41" t="n">
-        <v>429.6498038307154</v>
+        <v>429.6498038307145</v>
       </c>
       <c r="L41" t="n">
-        <v>774.3096803567482</v>
+        <v>774.3096803567471</v>
       </c>
       <c r="M41" t="n">
-        <v>1189.47963928463</v>
+        <v>1189.479639284629</v>
       </c>
       <c r="N41" t="n">
-        <v>1615.981290573627</v>
+        <v>1615.981290573626</v>
       </c>
       <c r="O41" t="n">
-        <v>2005.37944447543</v>
+        <v>2005.379444475429</v>
       </c>
       <c r="P41" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926971</v>
       </c>
       <c r="Q41" t="n">
-        <v>2478.71443557752</v>
+        <v>2478.714435577519</v>
       </c>
       <c r="R41" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="S41" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="T41" t="n">
-        <v>2286.400110087216</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="U41" t="n">
-        <v>2032.814612317496</v>
+        <v>2408.143830376262</v>
       </c>
       <c r="V41" t="n">
-        <v>2032.814612317496</v>
+        <v>2408.143830376262</v>
       </c>
       <c r="W41" t="n">
-        <v>2032.814612317496</v>
+        <v>2408.143830376262</v>
       </c>
       <c r="X41" t="n">
-        <v>1659.348854056416</v>
+        <v>2408.143830376262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1659.348854056416</v>
+        <v>2018.00449840045</v>
       </c>
     </row>
     <row r="42">
@@ -7478,10 +7478,10 @@
         <v>381.0556893353498</v>
       </c>
       <c r="F42" t="n">
-        <v>234.5211313622347</v>
+        <v>302.143664128281</v>
       </c>
       <c r="G42" t="n">
-        <v>97.79004552441418</v>
+        <v>165.4125782904604</v>
       </c>
       <c r="H42" t="n">
         <v>71.35671705856504</v>
@@ -7490,16 +7490,16 @@
         <v>49.90777080860227</v>
       </c>
       <c r="J42" t="n">
-        <v>234.3404441532698</v>
+        <v>143.1820865930011</v>
       </c>
       <c r="K42" t="n">
-        <v>585.0277444578521</v>
+        <v>585.0277444578517</v>
       </c>
       <c r="L42" t="n">
-        <v>873.4162130344366</v>
+        <v>873.4162130344362</v>
       </c>
       <c r="M42" t="n">
-        <v>1229.308821630283</v>
+        <v>1229.308821630282</v>
       </c>
       <c r="N42" t="n">
         <v>1609.0294934999</v>
@@ -7511,10 +7511,10 @@
         <v>2175.808752306134</v>
       </c>
       <c r="Q42" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="S42" t="n">
         <v>2359.115481492419</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>516.873686731238</v>
+        <v>453.2180418092038</v>
       </c>
       <c r="C43" t="n">
-        <v>347.9375038033311</v>
+        <v>284.2818588812969</v>
       </c>
       <c r="D43" t="n">
-        <v>197.8208643909954</v>
+        <v>196.7977183065126</v>
       </c>
       <c r="E43" t="n">
-        <v>49.90777080860227</v>
+        <v>196.7977183065126</v>
       </c>
       <c r="F43" t="n">
         <v>49.90777080860227</v>
@@ -7569,7 +7569,7 @@
         <v>49.90777080860227</v>
       </c>
       <c r="J43" t="n">
-        <v>73.65301825917581</v>
+        <v>73.65301825917579</v>
       </c>
       <c r="K43" t="n">
         <v>242.5105907858448</v>
@@ -7593,28 +7593,28 @@
         <v>1610.934019636921</v>
       </c>
       <c r="R43" t="n">
-        <v>1610.934019636921</v>
+        <v>1507.231973714919</v>
       </c>
       <c r="S43" t="n">
-        <v>1610.934019636921</v>
+        <v>1507.231973714919</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.849238682917</v>
+        <v>1507.231973714919</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.729544163579</v>
+        <v>1218.112279195581</v>
       </c>
       <c r="V43" t="n">
-        <v>844.0450559576926</v>
+        <v>963.4277909896945</v>
       </c>
       <c r="W43" t="n">
-        <v>554.6278859207321</v>
+        <v>674.0106209527339</v>
       </c>
       <c r="X43" t="n">
-        <v>554.6278859207321</v>
+        <v>674.0106209527339</v>
       </c>
       <c r="Y43" t="n">
-        <v>554.6278859207321</v>
+        <v>453.2180418092038</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1383.697869198765</v>
+        <v>1256.075440277562</v>
       </c>
       <c r="C44" t="n">
-        <v>1014.735352258354</v>
+        <v>887.1129233371501</v>
       </c>
       <c r="D44" t="n">
-        <v>1014.735352258354</v>
+        <v>834.0327128005508</v>
       </c>
       <c r="E44" t="n">
-        <v>628.9470996601094</v>
+        <v>834.0327128005508</v>
       </c>
       <c r="F44" t="n">
-        <v>354.534924478902</v>
+        <v>423.0468080109433</v>
       </c>
       <c r="G44" t="n">
-        <v>354.534924478902</v>
+        <v>423.0468080109433</v>
       </c>
       <c r="H44" t="n">
-        <v>49.90777080860227</v>
+        <v>118.4196543406436</v>
       </c>
       <c r="I44" t="n">
         <v>49.90777080860227</v>
@@ -7651,10 +7651,10 @@
         <v>181.5754963439896</v>
       </c>
       <c r="K44" t="n">
-        <v>429.6498038307153</v>
+        <v>429.6498038307154</v>
       </c>
       <c r="L44" t="n">
-        <v>774.3096803567475</v>
+        <v>774.3096803567478</v>
       </c>
       <c r="M44" t="n">
         <v>1189.47963928463</v>
@@ -7669,31 +7669,31 @@
         <v>2303.220758926972</v>
       </c>
       <c r="Q44" t="n">
-        <v>2478.71443557752</v>
+        <v>2478.714435577519</v>
       </c>
       <c r="R44" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="S44" t="n">
-        <v>2369.425471581596</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="T44" t="n">
-        <v>2160.437041238699</v>
+        <v>2286.400110087216</v>
       </c>
       <c r="U44" t="n">
-        <v>2160.437041238699</v>
+        <v>2032.814612317495</v>
       </c>
       <c r="V44" t="n">
-        <v>2160.437041238699</v>
+        <v>2032.814612317495</v>
       </c>
       <c r="W44" t="n">
-        <v>2160.437041238699</v>
+        <v>2032.814612317495</v>
       </c>
       <c r="X44" t="n">
-        <v>2160.437041238699</v>
+        <v>2032.814612317495</v>
       </c>
       <c r="Y44" t="n">
-        <v>1770.297709262887</v>
+        <v>1642.675280341683</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>909.854169799267</v>
+        <v>931.3031160492297</v>
       </c>
       <c r="C45" t="n">
-        <v>735.40114051814</v>
+        <v>756.8500867681028</v>
       </c>
       <c r="D45" t="n">
-        <v>586.4667308568887</v>
+        <v>607.9156771068515</v>
       </c>
       <c r="E45" t="n">
-        <v>427.2292758514333</v>
+        <v>448.678222101396</v>
       </c>
       <c r="F45" t="n">
-        <v>280.6947178783182</v>
+        <v>302.143664128281</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9636320404977</v>
+        <v>165.4125782904604</v>
       </c>
       <c r="H45" t="n">
-        <v>49.90777080860227</v>
+        <v>71.35671705856504</v>
       </c>
       <c r="I45" t="n">
         <v>49.90777080860227</v>
       </c>
       <c r="J45" t="n">
-        <v>234.3404441532698</v>
+        <v>120.6498421853038</v>
       </c>
       <c r="K45" t="n">
-        <v>414.3655173756675</v>
+        <v>562.4955000501543</v>
       </c>
       <c r="L45" t="n">
-        <v>702.7539859522522</v>
+        <v>850.8839686267388</v>
       </c>
       <c r="M45" t="n">
-        <v>1320.362649708705</v>
+        <v>1206.776577222585</v>
       </c>
       <c r="N45" t="n">
-        <v>1794.473763950693</v>
+        <v>1586.497249092202</v>
       </c>
       <c r="O45" t="n">
-        <v>2119.624199057927</v>
+        <v>1911.647684199437</v>
       </c>
       <c r="P45" t="n">
-        <v>2361.253022756927</v>
+        <v>2153.276507898436</v>
       </c>
       <c r="Q45" t="n">
         <v>2472.856296022416</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="S45" t="n">
         <v>2359.115481492419</v>
       </c>
       <c r="T45" t="n">
-        <v>2211.162827198932</v>
+        <v>2164.989240682849</v>
       </c>
       <c r="U45" t="n">
-        <v>1983.070770749766</v>
+        <v>1936.897184233683</v>
       </c>
       <c r="V45" t="n">
-        <v>1747.918662518023</v>
+        <v>1701.74507600194</v>
       </c>
       <c r="W45" t="n">
-        <v>1493.681305789822</v>
+        <v>1447.507719273738</v>
       </c>
       <c r="X45" t="n">
-        <v>1285.829805584289</v>
+        <v>1307.278751834252</v>
       </c>
       <c r="Y45" t="n">
-        <v>1078.069506819335</v>
+        <v>1099.518453069298</v>
       </c>
     </row>
     <row r="46">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.90777080860227</v>
+        <v>218.8439537365092</v>
       </c>
       <c r="C46" t="n">
         <v>49.90777080860227</v>
@@ -7806,7 +7806,7 @@
         <v>49.90777080860227</v>
       </c>
       <c r="J46" t="n">
-        <v>73.65301825917581</v>
+        <v>73.65301825917579</v>
       </c>
       <c r="K46" t="n">
         <v>242.5105907858448</v>
@@ -7833,25 +7833,25 @@
         <v>1610.934019636921</v>
       </c>
       <c r="S46" t="n">
-        <v>1413.871702892243</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="T46" t="n">
-        <v>1190.786921938239</v>
+        <v>1387.849238682917</v>
       </c>
       <c r="U46" t="n">
-        <v>1042.791559092997</v>
+        <v>1172.583627707614</v>
       </c>
       <c r="V46" t="n">
-        <v>788.1070708871104</v>
+        <v>917.8991395017269</v>
       </c>
       <c r="W46" t="n">
-        <v>498.6899008501497</v>
+        <v>628.4819694647663</v>
       </c>
       <c r="X46" t="n">
-        <v>270.7003499521324</v>
+        <v>400.4924185667489</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.90777080860227</v>
+        <v>400.4924185667489</v>
       </c>
     </row>
   </sheetData>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>117.9981386850736</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>264.3596516773811</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>240.2909008957937</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>3.903858464886284</v>
       </c>
       <c r="R12" t="n">
-        <v>22.76182697526282</v>
+        <v>22.76182697526278</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,19 +9008,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>244.0891740254824</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>190.3822160310746</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>295.4123521709284</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.76182697526282</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>172.3860879618019</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>245.5036673062088</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>240.2909008957935</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>22.76182697526282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>264.359651677381</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>221.4349165246222</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>190.0916423981237</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>22.76182697526285</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>3.903858464886298</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>264.359651677381</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>240.2909008957937</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>117.9981386850728</v>
       </c>
       <c r="R24" t="n">
-        <v>22.76182697526282</v>
+        <v>22.76182697526284</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>34.01188628963381</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>119.4126319657998</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>240.2909008957935</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>22.76182697526284</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>34.01188628963313</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>117.9981386850738</v>
       </c>
       <c r="R30" t="n">
-        <v>22.76182697526282</v>
+        <v>22.76182697526284</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>34.011886289632</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>167.3317995620648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>22.76182697526284</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>11.25204345357525</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>117.9981386850728</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>22.76182697526284</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>34.01188628963291</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>240.2909008957937</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>119.4126319658006</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>22.76182697526284</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>34.01188628963246</v>
       </c>
       <c r="K42" t="n">
-        <v>172.3860879618026</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>11.25204345357452</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>264.3596516773809</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>95.34388118421271</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>235.2027063966143</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H11" t="n">
         <v>301.5808821335967</v>
       </c>
       <c r="I11" t="n">
-        <v>67.82676469672091</v>
+        <v>67.82676469672086</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.7034381600318</v>
       </c>
       <c r="T11" t="n">
-        <v>206.8985460394687</v>
+        <v>45.96537134230596</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>66.94630743838445</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>66.94630743838336</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>13.95528560599161</v>
       </c>
       <c r="F13" t="n">
-        <v>105.766614963249</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.5372855934948</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>102.665025462782</v>
       </c>
       <c r="S13" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>220.8539331444638</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2284975741443</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>316.4157653716663</v>
+        <v>117.6802774340392</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>66.94630743838434</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>66.94630743838445</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>23.79346046804147</v>
+        <v>79.37270024441534</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>251.4804868416338</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.82676469672091</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T17" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0496427920231</v>
+        <v>189.8404268199566</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>66.94630743838533</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>66.94630743838493</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>110.7144833175924</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>76.3208623592196</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>272.7689875748312</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>301.5808821335967</v>
       </c>
       <c r="I20" t="n">
-        <v>67.82676469672091</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U20" t="n">
-        <v>207.3013767124289</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>66.9463074383857</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>66.94630743838434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>124.4533749620608</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2293293697541685</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I22" t="n">
         <v>105.5372855934949</v>
@@ -24180,16 +24180,16 @@
         <v>195.0916935772309</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8539331444638</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2284975741443</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>76.82836066507639</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>363.2233225559304</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7034381600318</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>45.71185065092132</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>21.23445678746313</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>66.94630743838562</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H25" t="n">
         <v>147.4704919849424</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>87.45966502069729</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>16.70541918996639</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>328.4095318750208</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>286.9413040316566</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I26" t="n">
-        <v>67.82676469672091</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7034381600318</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>66.94630743838535</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>66.94630743838448</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>147.4704919849424</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>147.1192754070923</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.8263637236097</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>209.8250984814503</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H29" t="n">
         <v>301.5808821335967</v>
       </c>
       <c r="I29" t="n">
-        <v>67.82676469672091</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T29" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>345.3381760648712</v>
       </c>
     </row>
     <row r="30">
@@ -24770,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>45.7118506509218</v>
       </c>
       <c r="G30" t="n">
-        <v>66.94630743838447</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>21.23445678746315</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>103.4982728609301</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H31" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>220.8539331444638</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>9.906433337444639</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>283.3588377251567</v>
       </c>
       <c r="D32" t="n">
-        <v>80.62333944236173</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I32" t="n">
-        <v>67.82676469672091</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7034381600318</v>
       </c>
       <c r="T32" t="n">
         <v>206.8985460394687</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>66.9463074383867</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>66.94630743838519</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.3312300154376</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S34" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>220.0055904552364</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>139.7130883573544</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>80.0203233162531</v>
       </c>
       <c r="G35" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>67.82676469672091</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U35" t="n">
-        <v>248.5514559592948</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>66.94630743838445</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.23445678746315</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>45.71185065092249</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I37" t="n">
-        <v>90.7467577286312</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8539331444638</v>
+        <v>218.5677937061495</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>251.8039406897844</v>
+        <v>283.3588377251558</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>301.5808821335967</v>
       </c>
       <c r="I38" t="n">
-        <v>67.82676469672091</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>66.94630743838445</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>66.94630743838562</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I40" t="n">
-        <v>100.4346026303397</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>102.665025462782</v>
       </c>
       <c r="S40" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>220.8539331444638</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2284975741443</v>
+        <v>98.69113539482808</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25648,7 +25648,7 @@
         <v>301.5808821335967</v>
       </c>
       <c r="I41" t="n">
-        <v>57.62296082630745</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>164.6773798387101</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>66.94630743838579</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>66.94630743838579</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>142.4553229843381</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>62.00617384917592</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.3312300154376</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>195.0916935772309</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>302.1336331894497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>135.2079923123161</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.602611067468</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.82676469672094</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7034381600318</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.23445678746315</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>45.71185065092249</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>66.94630743838562</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26073,13 +26073,13 @@
         <v>102.665025462782</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>139.7130883573545</v>
+        <v>73.11554270859418</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>625453.7169158397</v>
+        <v>625453.7169158401</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>625453.7169158399</v>
+        <v>625453.7169158398</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>625453.7169158398</v>
+        <v>625453.7169158397</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>625453.7169158398</v>
+        <v>625453.7169158397</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>625453.7169158396</v>
+        <v>625453.7169158397</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>625453.7169158398</v>
+        <v>625453.7169158397</v>
       </c>
     </row>
     <row r="14">
@@ -26316,10 +26316,10 @@
         <v>614457.2540377787</v>
       </c>
       <c r="C2" t="n">
+        <v>614457.2540377788</v>
+      </c>
+      <c r="D2" t="n">
         <v>614457.2540377787</v>
-      </c>
-      <c r="D2" t="n">
-        <v>614457.2540377786</v>
       </c>
       <c r="E2" t="n">
         <v>452220.1049995837</v>
@@ -26328,19 +26328,19 @@
         <v>452220.1049995838</v>
       </c>
       <c r="G2" t="n">
+        <v>452220.1049995838</v>
+      </c>
+      <c r="H2" t="n">
         <v>452220.1049995837</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>452220.1049995837</v>
+      </c>
+      <c r="J2" t="n">
         <v>452220.1049995838</v>
       </c>
-      <c r="I2" t="n">
-        <v>452220.1049995839</v>
-      </c>
-      <c r="J2" t="n">
-        <v>452220.1049995836</v>
-      </c>
       <c r="K2" t="n">
-        <v>452220.1049995838</v>
+        <v>452220.1049995837</v>
       </c>
       <c r="L2" t="n">
         <v>452220.1049995836</v>
@@ -26349,13 +26349,13 @@
         <v>452220.1049995837</v>
       </c>
       <c r="N2" t="n">
-        <v>452220.1049995838</v>
+        <v>452220.1049995836</v>
       </c>
       <c r="O2" t="n">
-        <v>452220.1049995837</v>
+        <v>452220.1049995836</v>
       </c>
       <c r="P2" t="n">
-        <v>452220.1049995838</v>
+        <v>452220.1049995836</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>925724.3361543599</v>
+        <v>925724.3361543603</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
+        <v>23002.38492225182</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23002.38492225182</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23002.38492225179</v>
+      </c>
+      <c r="H4" t="n">
         <v>23002.38492225181</v>
       </c>
-      <c r="F4" t="n">
-        <v>23002.38492225181</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>23002.3849222518</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>23002.38492225183</v>
+      </c>
+      <c r="K4" t="n">
         <v>23002.38492225182</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23002.38492225181</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23002.3849222518</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23002.38492225181</v>
       </c>
       <c r="L4" t="n">
         <v>23002.38492225179</v>
       </c>
       <c r="M4" t="n">
+        <v>23002.3849222518</v>
+      </c>
+      <c r="N4" t="n">
         <v>23002.38492225181</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23002.38492225182</v>
       </c>
       <c r="O4" t="n">
         <v>23002.3849222518</v>
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57994.76650862438</v>
+        <v>57994.76650862439</v>
       </c>
       <c r="F5" t="n">
         <v>57994.76650862438</v>
@@ -26487,31 +26487,31 @@
         <v>57994.76650862437</v>
       </c>
       <c r="H5" t="n">
+        <v>57994.76650862437</v>
+      </c>
+      <c r="I5" t="n">
+        <v>57994.76650862437</v>
+      </c>
+      <c r="J5" t="n">
         <v>57994.76650862438</v>
-      </c>
-      <c r="I5" t="n">
-        <v>57994.76650862438</v>
-      </c>
-      <c r="J5" t="n">
-        <v>57994.76650862437</v>
       </c>
       <c r="K5" t="n">
         <v>57994.76650862438</v>
       </c>
       <c r="L5" t="n">
+        <v>57994.76650862435</v>
+      </c>
+      <c r="M5" t="n">
         <v>57994.76650862437</v>
       </c>
-      <c r="M5" t="n">
-        <v>57994.76650862438</v>
-      </c>
       <c r="N5" t="n">
-        <v>57994.76650862438</v>
+        <v>57994.76650862437</v>
       </c>
       <c r="O5" t="n">
-        <v>57994.76650862437</v>
+        <v>57994.76650862436</v>
       </c>
       <c r="P5" t="n">
-        <v>57994.76650862437</v>
+        <v>57994.76650862436</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133805.0337653858</v>
+        <v>133760.8979867047</v>
       </c>
       <c r="C6" t="n">
-        <v>133805.0337653858</v>
+        <v>133760.8979867048</v>
       </c>
       <c r="D6" t="n">
-        <v>133805.0337653857</v>
+        <v>133760.8979867047</v>
       </c>
       <c r="E6" t="n">
-        <v>-554501.3825856524</v>
+        <v>-559953.4233322737</v>
       </c>
       <c r="F6" t="n">
-        <v>371222.9535687076</v>
+        <v>365770.912822087</v>
       </c>
       <c r="G6" t="n">
-        <v>371222.9535687076</v>
+        <v>365770.9128220867</v>
       </c>
       <c r="H6" t="n">
-        <v>371222.9535687076</v>
+        <v>365770.9128220865</v>
       </c>
       <c r="I6" t="n">
-        <v>371222.9535687077</v>
+        <v>365770.9128220865</v>
       </c>
       <c r="J6" t="n">
-        <v>371222.9535687075</v>
+        <v>365770.9128220867</v>
       </c>
       <c r="K6" t="n">
-        <v>371222.9535687076</v>
+        <v>365770.9128220866</v>
       </c>
       <c r="L6" t="n">
-        <v>371222.9535687074</v>
+        <v>365770.9128220865</v>
       </c>
       <c r="M6" t="n">
-        <v>215757.752111371</v>
+        <v>210305.7113647499</v>
       </c>
       <c r="N6" t="n">
-        <v>371222.9535687076</v>
+        <v>365770.9128220865</v>
       </c>
       <c r="O6" t="n">
-        <v>371222.9535687076</v>
+        <v>365770.9128220865</v>
       </c>
       <c r="P6" t="n">
-        <v>371222.9535687076</v>
+        <v>365770.9128220865</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>920.4064538571853</v>
+        <v>920.4064538571856</v>
       </c>
       <c r="F3" t="n">
         <v>920.4064538571853</v>
@@ -26755,25 +26755,25 @@
         <v>920.4064538571853</v>
       </c>
       <c r="H3" t="n">
-        <v>920.4064538571853</v>
+        <v>920.4064538571851</v>
       </c>
       <c r="I3" t="n">
-        <v>920.4064538571853</v>
+        <v>920.4064538571852</v>
       </c>
       <c r="J3" t="n">
-        <v>920.4064538571853</v>
+        <v>920.4064538571852</v>
       </c>
       <c r="K3" t="n">
-        <v>920.4064538571853</v>
+        <v>920.4064538571852</v>
       </c>
       <c r="L3" t="n">
-        <v>920.4064538571853</v>
+        <v>920.4064538571852</v>
       </c>
       <c r="M3" t="n">
-        <v>920.4064538571853</v>
+        <v>920.4064538571852</v>
       </c>
       <c r="N3" t="n">
-        <v>920.4064538571853</v>
+        <v>920.4064538571852</v>
       </c>
       <c r="O3" t="n">
         <v>920.4064538571852</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>623.8471351075286</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="F4" t="n">
         <v>623.8471351075286</v>
@@ -26807,31 +26807,31 @@
         <v>623.8471351075284</v>
       </c>
       <c r="H4" t="n">
+        <v>623.8471351075284</v>
+      </c>
+      <c r="I4" t="n">
+        <v>623.8471351075284</v>
+      </c>
+      <c r="J4" t="n">
         <v>623.8471351075286</v>
-      </c>
-      <c r="I4" t="n">
-        <v>623.8471351075286</v>
-      </c>
-      <c r="J4" t="n">
-        <v>623.8471351075284</v>
       </c>
       <c r="K4" t="n">
         <v>623.8471351075286</v>
       </c>
       <c r="L4" t="n">
+        <v>623.8471351075282</v>
+      </c>
+      <c r="M4" t="n">
         <v>623.8471351075284</v>
       </c>
-      <c r="M4" t="n">
-        <v>623.8471351075286</v>
-      </c>
       <c r="N4" t="n">
-        <v>623.8471351075286</v>
+        <v>623.8471351075284</v>
       </c>
       <c r="O4" t="n">
-        <v>623.8471351075284</v>
+        <v>623.8471351075283</v>
       </c>
       <c r="P4" t="n">
-        <v>623.8471351075284</v>
+        <v>623.8471351075283</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>920.4064538571853</v>
+        <v>920.4064538571856</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.35279447026536e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>623.8471351075286</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>623.8471351075286</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>623.8471351075286</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667075</v>
       </c>
       <c r="H11" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217044</v>
       </c>
       <c r="I11" t="n">
-        <v>142.649124873685</v>
+        <v>142.6491248736851</v>
       </c>
       <c r="J11" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876837</v>
       </c>
       <c r="K11" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174311</v>
       </c>
       <c r="L11" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902224</v>
       </c>
       <c r="M11" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039217</v>
       </c>
       <c r="N11" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733559</v>
       </c>
       <c r="O11" t="n">
-        <v>623.4296800093662</v>
+        <v>623.4296800093664</v>
       </c>
       <c r="P11" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325854</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255081</v>
       </c>
       <c r="R11" t="n">
-        <v>232.428067968267</v>
+        <v>232.4280679682671</v>
       </c>
       <c r="S11" t="n">
-        <v>84.31663142621353</v>
+        <v>84.31663142621356</v>
       </c>
       <c r="T11" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H12" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I12" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395196</v>
       </c>
       <c r="J12" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K12" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798114</v>
       </c>
       <c r="L12" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905659</v>
       </c>
       <c r="M12" t="n">
-        <v>501.6215173521659</v>
+        <v>501.6215173521661</v>
       </c>
       <c r="N12" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950684</v>
       </c>
       <c r="O12" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810448</v>
       </c>
       <c r="P12" t="n">
-        <v>378.0439263022088</v>
+        <v>378.043926302209</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.712353142071</v>
+        <v>252.7123531420711</v>
       </c>
       <c r="R12" t="n">
-        <v>122.9176769887011</v>
+        <v>122.9176769887012</v>
       </c>
       <c r="S12" t="n">
-        <v>36.77284275552054</v>
+        <v>36.77284275552055</v>
       </c>
       <c r="T12" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346729</v>
       </c>
       <c r="U12" t="n">
         <v>0.1302461963005452</v>
@@ -31916,43 +31916,43 @@
         <v>14.75668052249718</v>
       </c>
       <c r="I13" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376346</v>
       </c>
       <c r="J13" t="n">
         <v>117.3442785515956</v>
       </c>
       <c r="K13" t="n">
-        <v>192.8326963982758</v>
+        <v>192.8326963982759</v>
       </c>
       <c r="L13" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160724</v>
       </c>
       <c r="M13" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337615</v>
       </c>
       <c r="N13" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734101</v>
       </c>
       <c r="O13" t="n">
-        <v>234.5980253208446</v>
+        <v>234.5980253208447</v>
       </c>
       <c r="P13" t="n">
-        <v>200.7391387232129</v>
+        <v>200.739138723213</v>
       </c>
       <c r="Q13" t="n">
         <v>138.981374532435</v>
       </c>
       <c r="R13" t="n">
-        <v>74.62836591438749</v>
+        <v>74.62836591438752</v>
       </c>
       <c r="S13" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974138</v>
       </c>
       <c r="T13" t="n">
-        <v>7.091656283817654</v>
+        <v>7.091656283817657</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09053178234660848</v>
+        <v>0.09053178234660851</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667073</v>
       </c>
       <c r="H20" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217042</v>
       </c>
       <c r="I20" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J20" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876835</v>
       </c>
       <c r="K20" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174308</v>
       </c>
       <c r="L20" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902221</v>
       </c>
       <c r="M20" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039214</v>
       </c>
       <c r="N20" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733555</v>
       </c>
       <c r="O20" t="n">
-        <v>623.4296800093662</v>
+        <v>623.4296800093661</v>
       </c>
       <c r="P20" t="n">
-        <v>532.0828083325852</v>
+        <v>532.082808332585</v>
       </c>
       <c r="Q20" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255079</v>
       </c>
       <c r="R20" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S20" t="n">
-        <v>84.31663142621353</v>
+        <v>84.3166314262135</v>
       </c>
       <c r="T20" t="n">
         <v>16.19730352466262</v>
@@ -32548,7 +32548,7 @@
         <v>19.12014161692002</v>
       </c>
       <c r="I21" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395192</v>
       </c>
       <c r="J21" t="n">
         <v>187.0422209673361</v>
@@ -32557,34 +32557,34 @@
         <v>319.6849472798112</v>
       </c>
       <c r="L21" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905656</v>
       </c>
       <c r="M21" t="n">
-        <v>501.6215173521659</v>
+        <v>501.6215173521658</v>
       </c>
       <c r="N21" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950681</v>
       </c>
       <c r="O21" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810445</v>
       </c>
       <c r="P21" t="n">
         <v>378.0439263022088</v>
       </c>
       <c r="Q21" t="n">
-        <v>252.712353142071</v>
+        <v>252.7123531420709</v>
       </c>
       <c r="R21" t="n">
         <v>122.9176769887011</v>
       </c>
       <c r="S21" t="n">
-        <v>36.77284275552054</v>
+        <v>36.77284275552053</v>
       </c>
       <c r="T21" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346724</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1302461963005452</v>
+        <v>0.1302461963005451</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.659749343021154</v>
+        <v>1.659749343021153</v>
       </c>
       <c r="H22" t="n">
-        <v>14.75668052249718</v>
+        <v>14.75668052249717</v>
       </c>
       <c r="I22" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376342</v>
       </c>
       <c r="J22" t="n">
-        <v>117.3442785515956</v>
+        <v>117.3442785515955</v>
       </c>
       <c r="K22" t="n">
-        <v>192.8326963982758</v>
+        <v>192.8326963982757</v>
       </c>
       <c r="L22" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160722</v>
       </c>
       <c r="M22" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337613</v>
       </c>
       <c r="N22" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734099</v>
       </c>
       <c r="O22" t="n">
         <v>234.5980253208446</v>
       </c>
       <c r="P22" t="n">
-        <v>200.7391387232129</v>
+        <v>200.7391387232128</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.981374532435</v>
+        <v>138.9813745324349</v>
       </c>
       <c r="R22" t="n">
-        <v>74.62836591438749</v>
+        <v>74.62836591438747</v>
       </c>
       <c r="S22" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974136</v>
       </c>
       <c r="T22" t="n">
-        <v>7.091656283817654</v>
+        <v>7.091656283817652</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09053178234660848</v>
+        <v>0.09053178234660846</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,19 +32700,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667073</v>
       </c>
       <c r="H23" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217042</v>
       </c>
       <c r="I23" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J23" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876835</v>
       </c>
       <c r="K23" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174308</v>
       </c>
       <c r="L23" t="n">
         <v>583.9077043902222</v>
@@ -32724,19 +32724,19 @@
         <v>660.2228123733556</v>
       </c>
       <c r="O23" t="n">
-        <v>623.4296800093662</v>
+        <v>623.4296800093661</v>
       </c>
       <c r="P23" t="n">
         <v>532.0828083325852</v>
       </c>
       <c r="Q23" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255079</v>
       </c>
       <c r="R23" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S23" t="n">
-        <v>84.31663142621353</v>
+        <v>84.31663142621352</v>
       </c>
       <c r="T23" t="n">
         <v>16.19730352466262</v>
@@ -32785,7 +32785,7 @@
         <v>19.12014161692002</v>
       </c>
       <c r="I24" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395193</v>
       </c>
       <c r="J24" t="n">
         <v>187.0422209673361</v>
@@ -32794,10 +32794,10 @@
         <v>319.6849472798112</v>
       </c>
       <c r="L24" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905656</v>
       </c>
       <c r="M24" t="n">
-        <v>501.6215173521659</v>
+        <v>501.6215173521658</v>
       </c>
       <c r="N24" t="n">
         <v>514.8979462950682</v>
@@ -32818,10 +32818,10 @@
         <v>36.77284275552054</v>
       </c>
       <c r="T24" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346725</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1302461963005452</v>
+        <v>0.1302461963005451</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,28 +32858,28 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.659749343021154</v>
+        <v>1.659749343021153</v>
       </c>
       <c r="H25" t="n">
-        <v>14.75668052249718</v>
+        <v>14.75668052249717</v>
       </c>
       <c r="I25" t="n">
         <v>49.91318933376343</v>
       </c>
       <c r="J25" t="n">
-        <v>117.3442785515956</v>
+        <v>117.3442785515955</v>
       </c>
       <c r="K25" t="n">
         <v>192.8326963982758</v>
       </c>
       <c r="L25" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160722</v>
       </c>
       <c r="M25" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337613</v>
       </c>
       <c r="N25" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734099</v>
       </c>
       <c r="O25" t="n">
         <v>234.5980253208446</v>
@@ -32891,16 +32891,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R25" t="n">
-        <v>74.62836591438749</v>
+        <v>74.62836591438747</v>
       </c>
       <c r="S25" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974136</v>
       </c>
       <c r="T25" t="n">
-        <v>7.091656283817654</v>
+        <v>7.091656283817653</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09053178234660848</v>
+        <v>0.09053178234660847</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,19 +32937,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667073</v>
       </c>
       <c r="H26" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217042</v>
       </c>
       <c r="I26" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J26" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876835</v>
       </c>
       <c r="K26" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174308</v>
       </c>
       <c r="L26" t="n">
         <v>583.9077043902222</v>
@@ -32961,19 +32961,19 @@
         <v>660.2228123733556</v>
       </c>
       <c r="O26" t="n">
-        <v>623.4296800093662</v>
+        <v>623.4296800093661</v>
       </c>
       <c r="P26" t="n">
         <v>532.0828083325852</v>
       </c>
       <c r="Q26" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255079</v>
       </c>
       <c r="R26" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S26" t="n">
-        <v>84.31663142621353</v>
+        <v>84.31663142621352</v>
       </c>
       <c r="T26" t="n">
         <v>16.19730352466262</v>
@@ -33022,7 +33022,7 @@
         <v>19.12014161692002</v>
       </c>
       <c r="I27" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395193</v>
       </c>
       <c r="J27" t="n">
         <v>187.0422209673361</v>
@@ -33031,10 +33031,10 @@
         <v>319.6849472798112</v>
       </c>
       <c r="L27" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905656</v>
       </c>
       <c r="M27" t="n">
-        <v>501.6215173521659</v>
+        <v>501.6215173521658</v>
       </c>
       <c r="N27" t="n">
         <v>514.8979462950682</v>
@@ -33055,10 +33055,10 @@
         <v>36.77284275552054</v>
       </c>
       <c r="T27" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346725</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1302461963005452</v>
+        <v>0.1302461963005451</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,28 +33095,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.659749343021154</v>
+        <v>1.659749343021153</v>
       </c>
       <c r="H28" t="n">
-        <v>14.75668052249718</v>
+        <v>14.75668052249717</v>
       </c>
       <c r="I28" t="n">
         <v>49.91318933376343</v>
       </c>
       <c r="J28" t="n">
-        <v>117.3442785515956</v>
+        <v>117.3442785515955</v>
       </c>
       <c r="K28" t="n">
         <v>192.8326963982758</v>
       </c>
       <c r="L28" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160722</v>
       </c>
       <c r="M28" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337613</v>
       </c>
       <c r="N28" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734099</v>
       </c>
       <c r="O28" t="n">
         <v>234.5980253208446</v>
@@ -33128,16 +33128,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R28" t="n">
-        <v>74.62836591438749</v>
+        <v>74.62836591438747</v>
       </c>
       <c r="S28" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974136</v>
       </c>
       <c r="T28" t="n">
-        <v>7.091656283817654</v>
+        <v>7.091656283817653</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09053178234660848</v>
+        <v>0.09053178234660847</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,19 +33174,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667073</v>
       </c>
       <c r="H29" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217042</v>
       </c>
       <c r="I29" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J29" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876835</v>
       </c>
       <c r="K29" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174308</v>
       </c>
       <c r="L29" t="n">
         <v>583.9077043902222</v>
@@ -33198,19 +33198,19 @@
         <v>660.2228123733556</v>
       </c>
       <c r="O29" t="n">
-        <v>623.4296800093662</v>
+        <v>623.4296800093661</v>
       </c>
       <c r="P29" t="n">
         <v>532.0828083325852</v>
       </c>
       <c r="Q29" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255079</v>
       </c>
       <c r="R29" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S29" t="n">
-        <v>84.31663142621353</v>
+        <v>84.31663142621352</v>
       </c>
       <c r="T29" t="n">
         <v>16.19730352466262</v>
@@ -33259,7 +33259,7 @@
         <v>19.12014161692002</v>
       </c>
       <c r="I30" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395193</v>
       </c>
       <c r="J30" t="n">
         <v>187.0422209673361</v>
@@ -33268,10 +33268,10 @@
         <v>319.6849472798112</v>
       </c>
       <c r="L30" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905656</v>
       </c>
       <c r="M30" t="n">
-        <v>501.6215173521659</v>
+        <v>501.6215173521658</v>
       </c>
       <c r="N30" t="n">
         <v>514.8979462950682</v>
@@ -33292,10 +33292,10 @@
         <v>36.77284275552054</v>
       </c>
       <c r="T30" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346725</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1302461963005452</v>
+        <v>0.1302461963005451</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,28 +33332,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.659749343021154</v>
+        <v>1.659749343021153</v>
       </c>
       <c r="H31" t="n">
-        <v>14.75668052249718</v>
+        <v>14.75668052249717</v>
       </c>
       <c r="I31" t="n">
         <v>49.91318933376343</v>
       </c>
       <c r="J31" t="n">
-        <v>117.3442785515956</v>
+        <v>117.3442785515955</v>
       </c>
       <c r="K31" t="n">
         <v>192.8326963982758</v>
       </c>
       <c r="L31" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160722</v>
       </c>
       <c r="M31" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337613</v>
       </c>
       <c r="N31" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734099</v>
       </c>
       <c r="O31" t="n">
         <v>234.5980253208446</v>
@@ -33365,16 +33365,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R31" t="n">
-        <v>74.62836591438749</v>
+        <v>74.62836591438747</v>
       </c>
       <c r="S31" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974136</v>
       </c>
       <c r="T31" t="n">
-        <v>7.091656283817654</v>
+        <v>7.091656283817653</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09053178234660848</v>
+        <v>0.09053178234660847</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,19 +33411,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667073</v>
       </c>
       <c r="H32" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217042</v>
       </c>
       <c r="I32" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J32" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876835</v>
       </c>
       <c r="K32" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174308</v>
       </c>
       <c r="L32" t="n">
         <v>583.9077043902222</v>
@@ -33435,19 +33435,19 @@
         <v>660.2228123733556</v>
       </c>
       <c r="O32" t="n">
-        <v>623.4296800093662</v>
+        <v>623.4296800093661</v>
       </c>
       <c r="P32" t="n">
         <v>532.0828083325852</v>
       </c>
       <c r="Q32" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255079</v>
       </c>
       <c r="R32" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S32" t="n">
-        <v>84.31663142621353</v>
+        <v>84.31663142621352</v>
       </c>
       <c r="T32" t="n">
         <v>16.19730352466262</v>
@@ -33496,7 +33496,7 @@
         <v>19.12014161692002</v>
       </c>
       <c r="I33" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395193</v>
       </c>
       <c r="J33" t="n">
         <v>187.0422209673361</v>
@@ -33505,10 +33505,10 @@
         <v>319.6849472798112</v>
       </c>
       <c r="L33" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905656</v>
       </c>
       <c r="M33" t="n">
-        <v>501.6215173521659</v>
+        <v>501.6215173521658</v>
       </c>
       <c r="N33" t="n">
         <v>514.8979462950682</v>
@@ -33529,10 +33529,10 @@
         <v>36.77284275552054</v>
       </c>
       <c r="T33" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346725</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1302461963005452</v>
+        <v>0.1302461963005451</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,28 +33569,28 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.659749343021154</v>
+        <v>1.659749343021153</v>
       </c>
       <c r="H34" t="n">
-        <v>14.75668052249718</v>
+        <v>14.75668052249717</v>
       </c>
       <c r="I34" t="n">
         <v>49.91318933376343</v>
       </c>
       <c r="J34" t="n">
-        <v>117.3442785515956</v>
+        <v>117.3442785515955</v>
       </c>
       <c r="K34" t="n">
         <v>192.8326963982758</v>
       </c>
       <c r="L34" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160722</v>
       </c>
       <c r="M34" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337613</v>
       </c>
       <c r="N34" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734099</v>
       </c>
       <c r="O34" t="n">
         <v>234.5980253208446</v>
@@ -33602,16 +33602,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R34" t="n">
-        <v>74.62836591438749</v>
+        <v>74.62836591438747</v>
       </c>
       <c r="S34" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974136</v>
       </c>
       <c r="T34" t="n">
-        <v>7.091656283817654</v>
+        <v>7.091656283817653</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09053178234660848</v>
+        <v>0.09053178234660847</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,19 +33648,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667073</v>
       </c>
       <c r="H35" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217042</v>
       </c>
       <c r="I35" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J35" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876835</v>
       </c>
       <c r="K35" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174308</v>
       </c>
       <c r="L35" t="n">
         <v>583.9077043902222</v>
@@ -33672,19 +33672,19 @@
         <v>660.2228123733556</v>
       </c>
       <c r="O35" t="n">
-        <v>623.4296800093662</v>
+        <v>623.4296800093661</v>
       </c>
       <c r="P35" t="n">
         <v>532.0828083325852</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255079</v>
       </c>
       <c r="R35" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S35" t="n">
-        <v>84.31663142621353</v>
+        <v>84.31663142621352</v>
       </c>
       <c r="T35" t="n">
         <v>16.19730352466262</v>
@@ -33733,7 +33733,7 @@
         <v>19.12014161692002</v>
       </c>
       <c r="I36" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395193</v>
       </c>
       <c r="J36" t="n">
         <v>187.0422209673361</v>
@@ -33742,10 +33742,10 @@
         <v>319.6849472798112</v>
       </c>
       <c r="L36" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905656</v>
       </c>
       <c r="M36" t="n">
-        <v>501.6215173521659</v>
+        <v>501.6215173521658</v>
       </c>
       <c r="N36" t="n">
         <v>514.8979462950682</v>
@@ -33766,10 +33766,10 @@
         <v>36.77284275552054</v>
       </c>
       <c r="T36" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346725</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1302461963005452</v>
+        <v>0.1302461963005451</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,28 +33806,28 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.659749343021154</v>
+        <v>1.659749343021153</v>
       </c>
       <c r="H37" t="n">
-        <v>14.75668052249718</v>
+        <v>14.75668052249717</v>
       </c>
       <c r="I37" t="n">
         <v>49.91318933376343</v>
       </c>
       <c r="J37" t="n">
-        <v>117.3442785515956</v>
+        <v>117.3442785515955</v>
       </c>
       <c r="K37" t="n">
         <v>192.8326963982758</v>
       </c>
       <c r="L37" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160722</v>
       </c>
       <c r="M37" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337613</v>
       </c>
       <c r="N37" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734099</v>
       </c>
       <c r="O37" t="n">
         <v>234.5980253208446</v>
@@ -33839,16 +33839,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R37" t="n">
-        <v>74.62836591438749</v>
+        <v>74.62836591438747</v>
       </c>
       <c r="S37" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974136</v>
       </c>
       <c r="T37" t="n">
-        <v>7.091656283817654</v>
+        <v>7.091656283817653</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09053178234660848</v>
+        <v>0.09053178234660847</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,19 +33885,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667073</v>
       </c>
       <c r="H38" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217042</v>
       </c>
       <c r="I38" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J38" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876835</v>
       </c>
       <c r="K38" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174308</v>
       </c>
       <c r="L38" t="n">
         <v>583.9077043902222</v>
@@ -33909,19 +33909,19 @@
         <v>660.2228123733556</v>
       </c>
       <c r="O38" t="n">
-        <v>623.4296800093662</v>
+        <v>623.4296800093661</v>
       </c>
       <c r="P38" t="n">
         <v>532.0828083325852</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255079</v>
       </c>
       <c r="R38" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S38" t="n">
-        <v>84.31663142621353</v>
+        <v>84.31663142621352</v>
       </c>
       <c r="T38" t="n">
         <v>16.19730352466262</v>
@@ -33970,7 +33970,7 @@
         <v>19.12014161692002</v>
       </c>
       <c r="I39" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395193</v>
       </c>
       <c r="J39" t="n">
         <v>187.0422209673361</v>
@@ -33979,10 +33979,10 @@
         <v>319.6849472798112</v>
       </c>
       <c r="L39" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905656</v>
       </c>
       <c r="M39" t="n">
-        <v>501.6215173521659</v>
+        <v>501.6215173521658</v>
       </c>
       <c r="N39" t="n">
         <v>514.8979462950682</v>
@@ -34003,10 +34003,10 @@
         <v>36.77284275552054</v>
       </c>
       <c r="T39" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346725</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1302461963005452</v>
+        <v>0.1302461963005451</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,28 +34043,28 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.659749343021154</v>
+        <v>1.659749343021153</v>
       </c>
       <c r="H40" t="n">
-        <v>14.75668052249718</v>
+        <v>14.75668052249717</v>
       </c>
       <c r="I40" t="n">
         <v>49.91318933376343</v>
       </c>
       <c r="J40" t="n">
-        <v>117.3442785515956</v>
+        <v>117.3442785515955</v>
       </c>
       <c r="K40" t="n">
         <v>192.8326963982758</v>
       </c>
       <c r="L40" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160722</v>
       </c>
       <c r="M40" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337613</v>
       </c>
       <c r="N40" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734099</v>
       </c>
       <c r="O40" t="n">
         <v>234.5980253208446</v>
@@ -34076,16 +34076,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R40" t="n">
-        <v>74.62836591438749</v>
+        <v>74.62836591438747</v>
       </c>
       <c r="S40" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974136</v>
       </c>
       <c r="T40" t="n">
-        <v>7.091656283817654</v>
+        <v>7.091656283817653</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09053178234660848</v>
+        <v>0.09053178234660847</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>142.649124873685</v>
       </c>
       <c r="J41" t="n">
-        <v>314.0436070876835</v>
+        <v>314.0436070876827</v>
       </c>
       <c r="K41" t="n">
         <v>470.6699596174308</v>
@@ -34374,7 +34374,7 @@
         <v>470.6699596174308</v>
       </c>
       <c r="L44" t="n">
-        <v>583.9077043902219</v>
+        <v>583.9077043902222</v>
       </c>
       <c r="M44" t="n">
         <v>649.7098281039215</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.9977025609973</v>
+        <v>132.9977025609974</v>
       </c>
       <c r="K11" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724505</v>
       </c>
       <c r="L11" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202352</v>
       </c>
       <c r="M11" t="n">
-        <v>419.3635948766488</v>
+        <v>419.363594876649</v>
       </c>
       <c r="N11" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767649</v>
       </c>
       <c r="O11" t="n">
-        <v>393.3314685876794</v>
+        <v>393.3314685876796</v>
       </c>
       <c r="P11" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773158</v>
       </c>
       <c r="Q11" t="n">
-        <v>177.2663400510585</v>
+        <v>177.2663400510586</v>
       </c>
       <c r="R11" t="n">
-        <v>16.84253015413489</v>
+        <v>16.84253015413498</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>186.2956296410783</v>
+        <v>60.20459430066953</v>
       </c>
       <c r="K12" t="n">
-        <v>446.3087453180308</v>
+        <v>181.8435083054524</v>
       </c>
       <c r="L12" t="n">
-        <v>409.2996220957651</v>
+        <v>291.3014834106917</v>
       </c>
       <c r="M12" t="n">
-        <v>359.4874834301476</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="N12" t="n">
-        <v>383.5562342117349</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="O12" t="n">
-        <v>328.4347829366002</v>
+        <v>328.4347829366004</v>
       </c>
       <c r="P12" t="n">
-        <v>244.0695188878786</v>
+        <v>244.0695188878788</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.7305790560495</v>
+        <v>116.6344375209358</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.98509843492278</v>
+        <v>23.98509843492282</v>
       </c>
       <c r="K13" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L13" t="n">
-        <v>274.3494866763884</v>
+        <v>274.3494866763886</v>
       </c>
       <c r="M13" t="n">
-        <v>299.7571307956019</v>
+        <v>299.7571307956021</v>
       </c>
       <c r="N13" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526387</v>
       </c>
       <c r="O13" t="n">
         <v>259.1831532348843</v>
@@ -35588,7 +35588,7 @@
         <v>198.0176979881064</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074063</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>60.20459430066944</v>
       </c>
       <c r="K15" t="n">
-        <v>446.3087453180308</v>
+        <v>181.8435083054522</v>
       </c>
       <c r="L15" t="n">
-        <v>535.3906574361739</v>
+        <v>291.3014834106915</v>
       </c>
       <c r="M15" t="n">
-        <v>359.4874834301476</v>
+        <v>549.8696994612222</v>
       </c>
       <c r="N15" t="n">
         <v>383.5562342117349</v>
       </c>
       <c r="O15" t="n">
-        <v>328.4347829366002</v>
+        <v>623.8471351075286</v>
       </c>
       <c r="P15" t="n">
         <v>244.0695188878786</v>
@@ -35749,7 +35749,7 @@
         <v>112.7305790560495</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>22.759842836058</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.20459430066944</v>
+        <v>186.2956296410783</v>
       </c>
       <c r="K18" t="n">
-        <v>181.8435083054522</v>
+        <v>354.2295962672542</v>
       </c>
       <c r="L18" t="n">
         <v>291.3014834106915</v>
       </c>
       <c r="M18" t="n">
-        <v>604.9911507363564</v>
+        <v>359.4874834301476</v>
       </c>
       <c r="N18" t="n">
-        <v>623.8471351075284</v>
+        <v>383.5562342117349</v>
       </c>
       <c r="O18" t="n">
         <v>328.4347829366002</v>
@@ -35983,10 +35983,10 @@
         <v>244.0695188878786</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.7305790560495</v>
+        <v>322.8078667918986</v>
       </c>
       <c r="R18" t="n">
-        <v>22.759842836058</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.9977025609973</v>
+        <v>132.9977025609972</v>
       </c>
       <c r="K20" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724502</v>
       </c>
       <c r="L20" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202348</v>
       </c>
       <c r="M20" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766487</v>
       </c>
       <c r="N20" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767646</v>
       </c>
       <c r="O20" t="n">
-        <v>393.3314685876794</v>
+        <v>393.3314685876793</v>
       </c>
       <c r="P20" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773155</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.2663400510585</v>
+        <v>177.2663400510584</v>
       </c>
       <c r="R20" t="n">
-        <v>16.84253015413489</v>
+        <v>16.84253015413483</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.20459430066944</v>
+        <v>60.20459430066941</v>
       </c>
       <c r="K21" t="n">
         <v>181.8435083054522</v>
       </c>
       <c r="L21" t="n">
-        <v>291.3014834106915</v>
+        <v>291.3014834106914</v>
       </c>
       <c r="M21" t="n">
-        <v>623.8471351075286</v>
+        <v>359.4874834301474</v>
       </c>
       <c r="N21" t="n">
-        <v>604.9911507363571</v>
+        <v>383.5562342117348</v>
       </c>
       <c r="O21" t="n">
-        <v>328.4347829366002</v>
+        <v>328.4347829366001</v>
       </c>
       <c r="P21" t="n">
-        <v>244.0695188878786</v>
+        <v>562.5322875278157</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.7305790560495</v>
+        <v>302.8222214541731</v>
       </c>
       <c r="R21" t="n">
-        <v>22.759842836058</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.98509843492278</v>
+        <v>23.98509843492275</v>
       </c>
       <c r="K22" t="n">
         <v>170.5632045723929</v>
       </c>
       <c r="L22" t="n">
-        <v>274.3494866763884</v>
+        <v>274.3494866763883</v>
       </c>
       <c r="M22" t="n">
         <v>299.7571307956019</v>
       </c>
       <c r="N22" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526385</v>
       </c>
       <c r="O22" t="n">
-        <v>259.1831532348843</v>
+        <v>259.1831532348842</v>
       </c>
       <c r="P22" t="n">
-        <v>198.0176979881064</v>
+        <v>198.0176979881063</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074054</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.9977025609975</v>
+        <v>132.9977025609969</v>
       </c>
       <c r="K23" t="n">
         <v>250.5801085724503</v>
@@ -36372,16 +36372,16 @@
         <v>430.8097487767647</v>
       </c>
       <c r="O23" t="n">
-        <v>393.3314685876794</v>
+        <v>393.3314685876793</v>
       </c>
       <c r="P23" t="n">
         <v>300.8498125773156</v>
       </c>
       <c r="Q23" t="n">
-        <v>177.2663400510585</v>
+        <v>177.2663400510584</v>
       </c>
       <c r="R23" t="n">
-        <v>16.84253015413489</v>
+        <v>16.84253015413486</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.20459430066944</v>
+        <v>186.2956296410783</v>
       </c>
       <c r="K24" t="n">
-        <v>181.8435083054522</v>
+        <v>446.3087453180308</v>
       </c>
       <c r="L24" t="n">
-        <v>295.2053418755778</v>
+        <v>291.3014834106914</v>
       </c>
       <c r="M24" t="n">
-        <v>623.8471351075286</v>
+        <v>359.4874834301475</v>
       </c>
       <c r="N24" t="n">
-        <v>623.8471351075286</v>
+        <v>383.5562342117349</v>
       </c>
       <c r="O24" t="n">
-        <v>328.4347829366002</v>
+        <v>328.4347829366001</v>
       </c>
       <c r="P24" t="n">
-        <v>244.0695188878786</v>
+        <v>244.0695188878785</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.7305790560495</v>
+        <v>230.7287177411223</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.98509843492278</v>
+        <v>23.98509843492276</v>
       </c>
       <c r="K25" t="n">
         <v>170.5632045723929</v>
@@ -36527,16 +36527,16 @@
         <v>299.7571307956019</v>
       </c>
       <c r="N25" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526385</v>
       </c>
       <c r="O25" t="n">
-        <v>259.1831532348843</v>
+        <v>259.1831532348842</v>
       </c>
       <c r="P25" t="n">
         <v>198.0176979881064</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074057</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36609,16 +36609,16 @@
         <v>430.8097487767647</v>
       </c>
       <c r="O26" t="n">
-        <v>393.3314685876794</v>
+        <v>393.3314685876793</v>
       </c>
       <c r="P26" t="n">
         <v>300.8498125773156</v>
       </c>
       <c r="Q26" t="n">
-        <v>177.2663400510585</v>
+        <v>177.2663400510584</v>
       </c>
       <c r="R26" t="n">
-        <v>16.84253015413489</v>
+        <v>16.84253015413486</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>186.2956296410783</v>
+        <v>94.21648059030325</v>
       </c>
       <c r="K27" t="n">
-        <v>181.8435083054522</v>
+        <v>446.3087453180308</v>
       </c>
       <c r="L27" t="n">
-        <v>291.3014834106915</v>
+        <v>291.3014834106914</v>
       </c>
       <c r="M27" t="n">
-        <v>478.9001153959474</v>
+        <v>359.4874834301475</v>
       </c>
       <c r="N27" t="n">
-        <v>623.8471351075284</v>
+        <v>383.5562342117349</v>
       </c>
       <c r="O27" t="n">
-        <v>328.4347829366002</v>
+        <v>328.4347829366001</v>
       </c>
       <c r="P27" t="n">
-        <v>244.0695188878786</v>
+        <v>244.0695188878785</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.7305790560495</v>
+        <v>322.8078667918985</v>
       </c>
       <c r="R27" t="n">
-        <v>22.759842836058</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.98509843492278</v>
+        <v>23.98509843492276</v>
       </c>
       <c r="K28" t="n">
         <v>170.5632045723929</v>
@@ -36764,16 +36764,16 @@
         <v>299.7571307956019</v>
       </c>
       <c r="N28" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526385</v>
       </c>
       <c r="O28" t="n">
-        <v>259.1831532348843</v>
+        <v>259.1831532348842</v>
       </c>
       <c r="P28" t="n">
         <v>198.0176979881064</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074057</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36846,16 +36846,16 @@
         <v>430.8097487767647</v>
       </c>
       <c r="O29" t="n">
-        <v>393.3314685876794</v>
+        <v>393.3314685876793</v>
       </c>
       <c r="P29" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773161</v>
       </c>
       <c r="Q29" t="n">
-        <v>177.2663400510585</v>
+        <v>177.2663400510584</v>
       </c>
       <c r="R29" t="n">
-        <v>16.84253015413489</v>
+        <v>16.84253015413486</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.21648059030257</v>
+        <v>186.2956296410783</v>
       </c>
       <c r="K30" t="n">
         <v>446.3087453180308</v>
       </c>
       <c r="L30" t="n">
-        <v>291.3014834106915</v>
+        <v>291.3014834106914</v>
       </c>
       <c r="M30" t="n">
-        <v>359.4874834301476</v>
+        <v>359.4874834301475</v>
       </c>
       <c r="N30" t="n">
         <v>383.5562342117349</v>
       </c>
       <c r="O30" t="n">
-        <v>328.4347829366002</v>
+        <v>328.4347829366001</v>
       </c>
       <c r="P30" t="n">
-        <v>244.0695188878786</v>
+        <v>244.0695188878785</v>
       </c>
       <c r="Q30" t="n">
-        <v>322.8078667918986</v>
+        <v>230.7287177411232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.98509843492278</v>
+        <v>23.98509843492276</v>
       </c>
       <c r="K31" t="n">
         <v>170.5632045723929</v>
@@ -37001,16 +37001,16 @@
         <v>299.7571307956019</v>
       </c>
       <c r="N31" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526385</v>
       </c>
       <c r="O31" t="n">
-        <v>259.1831532348843</v>
+        <v>259.1831532348842</v>
       </c>
       <c r="P31" t="n">
         <v>198.0176979881064</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074057</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37083,16 +37083,16 @@
         <v>430.8097487767647</v>
       </c>
       <c r="O32" t="n">
-        <v>393.3314685876794</v>
+        <v>393.3314685876793</v>
       </c>
       <c r="P32" t="n">
         <v>300.8498125773156</v>
       </c>
       <c r="Q32" t="n">
-        <v>177.2663400510585</v>
+        <v>177.2663400510584</v>
       </c>
       <c r="R32" t="n">
-        <v>16.84253015413489</v>
+        <v>16.84253015413486</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.20459430066944</v>
+        <v>94.21648059030144</v>
       </c>
       <c r="K33" t="n">
-        <v>181.8435083054522</v>
+        <v>446.3087453180308</v>
       </c>
       <c r="L33" t="n">
-        <v>458.6332829727563</v>
+        <v>291.3014834106914</v>
       </c>
       <c r="M33" t="n">
-        <v>359.4874834301476</v>
+        <v>359.4874834301475</v>
       </c>
       <c r="N33" t="n">
         <v>383.5562342117349</v>
       </c>
       <c r="O33" t="n">
-        <v>328.4347829366002</v>
+        <v>328.4347829366001</v>
       </c>
       <c r="P33" t="n">
-        <v>562.5322875278157</v>
+        <v>244.0695188878785</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.7305790560495</v>
+        <v>322.8078667918985</v>
       </c>
       <c r="R33" t="n">
-        <v>22.759842836058</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.98509843492278</v>
+        <v>23.98509843492276</v>
       </c>
       <c r="K34" t="n">
         <v>170.5632045723929</v>
@@ -37238,16 +37238,16 @@
         <v>299.7571307956019</v>
       </c>
       <c r="N34" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526385</v>
       </c>
       <c r="O34" t="n">
-        <v>259.1831532348843</v>
+        <v>259.1831532348842</v>
       </c>
       <c r="P34" t="n">
         <v>198.0176979881064</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074057</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37320,16 +37320,16 @@
         <v>430.8097487767647</v>
       </c>
       <c r="O35" t="n">
-        <v>393.3314685876794</v>
+        <v>393.3314685876793</v>
       </c>
       <c r="P35" t="n">
         <v>300.8498125773156</v>
       </c>
       <c r="Q35" t="n">
-        <v>177.2663400510585</v>
+        <v>177.2663400510584</v>
       </c>
       <c r="R35" t="n">
-        <v>16.84253015413489</v>
+        <v>16.84253015413486</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.20459430066944</v>
+        <v>186.2956296410783</v>
       </c>
       <c r="K36" t="n">
         <v>446.3087453180308</v>
       </c>
       <c r="L36" t="n">
-        <v>291.3014834106915</v>
+        <v>291.3014834106914</v>
       </c>
       <c r="M36" t="n">
-        <v>370.7395268837229</v>
+        <v>359.4874834301475</v>
       </c>
       <c r="N36" t="n">
         <v>383.5562342117349</v>
       </c>
       <c r="O36" t="n">
-        <v>328.4347829366002</v>
+        <v>328.4347829366001</v>
       </c>
       <c r="P36" t="n">
-        <v>244.0695188878786</v>
+        <v>244.0695188878785</v>
       </c>
       <c r="Q36" t="n">
-        <v>322.8078667918986</v>
+        <v>230.7287177411223</v>
       </c>
       <c r="R36" t="n">
-        <v>22.759842836058</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.98509843492278</v>
+        <v>23.98509843492276</v>
       </c>
       <c r="K37" t="n">
         <v>170.5632045723929</v>
@@ -37475,16 +37475,16 @@
         <v>299.7571307956019</v>
       </c>
       <c r="N37" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526385</v>
       </c>
       <c r="O37" t="n">
-        <v>259.1831532348843</v>
+        <v>259.1831532348842</v>
       </c>
       <c r="P37" t="n">
         <v>198.0176979881064</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074057</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.9977025609973</v>
+        <v>132.9977025609969</v>
       </c>
       <c r="K38" t="n">
         <v>250.5801085724503</v>
@@ -37557,16 +37557,16 @@
         <v>430.8097487767647</v>
       </c>
       <c r="O38" t="n">
-        <v>393.3314685876794</v>
+        <v>393.3314685876793</v>
       </c>
       <c r="P38" t="n">
         <v>300.8498125773156</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.2663400510585</v>
+        <v>177.2663400510584</v>
       </c>
       <c r="R38" t="n">
-        <v>16.84253015413489</v>
+        <v>16.84253015413486</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>186.2956296410783</v>
+        <v>94.21648059030235</v>
       </c>
       <c r="K39" t="n">
-        <v>181.8435083054522</v>
+        <v>446.3087453180308</v>
       </c>
       <c r="L39" t="n">
-        <v>291.3014834106915</v>
+        <v>291.3014834106914</v>
       </c>
       <c r="M39" t="n">
-        <v>359.4874834301476</v>
+        <v>359.4874834301475</v>
       </c>
       <c r="N39" t="n">
-        <v>623.8471351075286</v>
+        <v>383.5562342117349</v>
       </c>
       <c r="O39" t="n">
-        <v>328.4347829366002</v>
+        <v>328.4347829366001</v>
       </c>
       <c r="P39" t="n">
-        <v>244.0695188878786</v>
+        <v>244.0695188878785</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.14321102185</v>
+        <v>322.8078667918985</v>
       </c>
       <c r="R39" t="n">
-        <v>22.759842836058</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.98509843492278</v>
+        <v>23.98509843492276</v>
       </c>
       <c r="K40" t="n">
         <v>170.5632045723929</v>
@@ -37712,16 +37712,16 @@
         <v>299.7571307956019</v>
       </c>
       <c r="N40" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526385</v>
       </c>
       <c r="O40" t="n">
-        <v>259.1831532348843</v>
+        <v>259.1831532348842</v>
       </c>
       <c r="P40" t="n">
         <v>198.0176979881064</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074057</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.9977025609973</v>
+        <v>132.9977025609964</v>
       </c>
       <c r="K41" t="n">
         <v>250.5801085724503</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>186.2956296410783</v>
+        <v>94.2164805903019</v>
       </c>
       <c r="K42" t="n">
-        <v>354.2295962672549</v>
+        <v>446.3087453180308</v>
       </c>
       <c r="L42" t="n">
         <v>291.3014834106914</v>
@@ -38022,7 +38022,7 @@
         <v>250.5801085724503</v>
       </c>
       <c r="L44" t="n">
-        <v>348.1412894202346</v>
+        <v>348.141289420235</v>
       </c>
       <c r="M44" t="n">
         <v>419.3635948766488</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.2956296410783</v>
+        <v>71.45663775424396</v>
       </c>
       <c r="K45" t="n">
-        <v>181.8435083054522</v>
+        <v>446.3087453180308</v>
       </c>
       <c r="L45" t="n">
         <v>291.3014834106914</v>
       </c>
       <c r="M45" t="n">
-        <v>623.8471351075284</v>
+        <v>359.4874834301475</v>
       </c>
       <c r="N45" t="n">
-        <v>478.9001153959476</v>
+        <v>383.5562342117349</v>
       </c>
       <c r="O45" t="n">
         <v>328.4347829366001</v>
@@ -38116,7 +38116,7 @@
         <v>244.0695188878785</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.7305790560494</v>
+        <v>322.8078667918985</v>
       </c>
       <c r="R45" t="n">
         <v>22.75984283605798</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1767753.357775934</v>
+        <v>1795493.153968253</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6555689.629549498</v>
+        <v>6555689.629549491</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8086351.375021948</v>
+        <v>8086351.375021951</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>175.0247537181657</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.7034381600318</v>
       </c>
       <c r="T11" t="n">
-        <v>160.9331746971628</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1457,7 +1457,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>90.69877301701558</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1466,10 +1466,10 @@
         <v>135.3637749794424</v>
       </c>
       <c r="H12" t="n">
-        <v>93.11530261957643</v>
+        <v>93.11530261957644</v>
       </c>
       <c r="I12" t="n">
-        <v>21.23445678746312</v>
+        <v>21.23445678746313</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>134.9103283483173</v>
       </c>
       <c r="T12" t="n">
-        <v>125.2386709630915</v>
+        <v>192.1849784014749</v>
       </c>
       <c r="U12" t="n">
         <v>225.8111358846743</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>19.21195460834559</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>132.4786770405776</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>195.0916935772309</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U13" t="n">
         <v>286.2284975741443</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>124.7962331631519</v>
       </c>
       <c r="G14" t="n">
-        <v>293.9223336334288</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>301.5808821335967</v>
       </c>
       <c r="I14" t="n">
-        <v>67.82676469672091</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>251.0496427920231</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.586876211483</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1703,10 +1703,10 @@
         <v>135.3637749794424</v>
       </c>
       <c r="H15" t="n">
-        <v>93.11530261957644</v>
+        <v>47.40345196865512</v>
       </c>
       <c r="I15" t="n">
-        <v>21.23445678746313</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>174.4198857561399</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U16" t="n">
         <v>286.2284975741443</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>146.3369551446218</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>206.8985460394687</v>
       </c>
       <c r="U17" t="n">
-        <v>61.20921597206654</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>96.67003316209079</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1925,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>105.7621915499304</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1940,7 +1940,7 @@
         <v>135.3637749794424</v>
       </c>
       <c r="H18" t="n">
-        <v>93.11530261957644</v>
+        <v>26.16899518119199</v>
       </c>
       <c r="I18" t="n">
         <v>21.23445678746313</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.11749686434493</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>105.5372855934949</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T19" t="n">
         <v>220.8539331444638</v>
@@ -2061,16 +2061,16 @@
         <v>286.2284975741443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>48.5122026738492</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>81.9140540458518</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>128.243773342313</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>93.11530261957644</v>
       </c>
       <c r="I21" t="n">
-        <v>21.23445678746316</v>
+        <v>21.23445678746313</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>134.9103283483173</v>
+        <v>67.96402090993324</v>
       </c>
       <c r="T21" t="n">
         <v>192.1849784014749</v>
@@ -2222,7 +2222,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>184.7486757225339</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55.37860521987653</v>
+        <v>81.14084478710971</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8539331444638</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2284975741443</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>305.9054809984042</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>30.74476765038609</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.82676469672089</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7034381600318</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,10 +2414,10 @@
         <v>135.3637749794424</v>
       </c>
       <c r="H24" t="n">
-        <v>93.11530261957644</v>
+        <v>47.40345196865512</v>
       </c>
       <c r="I24" t="n">
-        <v>21.23445678746315</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>138.8266777650919</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.5372855934948</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>195.0916935772309</v>
       </c>
       <c r="T25" t="n">
-        <v>220.8539331444638</v>
+        <v>143.4360002006526</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>201.8792341621284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>124.6613070358114</v>
+        <v>256.9835529611619</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I26" t="n">
-        <v>67.82676469672094</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>135.3637749794424</v>
       </c>
       <c r="H27" t="n">
-        <v>93.11530261957644</v>
+        <v>47.40345196865512</v>
       </c>
       <c r="I27" t="n">
-        <v>21.23445678746315</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>67.9640209099328</v>
+        <v>134.9103283483173</v>
       </c>
       <c r="T27" t="n">
         <v>192.1849784014749</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>97.61703193947781</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5372855934949</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.2284975741443</v>
       </c>
       <c r="V28" t="n">
-        <v>105.0183679167356</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I29" t="n">
-        <v>67.82676469672094</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>256.7151965428668</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>40.89976259118234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2882,13 +2882,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>99.35736174246207</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>135.3637749794424</v>
       </c>
       <c r="H30" t="n">
-        <v>93.11530261957644</v>
+        <v>47.40345196865512</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>41.92277516200111</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5372855934949</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>15.63566072796167</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>81.91405404585089</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>343.0504260616484</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>411.602611067468</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7034381600318</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>68.41746754105566</v>
+        <v>135.3637749794424</v>
       </c>
       <c r="H33" t="n">
         <v>93.11530261957644</v>
       </c>
       <c r="I33" t="n">
-        <v>21.23445678746315</v>
+        <v>21.23445678746313</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>134.9103283483173</v>
+        <v>67.96402090993415</v>
       </c>
       <c r="T33" t="n">
         <v>192.1849784014749</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.87156499474038</v>
+        <v>78.87156499474101</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>326.8557224254583</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.602611067468</v>
+        <v>267.4074981341263</v>
       </c>
       <c r="H35" t="n">
         <v>301.5808821335967</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>135.3637749794424</v>
       </c>
       <c r="H36" t="n">
-        <v>93.11530261957644</v>
+        <v>47.403451968656</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>192.1849784014749</v>
       </c>
       <c r="U36" t="n">
-        <v>180.0992852337518</v>
+        <v>225.8111358846743</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.3312300154376</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5372855934949</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.665025462782</v>
+        <v>90.94443538602653</v>
       </c>
       <c r="S37" t="n">
         <v>195.0916935772309</v>
       </c>
       <c r="T37" t="n">
-        <v>2.286139438314312</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2284975741443</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>81.9140540458518</v>
+        <v>260.0895214735086</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>93.11530261957644</v>
       </c>
       <c r="I39" t="n">
-        <v>21.23445678746315</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>134.9103283483173</v>
+        <v>89.19847769739593</v>
       </c>
       <c r="T39" t="n">
         <v>192.1849784014749</v>
@@ -3647,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>138.8266777650919</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>98.21254511397834</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>195.0916935772309</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U40" t="n">
-        <v>187.5373621793162</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>86.37226295331305</v>
+        <v>240.8604335599582</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3821,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>105.7621915499322</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3830,7 +3830,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>78.12290495499809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>135.3637749794424</v>
@@ -3839,7 +3839,7 @@
         <v>93.11530261957644</v>
       </c>
       <c r="I42" t="n">
-        <v>21.23445678746315</v>
+        <v>21.23445678746313</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>86.60929916903643</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>56.84441705331969</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>105.5372855934948</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>102.665025462782</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2284975741443</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3982,10 +3982,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>52.54940843123323</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>67.82676469672094</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>112.4620376420186</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>138.8266777650919</v>
+        <v>138.8266777650927</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>95.40994442159102</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T46" t="n">
         <v>220.8539331444638</v>
       </c>
       <c r="U46" t="n">
-        <v>213.1129548655501</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>829.8561925386216</v>
+        <v>1439.234821919316</v>
       </c>
       <c r="C11" t="n">
-        <v>460.8936755982099</v>
+        <v>1262.442141395917</v>
       </c>
       <c r="D11" t="n">
-        <v>460.8936755982099</v>
+        <v>1262.442141395917</v>
       </c>
       <c r="E11" t="n">
-        <v>460.8936755982099</v>
+        <v>876.6538887976725</v>
       </c>
       <c r="F11" t="n">
-        <v>49.90777080860231</v>
+        <v>465.6679840080649</v>
       </c>
       <c r="G11" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I11" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J11" t="n">
-        <v>181.5754963439898</v>
+        <v>181.5754963439896</v>
       </c>
       <c r="K11" t="n">
-        <v>429.6498038307158</v>
+        <v>429.6498038307155</v>
       </c>
       <c r="L11" t="n">
-        <v>774.309680356748</v>
+        <v>774.3096803567475</v>
       </c>
       <c r="M11" t="n">
-        <v>1189.479639284631</v>
+        <v>1189.47963928463</v>
       </c>
       <c r="N11" t="n">
-        <v>1615.981290573628</v>
+        <v>1615.981290573627</v>
       </c>
       <c r="O11" t="n">
-        <v>2005.379444475431</v>
+        <v>2005.37944447543</v>
       </c>
       <c r="P11" t="n">
-        <v>2303.220758926974</v>
+        <v>2303.220758926972</v>
       </c>
       <c r="Q11" t="n">
-        <v>2478.714435577522</v>
+        <v>2478.71443557752</v>
       </c>
       <c r="R11" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S11" t="n">
-        <v>2495.388540430115</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="T11" t="n">
-        <v>2332.829778109749</v>
+        <v>2160.437041238699</v>
       </c>
       <c r="U11" t="n">
-        <v>2332.829778109749</v>
+        <v>2160.437041238699</v>
       </c>
       <c r="V11" t="n">
-        <v>2332.829778109749</v>
+        <v>1829.374153895128</v>
       </c>
       <c r="W11" t="n">
-        <v>1980.061122839635</v>
+        <v>1829.374153895128</v>
       </c>
       <c r="X11" t="n">
-        <v>1606.595364578555</v>
+        <v>1829.374153895128</v>
       </c>
       <c r="Y11" t="n">
-        <v>1216.456032602743</v>
+        <v>1439.234821919316</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3031160492297</v>
+        <v>863.680583283184</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8500867681028</v>
+        <v>689.227554002057</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9156771068515</v>
+        <v>540.2931443408057</v>
       </c>
       <c r="E12" t="n">
         <v>448.678222101396</v>
@@ -5114,58 +5114,58 @@
         <v>165.4125782904604</v>
       </c>
       <c r="H12" t="n">
-        <v>71.35671705856505</v>
+        <v>71.35671705856504</v>
       </c>
       <c r="I12" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J12" t="n">
-        <v>109.5103191662651</v>
+        <v>109.510319166265</v>
       </c>
       <c r="K12" t="n">
-        <v>289.535392388663</v>
+        <v>289.5353923886628</v>
       </c>
       <c r="L12" t="n">
-        <v>577.9238609652477</v>
+        <v>577.9238609652473</v>
       </c>
       <c r="M12" t="n">
-        <v>1195.532524721701</v>
+        <v>1195.5325247217</v>
       </c>
       <c r="N12" t="n">
-        <v>1813.141188478155</v>
+        <v>1794.473763950693</v>
       </c>
       <c r="O12" t="n">
-        <v>2138.291623585389</v>
+        <v>2119.624199057927</v>
       </c>
       <c r="P12" t="n">
-        <v>2379.920447284389</v>
+        <v>2361.253022756927</v>
       </c>
       <c r="Q12" t="n">
-        <v>2495.388540430115</v>
+        <v>2472.856296022416</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S12" t="n">
-        <v>2359.115481492421</v>
+        <v>2359.115481492419</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.611773448894</v>
+        <v>2164.989240682849</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.519716999729</v>
+        <v>1936.897184233683</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.367608767986</v>
+        <v>1701.74507600194</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.130252039784</v>
+        <v>1447.507719273739</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.278751834252</v>
+        <v>1239.656219068206</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.518453069298</v>
+        <v>1031.895920303252</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>352.6607992320421</v>
+        <v>175.9171043458149</v>
       </c>
       <c r="C13" t="n">
-        <v>183.7246163041352</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="D13" t="n">
-        <v>183.7246163041352</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="E13" t="n">
-        <v>49.90777080860231</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="F13" t="n">
-        <v>49.90777080860231</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="G13" t="n">
-        <v>49.90777080860231</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="H13" t="n">
-        <v>49.90777080860231</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="I13" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J13" t="n">
-        <v>73.65301825917589</v>
+        <v>73.65301825917582</v>
       </c>
       <c r="K13" t="n">
-        <v>242.510590785845</v>
+        <v>242.5105907858448</v>
       </c>
       <c r="L13" t="n">
-        <v>514.1165825954696</v>
+        <v>514.1165825954694</v>
       </c>
       <c r="M13" t="n">
-        <v>810.8761420831156</v>
+        <v>810.8761420831153</v>
       </c>
       <c r="N13" t="n">
         <v>1106.014038958228</v>
@@ -5217,34 +5217,34 @@
         <v>1362.605360660763</v>
       </c>
       <c r="P13" t="n">
-        <v>1558.642881668989</v>
+        <v>1558.642881668988</v>
       </c>
       <c r="Q13" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="R13" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="S13" t="n">
         <v>1413.871702892244</v>
       </c>
       <c r="T13" t="n">
-        <v>1413.871702892244</v>
+        <v>1190.78692193824</v>
       </c>
       <c r="U13" t="n">
-        <v>1124.752008372907</v>
+        <v>901.667227418902</v>
       </c>
       <c r="V13" t="n">
-        <v>870.06752016702</v>
+        <v>646.9827392130152</v>
       </c>
       <c r="W13" t="n">
-        <v>580.6503501300595</v>
+        <v>357.5655691760546</v>
       </c>
       <c r="X13" t="n">
-        <v>352.6607992320421</v>
+        <v>357.5655691760546</v>
       </c>
       <c r="Y13" t="n">
-        <v>352.6607992320421</v>
+        <v>357.5655691760546</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1516.712211493168</v>
+        <v>849.5542425942147</v>
       </c>
       <c r="C14" t="n">
-        <v>1516.712211493168</v>
+        <v>480.5917256538029</v>
       </c>
       <c r="D14" t="n">
-        <v>1516.712211493168</v>
+        <v>480.5917256538029</v>
       </c>
       <c r="E14" t="n">
-        <v>1130.923958894923</v>
+        <v>480.5917256538029</v>
       </c>
       <c r="F14" t="n">
-        <v>719.9380541053158</v>
+        <v>354.534924478902</v>
       </c>
       <c r="G14" t="n">
-        <v>423.0468080109433</v>
+        <v>354.534924478902</v>
       </c>
       <c r="H14" t="n">
-        <v>118.4196543406436</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I14" t="n">
         <v>49.90777080860229</v>
@@ -5281,22 +5281,22 @@
         <v>181.5754963439895</v>
       </c>
       <c r="K14" t="n">
-        <v>429.649803830715</v>
+        <v>429.6498038307154</v>
       </c>
       <c r="L14" t="n">
-        <v>774.3096803567475</v>
+        <v>774.309680356748</v>
       </c>
       <c r="M14" t="n">
-        <v>1189.47963928463</v>
+        <v>1189.479639284631</v>
       </c>
       <c r="N14" t="n">
-        <v>1615.981290573627</v>
+        <v>1615.981290573628</v>
       </c>
       <c r="O14" t="n">
         <v>2005.37944447543</v>
       </c>
       <c r="P14" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926973</v>
       </c>
       <c r="Q14" t="n">
         <v>2478.714435577521</v>
@@ -5314,16 +5314,16 @@
         <v>1906.851543468979</v>
       </c>
       <c r="V14" t="n">
-        <v>1906.851543468979</v>
+        <v>1575.788656125409</v>
       </c>
       <c r="W14" t="n">
-        <v>1906.851543468979</v>
+        <v>1223.020000855294</v>
       </c>
       <c r="X14" t="n">
-        <v>1906.851543468979</v>
+        <v>849.5542425942147</v>
       </c>
       <c r="Y14" t="n">
-        <v>1516.712211493168</v>
+        <v>849.5542425942147</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3031160492297</v>
+        <v>863.6805832831849</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8500867681028</v>
+        <v>689.2275540020579</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9156771068515</v>
+        <v>540.2931443408066</v>
       </c>
       <c r="E15" t="n">
-        <v>448.678222101396</v>
+        <v>381.0556893353511</v>
       </c>
       <c r="F15" t="n">
-        <v>302.143664128281</v>
+        <v>234.5211313622361</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4125782904605</v>
+        <v>97.79004552441555</v>
       </c>
       <c r="H15" t="n">
-        <v>71.35671705856505</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I15" t="n">
         <v>49.90777080860229</v>
       </c>
       <c r="J15" t="n">
-        <v>109.510319166265</v>
+        <v>143.1820865930018</v>
       </c>
       <c r="K15" t="n">
-        <v>289.5353923886628</v>
+        <v>585.0277444578524</v>
       </c>
       <c r="L15" t="n">
-        <v>577.9238609652473</v>
+        <v>873.416213034437</v>
       </c>
       <c r="M15" t="n">
-        <v>1122.294863431857</v>
+        <v>1229.308821630283</v>
       </c>
       <c r="N15" t="n">
-        <v>1502.015535301475</v>
+        <v>1609.029493499901</v>
       </c>
       <c r="O15" t="n">
-        <v>2119.624199057928</v>
+        <v>1934.179928607135</v>
       </c>
       <c r="P15" t="n">
-        <v>2361.253022756928</v>
+        <v>2175.808752306135</v>
       </c>
       <c r="Q15" t="n">
-        <v>2472.856296022417</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="R15" t="n">
         <v>2495.388540430115</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>516.8736867312381</v>
+        <v>196.7977183065126</v>
       </c>
       <c r="C16" t="n">
-        <v>347.9375038033311</v>
+        <v>196.7977183065126</v>
       </c>
       <c r="D16" t="n">
-        <v>197.8208643909954</v>
+        <v>196.7977183065126</v>
       </c>
       <c r="E16" t="n">
-        <v>49.90777080860229</v>
+        <v>196.7977183065126</v>
       </c>
       <c r="F16" t="n">
         <v>49.90777080860229</v>
@@ -5463,25 +5463,25 @@
         <v>1610.934019636921</v>
       </c>
       <c r="S16" t="n">
-        <v>1610.934019636921</v>
+        <v>1434.752316852941</v>
       </c>
       <c r="T16" t="n">
-        <v>1610.934019636921</v>
+        <v>1211.667535898938</v>
       </c>
       <c r="U16" t="n">
-        <v>1321.814325117584</v>
+        <v>922.5478413795998</v>
       </c>
       <c r="V16" t="n">
-        <v>1067.129836911697</v>
+        <v>667.863353173713</v>
       </c>
       <c r="W16" t="n">
-        <v>1067.129836911697</v>
+        <v>378.4461831367523</v>
       </c>
       <c r="X16" t="n">
-        <v>919.3147307050079</v>
+        <v>378.4461831367523</v>
       </c>
       <c r="Y16" t="n">
-        <v>698.5221515614778</v>
+        <v>378.4461831367523</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>777.1359863557645</v>
+        <v>1467.551392624308</v>
       </c>
       <c r="C17" t="n">
-        <v>408.1734694153528</v>
+        <v>1098.588875683897</v>
       </c>
       <c r="D17" t="n">
-        <v>49.90777080860227</v>
+        <v>740.3231770771463</v>
       </c>
       <c r="E17" t="n">
-        <v>49.90777080860227</v>
+        <v>354.534924478902</v>
       </c>
       <c r="F17" t="n">
-        <v>49.90777080860227</v>
+        <v>354.534924478902</v>
       </c>
       <c r="G17" t="n">
-        <v>49.90777080860227</v>
+        <v>354.534924478902</v>
       </c>
       <c r="H17" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I17" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J17" t="n">
-        <v>181.5754963439896</v>
+        <v>181.5754963439899</v>
       </c>
       <c r="K17" t="n">
-        <v>429.6498038307155</v>
+        <v>429.6498038307159</v>
       </c>
       <c r="L17" t="n">
-        <v>774.3096803567475</v>
+        <v>774.3096803567482</v>
       </c>
       <c r="M17" t="n">
-        <v>1189.47963928463</v>
+        <v>1189.479639284631</v>
       </c>
       <c r="N17" t="n">
-        <v>1615.981290573627</v>
+        <v>1615.981290573628</v>
       </c>
       <c r="O17" t="n">
-        <v>2005.37944447543</v>
+        <v>2005.379444475431</v>
       </c>
       <c r="P17" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926973</v>
       </c>
       <c r="Q17" t="n">
-        <v>2478.71443557752</v>
+        <v>2478.714435577521</v>
       </c>
       <c r="R17" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S17" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="T17" t="n">
-        <v>2286.400110087216</v>
+        <v>2286.400110087217</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.572619206341</v>
+        <v>2286.400110087217</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.50973186277</v>
+        <v>1955.337222743646</v>
       </c>
       <c r="W17" t="n">
-        <v>1540.741076592656</v>
+        <v>1857.69072460012</v>
       </c>
       <c r="X17" t="n">
-        <v>1167.275318331576</v>
+        <v>1857.69072460012</v>
       </c>
       <c r="Y17" t="n">
-        <v>777.1359863557645</v>
+        <v>1467.551392624308</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>863.680583283184</v>
+        <v>863.6805832831849</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8500867681028</v>
+        <v>689.2275540020579</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9156771068515</v>
+        <v>540.2931443408066</v>
       </c>
       <c r="E18" t="n">
-        <v>448.678222101396</v>
+        <v>381.0556893353511</v>
       </c>
       <c r="F18" t="n">
-        <v>302.143664128281</v>
+        <v>234.5211313622361</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4125782904604</v>
+        <v>97.79004552441555</v>
       </c>
       <c r="H18" t="n">
-        <v>71.35671705856504</v>
+        <v>71.35671705856505</v>
       </c>
       <c r="I18" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J18" t="n">
-        <v>234.3404441532698</v>
+        <v>109.510319166265</v>
       </c>
       <c r="K18" t="n">
-        <v>585.0277444578514</v>
+        <v>477.7261183628053</v>
       </c>
       <c r="L18" t="n">
-        <v>873.4162130344361</v>
+        <v>766.1145869393898</v>
       </c>
       <c r="M18" t="n">
-        <v>1229.308821630282</v>
+        <v>1122.007195535236</v>
       </c>
       <c r="N18" t="n">
-        <v>1609.0294934999</v>
+        <v>1501.727867404854</v>
       </c>
       <c r="O18" t="n">
-        <v>1934.179928607134</v>
+        <v>1826.878302512088</v>
       </c>
       <c r="P18" t="n">
-        <v>2175.808752306134</v>
+        <v>2383.785267164626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="R18" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S18" t="n">
-        <v>2359.115481492419</v>
+        <v>2359.11548149242</v>
       </c>
       <c r="T18" t="n">
-        <v>2164.989240682849</v>
+        <v>2164.98924068285</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.897184233683</v>
+        <v>1936.897184233684</v>
       </c>
       <c r="V18" t="n">
-        <v>1701.74507600194</v>
+        <v>1701.745076001941</v>
       </c>
       <c r="W18" t="n">
-        <v>1447.507719273739</v>
+        <v>1447.50771927374</v>
       </c>
       <c r="X18" t="n">
-        <v>1239.656219068206</v>
+        <v>1239.656219068207</v>
       </c>
       <c r="Y18" t="n">
-        <v>1031.895920303252</v>
+        <v>1031.895920303253</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>325.4472725178172</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="C19" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="D19" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="E19" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="F19" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="G19" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="H19" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I19" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J19" t="n">
-        <v>73.65301825917582</v>
+        <v>73.65301825917584</v>
       </c>
       <c r="K19" t="n">
         <v>242.5105907858448</v>
@@ -5697,28 +5697,28 @@
         <v>1610.934019636921</v>
       </c>
       <c r="R19" t="n">
-        <v>1610.934019636921</v>
+        <v>1507.231973714919</v>
       </c>
       <c r="S19" t="n">
-        <v>1610.934019636921</v>
+        <v>1310.169656970241</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.849238682917</v>
+        <v>1087.084876016238</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.72954416358</v>
+        <v>797.9651814969</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0450559576929</v>
+        <v>797.9651814969</v>
       </c>
       <c r="W19" t="n">
-        <v>844.0450559576929</v>
+        <v>508.5480114599393</v>
       </c>
       <c r="X19" t="n">
-        <v>616.0555050596755</v>
+        <v>280.558460561922</v>
       </c>
       <c r="Y19" t="n">
-        <v>395.2629259161454</v>
+        <v>231.556235638842</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1345.1836101291</v>
+        <v>1215.644445136866</v>
       </c>
       <c r="C20" t="n">
-        <v>1345.1836101291</v>
+        <v>846.681928196454</v>
       </c>
       <c r="D20" t="n">
-        <v>1262.442141395917</v>
+        <v>846.681928196454</v>
       </c>
       <c r="E20" t="n">
-        <v>876.6538887976725</v>
+        <v>460.8936755982098</v>
       </c>
       <c r="F20" t="n">
-        <v>465.6679840080649</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="G20" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="H20" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I20" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J20" t="n">
-        <v>181.5754963439899</v>
+        <v>181.5754963439895</v>
       </c>
       <c r="K20" t="n">
-        <v>429.6498038307154</v>
+        <v>429.649803830715</v>
       </c>
       <c r="L20" t="n">
-        <v>774.3096803567478</v>
+        <v>774.3096803567475</v>
       </c>
       <c r="M20" t="n">
         <v>1189.47963928463</v>
@@ -5773,31 +5773,31 @@
         <v>2303.220758926972</v>
       </c>
       <c r="Q20" t="n">
-        <v>2478.71443557752</v>
+        <v>2478.714435577521</v>
       </c>
       <c r="R20" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S20" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="T20" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="U20" t="n">
-        <v>2495.388540430114</v>
+        <v>2365.849375437879</v>
       </c>
       <c r="V20" t="n">
-        <v>2495.388540430114</v>
+        <v>2365.849375437879</v>
       </c>
       <c r="W20" t="n">
-        <v>2495.388540430114</v>
+        <v>2365.849375437879</v>
       </c>
       <c r="X20" t="n">
-        <v>2121.922782169034</v>
+        <v>1992.383617176799</v>
       </c>
       <c r="Y20" t="n">
-        <v>1731.783450193222</v>
+        <v>1602.244285200987</v>
       </c>
     </row>
     <row r="21">
@@ -5825,49 +5825,49 @@
         <v>165.4125782904605</v>
       </c>
       <c r="H21" t="n">
-        <v>71.35671705856507</v>
+        <v>71.35671705856505</v>
       </c>
       <c r="I21" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J21" t="n">
-        <v>109.510319166265</v>
+        <v>234.3404441532698</v>
       </c>
       <c r="K21" t="n">
-        <v>289.5353923886627</v>
+        <v>414.3655173756675</v>
       </c>
       <c r="L21" t="n">
-        <v>577.9238609652472</v>
+        <v>702.7539859522522</v>
       </c>
       <c r="M21" t="n">
-        <v>933.8164695610931</v>
+        <v>1058.646594548098</v>
       </c>
       <c r="N21" t="n">
-        <v>1313.537141430711</v>
+        <v>1609.029493499901</v>
       </c>
       <c r="O21" t="n">
-        <v>1638.687576537945</v>
+        <v>1934.179928607135</v>
       </c>
       <c r="P21" t="n">
-        <v>2195.594541190482</v>
+        <v>2175.808752306135</v>
       </c>
       <c r="Q21" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="R21" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S21" t="n">
-        <v>2359.115481492419</v>
+        <v>2426.738014258465</v>
       </c>
       <c r="T21" t="n">
-        <v>2164.989240682849</v>
+        <v>2232.611773448894</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.897184233683</v>
+        <v>2004.519716999729</v>
       </c>
       <c r="V21" t="n">
-        <v>1701.74507600194</v>
+        <v>1769.367608767986</v>
       </c>
       <c r="W21" t="n">
         <v>1515.130252039784</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="C22" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="D22" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="E22" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="F22" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="G22" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="H22" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I22" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J22" t="n">
-        <v>73.65301825917579</v>
+        <v>73.65301825917584</v>
       </c>
       <c r="K22" t="n">
         <v>242.5105907858448</v>
       </c>
       <c r="L22" t="n">
-        <v>514.1165825954693</v>
+        <v>514.1165825954694</v>
       </c>
       <c r="M22" t="n">
-        <v>810.8761420831152</v>
+        <v>810.8761420831153</v>
       </c>
       <c r="N22" t="n">
-        <v>1106.014038958227</v>
+        <v>1106.014038958228</v>
       </c>
       <c r="O22" t="n">
         <v>1362.605360660763</v>
@@ -5937,25 +5937,25 @@
         <v>1610.934019636921</v>
       </c>
       <c r="S22" t="n">
-        <v>1610.934019636921</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.849238682917</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.729544163579</v>
+        <v>1124.752008372906</v>
       </c>
       <c r="V22" t="n">
-        <v>844.0450559576926</v>
+        <v>870.0675201670191</v>
       </c>
       <c r="W22" t="n">
-        <v>554.6278859207321</v>
+        <v>580.6503501300585</v>
       </c>
       <c r="X22" t="n">
-        <v>326.6383350227147</v>
+        <v>352.6607992320412</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.8457558791846</v>
+        <v>131.8682200885111</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>876.6538887976725</v>
+        <v>1345.183610129101</v>
       </c>
       <c r="C23" t="n">
-        <v>876.6538887976725</v>
+        <v>976.2210931886896</v>
       </c>
       <c r="D23" t="n">
-        <v>876.6538887976725</v>
+        <v>976.2210931886896</v>
       </c>
       <c r="E23" t="n">
-        <v>876.6538887976725</v>
+        <v>945.1657723297137</v>
       </c>
       <c r="F23" t="n">
-        <v>465.6679840080649</v>
+        <v>534.1798675401062</v>
       </c>
       <c r="G23" t="n">
-        <v>49.90777080860227</v>
+        <v>118.4196543406436</v>
       </c>
       <c r="H23" t="n">
-        <v>49.90777080860227</v>
+        <v>118.4196543406436</v>
       </c>
       <c r="I23" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J23" t="n">
-        <v>181.5754963439892</v>
+        <v>181.5754963439896</v>
       </c>
       <c r="K23" t="n">
-        <v>429.649803830715</v>
+        <v>429.6498038307155</v>
       </c>
       <c r="L23" t="n">
-        <v>774.3096803567475</v>
+        <v>774.3096803567482</v>
       </c>
       <c r="M23" t="n">
         <v>1189.47963928463</v>
       </c>
       <c r="N23" t="n">
-        <v>1615.981290573627</v>
+        <v>1615.981290573628</v>
       </c>
       <c r="O23" t="n">
-        <v>2005.379444475429</v>
+        <v>2005.37944447543</v>
       </c>
       <c r="P23" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926973</v>
       </c>
       <c r="Q23" t="n">
-        <v>2478.71443557752</v>
+        <v>2478.714435577521</v>
       </c>
       <c r="R23" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S23" t="n">
-        <v>2369.425471581596</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="T23" t="n">
-        <v>2160.437041238699</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="U23" t="n">
-        <v>1906.851543468978</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="V23" t="n">
-        <v>1575.788656125408</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="W23" t="n">
-        <v>1575.788656125408</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="X23" t="n">
-        <v>1575.788656125408</v>
+        <v>2121.922782169035</v>
       </c>
       <c r="Y23" t="n">
-        <v>1185.649324149596</v>
+        <v>1731.783450193223</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3031160492297</v>
+        <v>863.6805832831849</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8500867681028</v>
+        <v>689.2275540020579</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9156771068515</v>
+        <v>540.2931443408066</v>
       </c>
       <c r="E24" t="n">
-        <v>448.678222101396</v>
+        <v>381.0556893353511</v>
       </c>
       <c r="F24" t="n">
-        <v>302.143664128281</v>
+        <v>234.5211313622361</v>
       </c>
       <c r="G24" t="n">
-        <v>165.4125782904604</v>
+        <v>97.79004552441555</v>
       </c>
       <c r="H24" t="n">
-        <v>71.35671705856504</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I24" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J24" t="n">
         <v>234.3404441532698</v>
       </c>
       <c r="K24" t="n">
-        <v>676.1861020181203</v>
+        <v>562.4955000501549</v>
       </c>
       <c r="L24" t="n">
-        <v>964.5745705947049</v>
+        <v>850.8839686267395</v>
       </c>
       <c r="M24" t="n">
-        <v>1320.467179190551</v>
+        <v>1206.776577222586</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.187851060169</v>
+        <v>1586.497249092203</v>
       </c>
       <c r="O24" t="n">
-        <v>2025.338286167403</v>
+        <v>1911.647684199438</v>
       </c>
       <c r="P24" t="n">
-        <v>2266.967109866403</v>
+        <v>2153.276507898438</v>
       </c>
       <c r="Q24" t="n">
-        <v>2495.388540430114</v>
+        <v>2472.856296022417</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S24" t="n">
-        <v>2359.115481492419</v>
+        <v>2359.11548149242</v>
       </c>
       <c r="T24" t="n">
-        <v>2164.989240682849</v>
+        <v>2164.98924068285</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.897184233683</v>
+        <v>1936.897184233684</v>
       </c>
       <c r="V24" t="n">
-        <v>1701.74507600194</v>
+        <v>1701.745076001941</v>
       </c>
       <c r="W24" t="n">
-        <v>1447.507719273738</v>
+        <v>1447.50771927374</v>
       </c>
       <c r="X24" t="n">
-        <v>1307.278751834252</v>
+        <v>1239.656219068207</v>
       </c>
       <c r="Y24" t="n">
-        <v>1099.518453069298</v>
+        <v>1031.895920303253</v>
       </c>
     </row>
     <row r="25">
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>218.8439537365092</v>
+        <v>1087.338389374476</v>
       </c>
       <c r="C25" t="n">
-        <v>49.90777080860227</v>
+        <v>918.4022064465696</v>
       </c>
       <c r="D25" t="n">
-        <v>49.90777080860227</v>
+        <v>768.2855670342338</v>
       </c>
       <c r="E25" t="n">
-        <v>49.90777080860227</v>
+        <v>620.3724734518407</v>
       </c>
       <c r="F25" t="n">
-        <v>49.90777080860227</v>
+        <v>473.4825259539304</v>
       </c>
       <c r="G25" t="n">
-        <v>49.90777080860227</v>
+        <v>305.4711825039934</v>
       </c>
       <c r="H25" t="n">
-        <v>49.90777080860227</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="I25" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J25" t="n">
-        <v>73.65301825917581</v>
+        <v>73.65301825917585</v>
       </c>
       <c r="K25" t="n">
-        <v>242.5105907858448</v>
+        <v>242.5105907858449</v>
       </c>
       <c r="L25" t="n">
-        <v>514.1165825954693</v>
+        <v>514.1165825954695</v>
       </c>
       <c r="M25" t="n">
-        <v>810.8761420831152</v>
+        <v>810.8761420831154</v>
       </c>
       <c r="N25" t="n">
-        <v>1106.014038958227</v>
+        <v>1106.014038958228</v>
       </c>
       <c r="O25" t="n">
         <v>1362.605360660763</v>
@@ -6168,31 +6168,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q25" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R25" t="n">
-        <v>1507.231973714919</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="S25" t="n">
-        <v>1310.169656970241</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="T25" t="n">
-        <v>1087.084876016237</v>
+        <v>1268.986854204716</v>
       </c>
       <c r="U25" t="n">
-        <v>1087.084876016237</v>
+        <v>1268.986854204716</v>
       </c>
       <c r="V25" t="n">
-        <v>832.4003878103505</v>
+        <v>1268.986854204716</v>
       </c>
       <c r="W25" t="n">
-        <v>832.4003878103505</v>
+        <v>1268.986854204716</v>
       </c>
       <c r="X25" t="n">
-        <v>604.4108369123331</v>
+        <v>1268.986854204716</v>
       </c>
       <c r="Y25" t="n">
-        <v>400.4924185667489</v>
+        <v>1268.986854204716</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1382.554286834799</v>
+        <v>1769.15412689892</v>
       </c>
       <c r="C26" t="n">
-        <v>1013.591769894387</v>
+        <v>1769.15412689892</v>
       </c>
       <c r="D26" t="n">
-        <v>655.3260712876365</v>
+        <v>1410.88842829217</v>
       </c>
       <c r="E26" t="n">
-        <v>655.3260712876365</v>
+        <v>1025.100175693926</v>
       </c>
       <c r="F26" t="n">
-        <v>244.340166498029</v>
+        <v>614.1142709043181</v>
       </c>
       <c r="G26" t="n">
-        <v>118.4196543406437</v>
+        <v>354.534924478902</v>
       </c>
       <c r="H26" t="n">
-        <v>118.4196543406437</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I26" t="n">
         <v>49.90777080860229</v>
       </c>
       <c r="J26" t="n">
-        <v>181.5754963439904</v>
+        <v>181.5754963439898</v>
       </c>
       <c r="K26" t="n">
-        <v>429.6498038307159</v>
+        <v>429.6498038307157</v>
       </c>
       <c r="L26" t="n">
-        <v>774.3096803567485</v>
+        <v>774.309680356748</v>
       </c>
       <c r="M26" t="n">
-        <v>1189.479639284631</v>
+        <v>1189.47963928463</v>
       </c>
       <c r="N26" t="n">
-        <v>1615.981290573628</v>
+        <v>1615.981290573627</v>
       </c>
       <c r="O26" t="n">
         <v>2005.37944447543</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3031160492297</v>
+        <v>863.6805832831849</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8500867681028</v>
+        <v>689.2275540020579</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9156771068515</v>
+        <v>540.2931443408066</v>
       </c>
       <c r="E27" t="n">
-        <v>448.678222101396</v>
+        <v>381.0556893353511</v>
       </c>
       <c r="F27" t="n">
-        <v>302.143664128281</v>
+        <v>234.5211313622361</v>
       </c>
       <c r="G27" t="n">
-        <v>165.4125782904605</v>
+        <v>97.79004552441555</v>
       </c>
       <c r="H27" t="n">
-        <v>71.35671705856507</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I27" t="n">
         <v>49.90777080860229</v>
       </c>
       <c r="J27" t="n">
-        <v>143.1820865930025</v>
+        <v>234.3404441532698</v>
       </c>
       <c r="K27" t="n">
-        <v>585.027744457853</v>
+        <v>562.4955000501549</v>
       </c>
       <c r="L27" t="n">
-        <v>873.4162130344375</v>
+        <v>850.8839686267395</v>
       </c>
       <c r="M27" t="n">
-        <v>1229.308821630284</v>
+        <v>1206.776577222586</v>
       </c>
       <c r="N27" t="n">
-        <v>1609.029493499901</v>
+        <v>1586.497249092203</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.179928607135</v>
+        <v>1911.647684199438</v>
       </c>
       <c r="P27" t="n">
-        <v>2175.808752306135</v>
+        <v>2153.276507898438</v>
       </c>
       <c r="Q27" t="n">
-        <v>2495.388540430115</v>
+        <v>2472.856296022417</v>
       </c>
       <c r="R27" t="n">
         <v>2495.388540430115</v>
       </c>
       <c r="S27" t="n">
-        <v>2426.738014258465</v>
+        <v>2359.11548149242</v>
       </c>
       <c r="T27" t="n">
-        <v>2232.611773448894</v>
+        <v>2164.98924068285</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.519716999729</v>
+        <v>1936.897184233684</v>
       </c>
       <c r="V27" t="n">
-        <v>1769.367608767986</v>
+        <v>1701.745076001941</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.130252039784</v>
+        <v>1447.50771927374</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.278751834252</v>
+        <v>1239.656219068207</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.518453069298</v>
+        <v>1031.895920303253</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.5224330398472</v>
+        <v>513.6469948168127</v>
       </c>
       <c r="C28" t="n">
-        <v>324.5224330398472</v>
+        <v>344.7108118889058</v>
       </c>
       <c r="D28" t="n">
-        <v>324.5224330398472</v>
+        <v>344.7108118889058</v>
       </c>
       <c r="E28" t="n">
-        <v>324.5224330398472</v>
+        <v>196.7977183065126</v>
       </c>
       <c r="F28" t="n">
-        <v>324.5224330398472</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="G28" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="H28" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I28" t="n">
         <v>49.90777080860229</v>
       </c>
       <c r="J28" t="n">
-        <v>73.65301825917582</v>
+        <v>73.65301825917585</v>
       </c>
       <c r="K28" t="n">
-        <v>242.5105907858448</v>
+        <v>242.5105907858449</v>
       </c>
       <c r="L28" t="n">
-        <v>514.1165825954693</v>
+        <v>514.1165825954695</v>
       </c>
       <c r="M28" t="n">
-        <v>810.8761420831152</v>
+        <v>810.8761420831154</v>
       </c>
       <c r="N28" t="n">
-        <v>1106.014038958227</v>
+        <v>1106.014038958228</v>
       </c>
       <c r="O28" t="n">
         <v>1362.605360660763</v>
@@ -6405,31 +6405,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q28" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R28" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.871702892243</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="T28" t="n">
-        <v>1190.786921938239</v>
+        <v>1190.78692193824</v>
       </c>
       <c r="U28" t="n">
-        <v>901.6672274189018</v>
+        <v>901.6672274189025</v>
       </c>
       <c r="V28" t="n">
-        <v>795.5880679070476</v>
+        <v>901.6672274189025</v>
       </c>
       <c r="W28" t="n">
-        <v>506.1708978700869</v>
+        <v>612.2500573819418</v>
       </c>
       <c r="X28" t="n">
-        <v>506.1708978700869</v>
+        <v>612.2500573819418</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.1708978700869</v>
+        <v>612.2500573819418</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1231.43612248605</v>
+        <v>1883.311605823771</v>
       </c>
       <c r="C29" t="n">
-        <v>862.4736055456384</v>
+        <v>1514.349088883359</v>
       </c>
       <c r="D29" t="n">
-        <v>504.2079069388879</v>
+        <v>1156.083390276609</v>
       </c>
       <c r="E29" t="n">
-        <v>118.4196543406437</v>
+        <v>770.2951376783647</v>
       </c>
       <c r="F29" t="n">
-        <v>118.4196543406437</v>
+        <v>770.2951376783647</v>
       </c>
       <c r="G29" t="n">
-        <v>118.4196543406437</v>
+        <v>354.534924478902</v>
       </c>
       <c r="H29" t="n">
-        <v>118.4196543406437</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I29" t="n">
         <v>49.90777080860229</v>
@@ -6466,19 +6466,19 @@
         <v>181.5754963439896</v>
       </c>
       <c r="K29" t="n">
-        <v>429.6498038307154</v>
+        <v>429.6498038307155</v>
       </c>
       <c r="L29" t="n">
-        <v>774.309680356748</v>
+        <v>774.3096803567482</v>
       </c>
       <c r="M29" t="n">
-        <v>1189.47963928463</v>
+        <v>1189.479639284631</v>
       </c>
       <c r="N29" t="n">
-        <v>1615.981290573627</v>
+        <v>1615.981290573628</v>
       </c>
       <c r="O29" t="n">
-        <v>2005.37944447543</v>
+        <v>2005.379444475431</v>
       </c>
       <c r="P29" t="n">
         <v>2303.220758926973</v>
@@ -6493,22 +6493,22 @@
         <v>2495.388540430115</v>
       </c>
       <c r="T29" t="n">
-        <v>2286.400110087217</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="U29" t="n">
-        <v>2032.814612317497</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="V29" t="n">
-        <v>2032.814612317497</v>
+        <v>2236.080261093885</v>
       </c>
       <c r="W29" t="n">
-        <v>2032.814612317497</v>
+        <v>1883.311605823771</v>
       </c>
       <c r="X29" t="n">
-        <v>1659.348854056417</v>
+        <v>1883.311605823771</v>
       </c>
       <c r="Y29" t="n">
-        <v>1618.035962550172</v>
+        <v>1883.311605823771</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>863.6805832831844</v>
+        <v>863.6805832831849</v>
       </c>
       <c r="C30" t="n">
-        <v>689.2275540020574</v>
+        <v>689.2275540020579</v>
       </c>
       <c r="D30" t="n">
-        <v>540.2931443408062</v>
+        <v>540.2931443408066</v>
       </c>
       <c r="E30" t="n">
-        <v>381.0556893353507</v>
+        <v>381.0556893353511</v>
       </c>
       <c r="F30" t="n">
-        <v>280.6947178783183</v>
+        <v>234.5211313622361</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9636320404977</v>
+        <v>97.79004552441555</v>
       </c>
       <c r="H30" t="n">
         <v>49.90777080860229</v>
@@ -6545,25 +6545,25 @@
         <v>234.3404441532698</v>
       </c>
       <c r="K30" t="n">
-        <v>676.1861020181203</v>
+        <v>562.4955000501549</v>
       </c>
       <c r="L30" t="n">
-        <v>964.5745705947049</v>
+        <v>850.8839686267395</v>
       </c>
       <c r="M30" t="n">
-        <v>1320.467179190551</v>
+        <v>1206.776577222586</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.187851060169</v>
+        <v>1586.497249092203</v>
       </c>
       <c r="O30" t="n">
-        <v>2025.338286167403</v>
+        <v>1911.647684199438</v>
       </c>
       <c r="P30" t="n">
-        <v>2266.967109866403</v>
+        <v>2153.276507898438</v>
       </c>
       <c r="Q30" t="n">
-        <v>2495.388540430115</v>
+        <v>2472.856296022417</v>
       </c>
       <c r="R30" t="n">
         <v>2495.388540430115</v>
@@ -6572,19 +6572,19 @@
         <v>2359.11548149242</v>
       </c>
       <c r="T30" t="n">
-        <v>2164.989240682849</v>
+        <v>2164.98924068285</v>
       </c>
       <c r="U30" t="n">
-        <v>1936.897184233683</v>
+        <v>1936.897184233684</v>
       </c>
       <c r="V30" t="n">
         <v>1701.745076001941</v>
       </c>
       <c r="W30" t="n">
-        <v>1447.507719273739</v>
+        <v>1447.50771927374</v>
       </c>
       <c r="X30" t="n">
-        <v>1239.656219068206</v>
+        <v>1239.656219068207</v>
       </c>
       <c r="Y30" t="n">
         <v>1031.895920303253</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>645.8471530360972</v>
+        <v>197.8208643909954</v>
       </c>
       <c r="C31" t="n">
-        <v>645.8471530360972</v>
+        <v>197.8208643909954</v>
       </c>
       <c r="D31" t="n">
-        <v>495.7305136237615</v>
+        <v>197.8208643909954</v>
       </c>
       <c r="E31" t="n">
-        <v>347.8174200413683</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="F31" t="n">
-        <v>305.4711825039935</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="G31" t="n">
-        <v>305.4711825039935</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="H31" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I31" t="n">
         <v>49.90777080860229</v>
       </c>
       <c r="J31" t="n">
-        <v>73.65301825917582</v>
+        <v>73.65301825917585</v>
       </c>
       <c r="K31" t="n">
-        <v>242.5105907858448</v>
+        <v>242.5105907858449</v>
       </c>
       <c r="L31" t="n">
-        <v>514.1165825954693</v>
+        <v>514.1165825954695</v>
       </c>
       <c r="M31" t="n">
-        <v>810.8761420831152</v>
+        <v>810.8761420831154</v>
       </c>
       <c r="N31" t="n">
-        <v>1106.014038958227</v>
+        <v>1106.014038958228</v>
       </c>
       <c r="O31" t="n">
         <v>1362.605360660763</v>
@@ -6642,31 +6642,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q31" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R31" t="n">
-        <v>1507.231973714919</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="S31" t="n">
-        <v>1310.169656970241</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="T31" t="n">
-        <v>1310.169656970241</v>
+        <v>1387.849238682918</v>
       </c>
       <c r="U31" t="n">
-        <v>1310.169656970241</v>
+        <v>1098.72954416358</v>
       </c>
       <c r="V31" t="n">
-        <v>1055.485168764354</v>
+        <v>844.0450559576933</v>
       </c>
       <c r="W31" t="n">
-        <v>1055.485168764354</v>
+        <v>828.2514592627825</v>
       </c>
       <c r="X31" t="n">
-        <v>827.4956178663369</v>
+        <v>600.2619083647652</v>
       </c>
       <c r="Y31" t="n">
-        <v>827.4956178663369</v>
+        <v>379.4693292212351</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1345.183610129099</v>
+        <v>812.1835658885179</v>
       </c>
       <c r="C32" t="n">
-        <v>1262.442141395917</v>
+        <v>812.1835658885179</v>
       </c>
       <c r="D32" t="n">
-        <v>1262.442141395917</v>
+        <v>465.667984008065</v>
       </c>
       <c r="E32" t="n">
-        <v>876.6538887976725</v>
+        <v>465.667984008065</v>
       </c>
       <c r="F32" t="n">
-        <v>465.6679840080649</v>
+        <v>465.667984008065</v>
       </c>
       <c r="G32" t="n">
-        <v>49.90777080860226</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="H32" t="n">
-        <v>49.90777080860226</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I32" t="n">
-        <v>49.90777080860226</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J32" t="n">
-        <v>181.5754963439896</v>
+        <v>181.5754963439899</v>
       </c>
       <c r="K32" t="n">
-        <v>429.6498038307154</v>
+        <v>429.6498038307159</v>
       </c>
       <c r="L32" t="n">
-        <v>774.3096803567473</v>
+        <v>774.3096803567487</v>
       </c>
       <c r="M32" t="n">
-        <v>1189.479639284629</v>
+        <v>1189.479639284631</v>
       </c>
       <c r="N32" t="n">
-        <v>1615.981290573626</v>
+        <v>1615.981290573628</v>
       </c>
       <c r="O32" t="n">
-        <v>2005.379444475428</v>
+        <v>2005.379444475431</v>
       </c>
       <c r="P32" t="n">
-        <v>2303.220758926971</v>
+        <v>2303.220758926973</v>
       </c>
       <c r="Q32" t="n">
-        <v>2478.714435577519</v>
+        <v>2478.714435577522</v>
       </c>
       <c r="R32" t="n">
-        <v>2495.388540430113</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S32" t="n">
-        <v>2495.388540430113</v>
+        <v>2369.425471581598</v>
       </c>
       <c r="T32" t="n">
-        <v>2495.388540430113</v>
+        <v>2160.437041238701</v>
       </c>
       <c r="U32" t="n">
-        <v>2495.388540430113</v>
+        <v>1906.85154346898</v>
       </c>
       <c r="V32" t="n">
-        <v>2495.388540430113</v>
+        <v>1575.788656125409</v>
       </c>
       <c r="W32" t="n">
-        <v>2495.388540430113</v>
+        <v>1575.788656125409</v>
       </c>
       <c r="X32" t="n">
-        <v>2121.922782169033</v>
+        <v>1202.32289786433</v>
       </c>
       <c r="Y32" t="n">
-        <v>1731.783450193221</v>
+        <v>812.1835658885179</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>863.6805832831826</v>
+        <v>931.3031160492297</v>
       </c>
       <c r="C33" t="n">
-        <v>689.2275540020556</v>
+        <v>756.8500867681028</v>
       </c>
       <c r="D33" t="n">
-        <v>540.2931443408044</v>
+        <v>607.9156771068515</v>
       </c>
       <c r="E33" t="n">
-        <v>381.0556893353489</v>
+        <v>448.678222101396</v>
       </c>
       <c r="F33" t="n">
-        <v>234.5211313622338</v>
+        <v>302.143664128281</v>
       </c>
       <c r="G33" t="n">
-        <v>165.4125782904604</v>
+        <v>165.4125782904605</v>
       </c>
       <c r="H33" t="n">
-        <v>71.35671705856504</v>
+        <v>71.35671705856507</v>
       </c>
       <c r="I33" t="n">
-        <v>49.90777080860226</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J33" t="n">
-        <v>143.1820865930007</v>
+        <v>109.5103191662651</v>
       </c>
       <c r="K33" t="n">
-        <v>585.0277444578512</v>
+        <v>551.3559770311157</v>
       </c>
       <c r="L33" t="n">
-        <v>873.4162130344357</v>
+        <v>839.7444456077003</v>
       </c>
       <c r="M33" t="n">
-        <v>1229.308821630282</v>
+        <v>1195.637054203547</v>
       </c>
       <c r="N33" t="n">
-        <v>1609.029493499899</v>
+        <v>1586.497249092204</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.179928607133</v>
+        <v>1911.647684199439</v>
       </c>
       <c r="P33" t="n">
-        <v>2175.808752306133</v>
+        <v>2153.276507898438</v>
       </c>
       <c r="Q33" t="n">
-        <v>2495.388540430113</v>
+        <v>2472.856296022418</v>
       </c>
       <c r="R33" t="n">
-        <v>2495.388540430113</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S33" t="n">
-        <v>2359.115481492418</v>
+        <v>2426.738014258465</v>
       </c>
       <c r="T33" t="n">
-        <v>2164.989240682848</v>
+        <v>2232.611773448894</v>
       </c>
       <c r="U33" t="n">
-        <v>1936.897184233682</v>
+        <v>2004.519716999729</v>
       </c>
       <c r="V33" t="n">
-        <v>1701.745076001939</v>
+        <v>1769.367608767986</v>
       </c>
       <c r="W33" t="n">
-        <v>1447.507719273737</v>
+        <v>1515.130252039784</v>
       </c>
       <c r="X33" t="n">
-        <v>1239.656219068205</v>
+        <v>1307.278751834252</v>
       </c>
       <c r="Y33" t="n">
-        <v>1031.895920303251</v>
+        <v>1099.518453069298</v>
       </c>
     </row>
     <row r="34">
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>49.90777080860226</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="C34" t="n">
-        <v>49.90777080860226</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="D34" t="n">
-        <v>49.90777080860226</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="E34" t="n">
-        <v>49.90777080860226</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="F34" t="n">
-        <v>49.90777080860226</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="G34" t="n">
-        <v>49.90777080860226</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="H34" t="n">
-        <v>49.90777080860226</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I34" t="n">
-        <v>49.90777080860226</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J34" t="n">
-        <v>73.65301825917579</v>
+        <v>73.65301825917587</v>
       </c>
       <c r="K34" t="n">
-        <v>242.5105907858448</v>
+        <v>242.5105907858449</v>
       </c>
       <c r="L34" t="n">
-        <v>514.1165825954693</v>
+        <v>514.1165825954695</v>
       </c>
       <c r="M34" t="n">
-        <v>810.8761420831152</v>
+        <v>810.8761420831154</v>
       </c>
       <c r="N34" t="n">
-        <v>1106.014038958227</v>
+        <v>1106.014038958228</v>
       </c>
       <c r="O34" t="n">
         <v>1362.605360660763</v>
@@ -6879,31 +6879,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q34" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R34" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.871702892243</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="T34" t="n">
-        <v>1190.786921938239</v>
+        <v>1190.78692193824</v>
       </c>
       <c r="U34" t="n">
-        <v>901.6672274189018</v>
+        <v>901.6672274189025</v>
       </c>
       <c r="V34" t="n">
-        <v>646.982739213015</v>
+        <v>646.9827392130156</v>
       </c>
       <c r="W34" t="n">
-        <v>357.5655691760543</v>
+        <v>357.565569176055</v>
       </c>
       <c r="X34" t="n">
-        <v>129.576018278037</v>
+        <v>129.5760182780377</v>
       </c>
       <c r="Y34" t="n">
-        <v>49.90777080860226</v>
+        <v>49.90777080860231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1855.203202596271</v>
+        <v>1421.417665840619</v>
       </c>
       <c r="C35" t="n">
-        <v>1486.24068565586</v>
+        <v>1421.417665840619</v>
       </c>
       <c r="D35" t="n">
-        <v>1486.24068565586</v>
+        <v>1421.417665840619</v>
       </c>
       <c r="E35" t="n">
-        <v>1100.452433057616</v>
+        <v>1035.629413242375</v>
       </c>
       <c r="F35" t="n">
-        <v>770.2951376783647</v>
+        <v>624.643508452767</v>
       </c>
       <c r="G35" t="n">
         <v>354.534924478902</v>
       </c>
       <c r="H35" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I35" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J35" t="n">
-        <v>181.5754963439895</v>
+        <v>181.5754963439904</v>
       </c>
       <c r="K35" t="n">
-        <v>429.649803830715</v>
+        <v>429.6498038307163</v>
       </c>
       <c r="L35" t="n">
-        <v>774.3096803567475</v>
+        <v>774.3096803567494</v>
       </c>
       <c r="M35" t="n">
-        <v>1189.47963928463</v>
+        <v>1189.479639284632</v>
       </c>
       <c r="N35" t="n">
-        <v>1615.981290573627</v>
+        <v>1615.981290573629</v>
       </c>
       <c r="O35" t="n">
-        <v>2005.379444475429</v>
+        <v>2005.379444475431</v>
       </c>
       <c r="P35" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926974</v>
       </c>
       <c r="Q35" t="n">
-        <v>2478.71443557752</v>
+        <v>2478.714435577522</v>
       </c>
       <c r="R35" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S35" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="T35" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="U35" t="n">
-        <v>2241.803042660393</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="V35" t="n">
-        <v>2241.803042660393</v>
+        <v>2164.325653086545</v>
       </c>
       <c r="W35" t="n">
-        <v>2241.803042660393</v>
+        <v>1811.556997816431</v>
       </c>
       <c r="X35" t="n">
-        <v>2241.803042660393</v>
+        <v>1811.556997816431</v>
       </c>
       <c r="Y35" t="n">
-        <v>2241.803042660393</v>
+        <v>1421.417665840619</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>909.854169799267</v>
+        <v>863.6805832831858</v>
       </c>
       <c r="C36" t="n">
-        <v>735.40114051814</v>
+        <v>689.2275540020588</v>
       </c>
       <c r="D36" t="n">
-        <v>586.4667308568887</v>
+        <v>540.2931443408075</v>
       </c>
       <c r="E36" t="n">
-        <v>427.2292758514333</v>
+        <v>381.055689335352</v>
       </c>
       <c r="F36" t="n">
-        <v>280.6947178783182</v>
+        <v>234.521131362237</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9636320404977</v>
+        <v>97.79004552441646</v>
       </c>
       <c r="H36" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I36" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J36" t="n">
-        <v>234.3404441532698</v>
+        <v>234.3404441532699</v>
       </c>
       <c r="K36" t="n">
-        <v>676.1861020181203</v>
+        <v>562.4955000501558</v>
       </c>
       <c r="L36" t="n">
-        <v>964.5745705947049</v>
+        <v>850.8839686267404</v>
       </c>
       <c r="M36" t="n">
-        <v>1320.467179190551</v>
+        <v>1206.776577222587</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.187851060169</v>
+        <v>1586.497249092204</v>
       </c>
       <c r="O36" t="n">
-        <v>2025.338286167403</v>
+        <v>1911.647684199439</v>
       </c>
       <c r="P36" t="n">
-        <v>2266.967109866403</v>
+        <v>2153.276507898438</v>
       </c>
       <c r="Q36" t="n">
-        <v>2495.388540430114</v>
+        <v>2472.856296022418</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S36" t="n">
-        <v>2359.115481492419</v>
+        <v>2359.115481492421</v>
       </c>
       <c r="T36" t="n">
-        <v>2164.989240682849</v>
+        <v>2164.989240682851</v>
       </c>
       <c r="U36" t="n">
-        <v>1983.070770749766</v>
+        <v>1936.897184233685</v>
       </c>
       <c r="V36" t="n">
-        <v>1747.918662518023</v>
+        <v>1701.745076001942</v>
       </c>
       <c r="W36" t="n">
-        <v>1493.681305789822</v>
+        <v>1447.507719273741</v>
       </c>
       <c r="X36" t="n">
-        <v>1285.829805584289</v>
+        <v>1239.656219068208</v>
       </c>
       <c r="Y36" t="n">
-        <v>1078.069506819335</v>
+        <v>1031.895920303254</v>
       </c>
     </row>
     <row r="37">
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>474.639072452183</v>
+        <v>811.7988876652618</v>
       </c>
       <c r="C37" t="n">
-        <v>474.639072452183</v>
+        <v>811.7988876652618</v>
       </c>
       <c r="D37" t="n">
-        <v>324.5224330398472</v>
+        <v>661.682248252926</v>
       </c>
       <c r="E37" t="n">
-        <v>324.5224330398472</v>
+        <v>513.7691546705329</v>
       </c>
       <c r="F37" t="n">
-        <v>324.5224330398472</v>
+        <v>366.8792071726225</v>
       </c>
       <c r="G37" t="n">
-        <v>156.5110895899102</v>
+        <v>198.8678637226855</v>
       </c>
       <c r="H37" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I37" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J37" t="n">
-        <v>73.65301825917581</v>
+        <v>73.65301825917587</v>
       </c>
       <c r="K37" t="n">
-        <v>242.5105907858448</v>
+        <v>242.5105907858449</v>
       </c>
       <c r="L37" t="n">
-        <v>514.1165825954693</v>
+        <v>514.1165825954695</v>
       </c>
       <c r="M37" t="n">
-        <v>810.8761420831152</v>
+        <v>810.8761420831154</v>
       </c>
       <c r="N37" t="n">
-        <v>1106.014038958227</v>
+        <v>1106.014038958228</v>
       </c>
       <c r="O37" t="n">
         <v>1362.605360660763</v>
@@ -7116,31 +7116,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q37" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R37" t="n">
-        <v>1507.231973714919</v>
+        <v>1519.07095359043</v>
       </c>
       <c r="S37" t="n">
-        <v>1310.169656970241</v>
+        <v>1322.008636845753</v>
       </c>
       <c r="T37" t="n">
-        <v>1307.860425214368</v>
+        <v>1322.008636845753</v>
       </c>
       <c r="U37" t="n">
-        <v>1018.74073069503</v>
+        <v>1322.008636845753</v>
       </c>
       <c r="V37" t="n">
-        <v>764.0562424891436</v>
+        <v>1322.008636845753</v>
       </c>
       <c r="W37" t="n">
-        <v>474.639072452183</v>
+        <v>1032.591466808792</v>
       </c>
       <c r="X37" t="n">
-        <v>474.639072452183</v>
+        <v>1032.591466808792</v>
       </c>
       <c r="Y37" t="n">
-        <v>474.639072452183</v>
+        <v>811.7988876652618</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1345.1836101291</v>
+        <v>975.5173114427319</v>
       </c>
       <c r="C38" t="n">
-        <v>1262.442141395917</v>
+        <v>712.8006230856524</v>
       </c>
       <c r="D38" t="n">
-        <v>1262.442141395917</v>
+        <v>354.534924478902</v>
       </c>
       <c r="E38" t="n">
-        <v>876.6538887976725</v>
+        <v>354.534924478902</v>
       </c>
       <c r="F38" t="n">
-        <v>465.6679840080649</v>
+        <v>354.534924478902</v>
       </c>
       <c r="G38" t="n">
-        <v>49.90777080860227</v>
+        <v>354.534924478902</v>
       </c>
       <c r="H38" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I38" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J38" t="n">
-        <v>181.5754963439892</v>
+        <v>181.5754963439898</v>
       </c>
       <c r="K38" t="n">
-        <v>429.649803830715</v>
+        <v>429.6498038307157</v>
       </c>
       <c r="L38" t="n">
-        <v>774.3096803567475</v>
+        <v>774.309680356748</v>
       </c>
       <c r="M38" t="n">
         <v>1189.47963928463</v>
@@ -7189,37 +7189,37 @@
         <v>1615.981290573627</v>
       </c>
       <c r="O38" t="n">
-        <v>2005.379444475429</v>
+        <v>2005.37944447543</v>
       </c>
       <c r="P38" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926973</v>
       </c>
       <c r="Q38" t="n">
-        <v>2478.71443557752</v>
+        <v>2478.714435577521</v>
       </c>
       <c r="R38" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S38" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="T38" t="n">
-        <v>2495.388540430114</v>
+        <v>2286.400110087217</v>
       </c>
       <c r="U38" t="n">
-        <v>2495.388540430114</v>
+        <v>2032.814612317497</v>
       </c>
       <c r="V38" t="n">
-        <v>2495.388540430114</v>
+        <v>1701.751724973926</v>
       </c>
       <c r="W38" t="n">
-        <v>2495.388540430114</v>
+        <v>1348.983069703812</v>
       </c>
       <c r="X38" t="n">
-        <v>2121.922782169034</v>
+        <v>975.5173114427319</v>
       </c>
       <c r="Y38" t="n">
-        <v>1731.783450193222</v>
+        <v>975.5173114427319</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3031160492297</v>
+        <v>909.854169799267</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8500867681028</v>
+        <v>735.40114051814</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9156771068515</v>
+        <v>586.4667308568887</v>
       </c>
       <c r="E39" t="n">
-        <v>448.678222101396</v>
+        <v>427.2292758514333</v>
       </c>
       <c r="F39" t="n">
-        <v>302.143664128281</v>
+        <v>280.6947178783183</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4125782904604</v>
+        <v>143.9636320404977</v>
       </c>
       <c r="H39" t="n">
-        <v>71.35671705856504</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I39" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J39" t="n">
-        <v>143.1820865930016</v>
+        <v>234.3404441532698</v>
       </c>
       <c r="K39" t="n">
-        <v>585.0277444578521</v>
+        <v>414.3655173756676</v>
       </c>
       <c r="L39" t="n">
-        <v>873.4162130344366</v>
+        <v>702.7539859522522</v>
       </c>
       <c r="M39" t="n">
-        <v>1229.308821630283</v>
+        <v>1058.646594548098</v>
       </c>
       <c r="N39" t="n">
-        <v>1609.0294934999</v>
+        <v>1438.367266417716</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.179928607134</v>
+        <v>1763.51770152495</v>
       </c>
       <c r="P39" t="n">
-        <v>2175.808752306134</v>
+        <v>2153.276507898438</v>
       </c>
       <c r="Q39" t="n">
-        <v>2495.388540430114</v>
+        <v>2472.856296022417</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S39" t="n">
-        <v>2359.115481492419</v>
+        <v>2405.289068008502</v>
       </c>
       <c r="T39" t="n">
-        <v>2164.989240682849</v>
+        <v>2211.162827198932</v>
       </c>
       <c r="U39" t="n">
-        <v>1936.897184233683</v>
+        <v>1983.070770749766</v>
       </c>
       <c r="V39" t="n">
-        <v>1701.74507600194</v>
+        <v>1747.918662518023</v>
       </c>
       <c r="W39" t="n">
-        <v>1447.507719273738</v>
+        <v>1493.681305789822</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.278751834252</v>
+        <v>1285.829805584289</v>
       </c>
       <c r="Y39" t="n">
-        <v>1099.518453069298</v>
+        <v>1078.069506819335</v>
       </c>
     </row>
     <row r="40">
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.90777080860227</v>
+        <v>465.0367988651529</v>
       </c>
       <c r="C40" t="n">
-        <v>49.90777080860227</v>
+        <v>465.0367988651529</v>
       </c>
       <c r="D40" t="n">
-        <v>49.90777080860227</v>
+        <v>465.0367988651529</v>
       </c>
       <c r="E40" t="n">
-        <v>49.90777080860227</v>
+        <v>317.1237052827598</v>
       </c>
       <c r="F40" t="n">
-        <v>49.90777080860227</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="G40" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="H40" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I40" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J40" t="n">
-        <v>73.65301825917581</v>
+        <v>73.65301825917585</v>
       </c>
       <c r="K40" t="n">
-        <v>242.5105907858448</v>
+        <v>242.5105907858449</v>
       </c>
       <c r="L40" t="n">
-        <v>514.1165825954693</v>
+        <v>514.1165825954695</v>
       </c>
       <c r="M40" t="n">
-        <v>810.8761420831152</v>
+        <v>810.8761420831154</v>
       </c>
       <c r="N40" t="n">
-        <v>1106.014038958227</v>
+        <v>1106.014038958228</v>
       </c>
       <c r="O40" t="n">
         <v>1362.605360660763</v>
@@ -7353,31 +7353,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q40" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R40" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="S40" t="n">
-        <v>1413.871702892243</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="T40" t="n">
-        <v>1413.871702892243</v>
+        <v>1190.78692193824</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.440023923237</v>
+        <v>1190.78692193824</v>
       </c>
       <c r="V40" t="n">
-        <v>969.7555357173501</v>
+        <v>936.1024337323532</v>
       </c>
       <c r="W40" t="n">
-        <v>680.3383656803894</v>
+        <v>646.6852636953927</v>
       </c>
       <c r="X40" t="n">
-        <v>452.3488147823721</v>
+        <v>646.6852636953927</v>
       </c>
       <c r="Y40" t="n">
-        <v>231.556235638842</v>
+        <v>646.6852636953927</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1631.404658336328</v>
+        <v>804.6585403472583</v>
       </c>
       <c r="C41" t="n">
-        <v>1262.442141395917</v>
+        <v>435.6960234068466</v>
       </c>
       <c r="D41" t="n">
-        <v>1262.442141395917</v>
+        <v>435.6960234068466</v>
       </c>
       <c r="E41" t="n">
-        <v>876.6538887976725</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="F41" t="n">
-        <v>465.6679840080649</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="G41" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="H41" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I41" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J41" t="n">
-        <v>181.5754963439887</v>
+        <v>181.5754963439904</v>
       </c>
       <c r="K41" t="n">
-        <v>429.6498038307145</v>
+        <v>429.6498038307163</v>
       </c>
       <c r="L41" t="n">
-        <v>774.3096803567471</v>
+        <v>774.3096803567494</v>
       </c>
       <c r="M41" t="n">
-        <v>1189.479639284629</v>
+        <v>1189.479639284632</v>
       </c>
       <c r="N41" t="n">
-        <v>1615.981290573626</v>
+        <v>1615.981290573629</v>
       </c>
       <c r="O41" t="n">
-        <v>2005.379444475429</v>
+        <v>2005.379444475431</v>
       </c>
       <c r="P41" t="n">
-        <v>2303.220758926971</v>
+        <v>2303.220758926974</v>
       </c>
       <c r="Q41" t="n">
-        <v>2478.714435577519</v>
+        <v>2478.714435577522</v>
       </c>
       <c r="R41" t="n">
-        <v>2495.388540430113</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S41" t="n">
-        <v>2495.388540430113</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="T41" t="n">
-        <v>2495.388540430113</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="U41" t="n">
-        <v>2408.143830376262</v>
+        <v>2252.095173197834</v>
       </c>
       <c r="V41" t="n">
-        <v>2408.143830376262</v>
+        <v>1921.032285854264</v>
       </c>
       <c r="W41" t="n">
-        <v>2408.143830376262</v>
+        <v>1568.26363058415</v>
       </c>
       <c r="X41" t="n">
-        <v>2408.143830376262</v>
+        <v>1194.79787232307</v>
       </c>
       <c r="Y41" t="n">
-        <v>2018.00449840045</v>
+        <v>804.6585403472583</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>863.6805832831835</v>
+        <v>863.6805832831858</v>
       </c>
       <c r="C42" t="n">
-        <v>689.2275540020565</v>
+        <v>756.8500867681028</v>
       </c>
       <c r="D42" t="n">
-        <v>540.2931443408053</v>
+        <v>607.9156771068515</v>
       </c>
       <c r="E42" t="n">
-        <v>381.0556893353498</v>
+        <v>448.678222101396</v>
       </c>
       <c r="F42" t="n">
         <v>302.143664128281</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4125782904604</v>
+        <v>165.4125782904605</v>
       </c>
       <c r="H42" t="n">
-        <v>71.35671705856504</v>
+        <v>71.35671705856507</v>
       </c>
       <c r="I42" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J42" t="n">
-        <v>143.1820865930011</v>
+        <v>234.3404441532699</v>
       </c>
       <c r="K42" t="n">
-        <v>585.0277444578517</v>
+        <v>562.4955000501558</v>
       </c>
       <c r="L42" t="n">
-        <v>873.4162130344362</v>
+        <v>850.8839686267404</v>
       </c>
       <c r="M42" t="n">
-        <v>1229.308821630282</v>
+        <v>1206.776577222587</v>
       </c>
       <c r="N42" t="n">
-        <v>1609.0294934999</v>
+        <v>1586.497249092204</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.179928607134</v>
+        <v>1911.647684199439</v>
       </c>
       <c r="P42" t="n">
-        <v>2175.808752306134</v>
+        <v>2153.276507898438</v>
       </c>
       <c r="Q42" t="n">
-        <v>2495.388540430113</v>
+        <v>2472.856296022418</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.388540430113</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S42" t="n">
-        <v>2359.115481492419</v>
+        <v>2359.115481492421</v>
       </c>
       <c r="T42" t="n">
-        <v>2164.989240682849</v>
+        <v>2164.989240682851</v>
       </c>
       <c r="U42" t="n">
-        <v>1936.897184233683</v>
+        <v>1936.897184233685</v>
       </c>
       <c r="V42" t="n">
-        <v>1701.74507600194</v>
+        <v>1701.745076001942</v>
       </c>
       <c r="W42" t="n">
-        <v>1447.507719273738</v>
+        <v>1447.507719273741</v>
       </c>
       <c r="X42" t="n">
-        <v>1239.656219068205</v>
+        <v>1239.656219068208</v>
       </c>
       <c r="Y42" t="n">
-        <v>1031.895920303252</v>
+        <v>1031.895920303254</v>
       </c>
     </row>
     <row r="43">
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>453.2180418092038</v>
+        <v>679.7390620984547</v>
       </c>
       <c r="C43" t="n">
-        <v>284.2818588812969</v>
+        <v>510.8028791705478</v>
       </c>
       <c r="D43" t="n">
-        <v>196.7977183065126</v>
+        <v>510.8028791705478</v>
       </c>
       <c r="E43" t="n">
-        <v>196.7977183065126</v>
+        <v>362.8897855881547</v>
       </c>
       <c r="F43" t="n">
-        <v>49.90777080860227</v>
+        <v>362.8897855881547</v>
       </c>
       <c r="G43" t="n">
-        <v>49.90777080860227</v>
+        <v>305.4711825039934</v>
       </c>
       <c r="H43" t="n">
-        <v>49.90777080860227</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="I43" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J43" t="n">
-        <v>73.65301825917579</v>
+        <v>73.65301825917587</v>
       </c>
       <c r="K43" t="n">
-        <v>242.5105907858448</v>
+        <v>242.5105907858449</v>
       </c>
       <c r="L43" t="n">
-        <v>514.1165825954693</v>
+        <v>514.1165825954695</v>
       </c>
       <c r="M43" t="n">
-        <v>810.8761420831152</v>
+        <v>810.8761420831154</v>
       </c>
       <c r="N43" t="n">
-        <v>1106.014038958227</v>
+        <v>1106.014038958228</v>
       </c>
       <c r="O43" t="n">
         <v>1362.605360660763</v>
@@ -7590,31 +7590,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q43" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R43" t="n">
-        <v>1507.231973714919</v>
+        <v>1507.23197371492</v>
       </c>
       <c r="S43" t="n">
-        <v>1507.231973714919</v>
+        <v>1310.169656970242</v>
       </c>
       <c r="T43" t="n">
-        <v>1507.231973714919</v>
+        <v>1310.169656970242</v>
       </c>
       <c r="U43" t="n">
-        <v>1218.112279195581</v>
+        <v>1310.169656970242</v>
       </c>
       <c r="V43" t="n">
-        <v>963.4277909896945</v>
+        <v>1310.169656970242</v>
       </c>
       <c r="W43" t="n">
-        <v>674.0106209527339</v>
+        <v>1310.169656970242</v>
       </c>
       <c r="X43" t="n">
-        <v>674.0106209527339</v>
+        <v>1082.180106072225</v>
       </c>
       <c r="Y43" t="n">
-        <v>453.2180418092038</v>
+        <v>861.3875269286945</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1256.075440277562</v>
+        <v>1642.422027275657</v>
       </c>
       <c r="C44" t="n">
-        <v>887.1129233371501</v>
+        <v>1273.459510335246</v>
       </c>
       <c r="D44" t="n">
-        <v>834.0327128005508</v>
+        <v>915.1938117284953</v>
       </c>
       <c r="E44" t="n">
-        <v>834.0327128005508</v>
+        <v>529.4055591302512</v>
       </c>
       <c r="F44" t="n">
-        <v>423.0468080109433</v>
+        <v>118.4196543406436</v>
       </c>
       <c r="G44" t="n">
-        <v>423.0468080109433</v>
+        <v>118.4196543406436</v>
       </c>
       <c r="H44" t="n">
         <v>118.4196543406436</v>
       </c>
       <c r="I44" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860228</v>
       </c>
       <c r="J44" t="n">
         <v>181.5754963439896</v>
@@ -7654,46 +7654,46 @@
         <v>429.6498038307154</v>
       </c>
       <c r="L44" t="n">
-        <v>774.3096803567478</v>
+        <v>774.3096803567473</v>
       </c>
       <c r="M44" t="n">
-        <v>1189.47963928463</v>
+        <v>1189.479639284629</v>
       </c>
       <c r="N44" t="n">
-        <v>1615.981290573627</v>
+        <v>1615.981290573626</v>
       </c>
       <c r="O44" t="n">
-        <v>2005.379444475429</v>
+        <v>2005.37944447543</v>
       </c>
       <c r="P44" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926973</v>
       </c>
       <c r="Q44" t="n">
-        <v>2478.714435577519</v>
+        <v>2478.71443557752</v>
       </c>
       <c r="R44" t="n">
-        <v>2495.388540430113</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S44" t="n">
-        <v>2495.388540430113</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="T44" t="n">
-        <v>2286.400110087216</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="U44" t="n">
-        <v>2032.814612317495</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="V44" t="n">
-        <v>2032.814612317495</v>
+        <v>2381.790522609893</v>
       </c>
       <c r="W44" t="n">
-        <v>2032.814612317495</v>
+        <v>2029.021867339779</v>
       </c>
       <c r="X44" t="n">
-        <v>2032.814612317495</v>
+        <v>2029.021867339779</v>
       </c>
       <c r="Y44" t="n">
-        <v>1642.675280341683</v>
+        <v>2029.021867339779</v>
       </c>
     </row>
     <row r="45">
@@ -7718,43 +7718,43 @@
         <v>302.143664128281</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4125782904604</v>
+        <v>165.4125782904605</v>
       </c>
       <c r="H45" t="n">
-        <v>71.35671705856504</v>
+        <v>71.35671705856505</v>
       </c>
       <c r="I45" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860228</v>
       </c>
       <c r="J45" t="n">
-        <v>120.6498421853038</v>
+        <v>234.3404441532698</v>
       </c>
       <c r="K45" t="n">
-        <v>562.4955000501543</v>
+        <v>555.1162674295076</v>
       </c>
       <c r="L45" t="n">
-        <v>850.8839686267388</v>
+        <v>843.5047360060921</v>
       </c>
       <c r="M45" t="n">
-        <v>1206.776577222585</v>
+        <v>1199.397344601938</v>
       </c>
       <c r="N45" t="n">
-        <v>1586.497249092202</v>
+        <v>1817.006008358391</v>
       </c>
       <c r="O45" t="n">
-        <v>1911.647684199437</v>
+        <v>2142.156443465625</v>
       </c>
       <c r="P45" t="n">
-        <v>2153.276507898436</v>
+        <v>2383.785267164625</v>
       </c>
       <c r="Q45" t="n">
-        <v>2472.856296022416</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.388540430113</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S45" t="n">
-        <v>2359.115481492419</v>
+        <v>2359.11548149242</v>
       </c>
       <c r="T45" t="n">
         <v>2164.989240682849</v>
@@ -7763,10 +7763,10 @@
         <v>1936.897184233683</v>
       </c>
       <c r="V45" t="n">
-        <v>1701.74507600194</v>
+        <v>1701.745076001941</v>
       </c>
       <c r="W45" t="n">
-        <v>1447.507719273738</v>
+        <v>1447.507719273739</v>
       </c>
       <c r="X45" t="n">
         <v>1307.278751834252</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>218.8439537365092</v>
+        <v>465.3342743827752</v>
       </c>
       <c r="C46" t="n">
-        <v>49.90777080860227</v>
+        <v>296.3980914548683</v>
       </c>
       <c r="D46" t="n">
-        <v>49.90777080860227</v>
+        <v>146.2814520425326</v>
       </c>
       <c r="E46" t="n">
-        <v>49.90777080860227</v>
+        <v>146.2814520425326</v>
       </c>
       <c r="F46" t="n">
-        <v>49.90777080860227</v>
+        <v>146.2814520425326</v>
       </c>
       <c r="G46" t="n">
-        <v>49.90777080860227</v>
+        <v>146.2814520425326</v>
       </c>
       <c r="H46" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860228</v>
       </c>
       <c r="I46" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860228</v>
       </c>
       <c r="J46" t="n">
-        <v>73.65301825917579</v>
+        <v>73.65301825917581</v>
       </c>
       <c r="K46" t="n">
         <v>242.5105907858448</v>
@@ -7833,25 +7833,25 @@
         <v>1610.934019636921</v>
       </c>
       <c r="S46" t="n">
-        <v>1610.934019636921</v>
+        <v>1413.871702892243</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.849238682917</v>
+        <v>1190.786921938239</v>
       </c>
       <c r="U46" t="n">
-        <v>1172.583627707614</v>
+        <v>901.6672274189018</v>
       </c>
       <c r="V46" t="n">
-        <v>917.8991395017269</v>
+        <v>646.982739213015</v>
       </c>
       <c r="W46" t="n">
-        <v>628.4819694647663</v>
+        <v>646.982739213015</v>
       </c>
       <c r="X46" t="n">
-        <v>400.4924185667489</v>
+        <v>646.982739213015</v>
       </c>
       <c r="Y46" t="n">
-        <v>400.4924185667489</v>
+        <v>646.982739213015</v>
       </c>
     </row>
   </sheetData>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>264.3596516773811</v>
+        <v>264.3596516773808</v>
       </c>
       <c r="N12" t="n">
-        <v>240.2909008957937</v>
+        <v>221.4349165246215</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.903858464886284</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.76182697526278</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>34.01188628963313</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>190.3822160310746</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>295.4123521709284</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>22.76182697526282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>172.3860879618019</v>
+        <v>190.0916423981237</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>22.76182697526282</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>172.3860879618031</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>190.0916423981237</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>22.76182697526285</v>
+        <v>22.76182697526282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>149.6262451257447</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.9981386850728</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>22.76182697526284</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>34.01188628963381</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>149.6262451257447</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>22.76182697526284</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>149.6262451257447</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>117.9981386850738</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>22.76182697526284</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>34.011886289632</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>11.25204345357588</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>22.76182697526284</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>149.6262451257456</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>117.9981386850728</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>22.76182697526284</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>34.01188628963291</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>149.6262451257448</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>22.76182697526284</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>34.01188628963246</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>149.6262451257456</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>22.76182697526284</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>11.25204345357452</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>142.1724748018587</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>240.2909008957936</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>22.76182697526284</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>190.2481380528419</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>301.5808821335967</v>
       </c>
       <c r="I11" t="n">
-        <v>67.82676469672086</v>
+        <v>67.82676469672091</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7034381600318</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>45.96537134230596</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.0496427920231</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23345,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>66.94630743838536</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>66.94630743838336</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>148.0348664902822</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>13.95528560599161</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>147.4704919849424</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5372855934948</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8539331444638</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>282.0798125785595</v>
       </c>
       <c r="G14" t="n">
-        <v>117.6802774340392</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.82676469672091</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>66.94630743838434</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>45.71185065092132</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21.23445678746313</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.3312300154376</v>
@@ -23703,10 +23703,10 @@
         <v>102.665025462782</v>
       </c>
       <c r="S16" t="n">
-        <v>195.0916935772309</v>
+        <v>20.67180782109097</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8539331444638</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>79.37270024441534</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,7 +23749,7 @@
         <v>411.602611067468</v>
       </c>
       <c r="H17" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>67.82676469672091</v>
@@ -23788,16 +23788,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>189.8404268199566</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>252.5709355553222</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>66.94630743838533</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>66.94630743838445</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.7144833175924</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>147.4704919849424</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>170.0724506782456</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>272.7689875748312</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H20" t="n">
         <v>301.5808821335967</v>
       </c>
       <c r="I20" t="n">
-        <v>67.82676469672094</v>
+        <v>67.82676469672091</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>206.8985460394687</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0496427920231</v>
+        <v>122.8058694497101</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>66.94630743838404</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>66.9463074383857</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>124.4533749620608</v>
+        <v>98.69113539482758</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,10 +24177,10 @@
         <v>102.665025462782</v>
       </c>
       <c r="S22" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.82836066507639</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>351.1856024218757</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>301.5808821335967</v>
       </c>
       <c r="I23" t="n">
-        <v>67.82676469672094</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7034381600318</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>45.71185065092132</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>21.23445678746313</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>66.94630743838562</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5372855934949</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>77.41793294381122</v>
       </c>
       <c r="U25" t="n">
         <v>286.2284975741443</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.70541918996639</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>286.9413040316566</v>
+        <v>154.6190581063061</v>
       </c>
       <c r="H26" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.82676469672089</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>45.71185065092132</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>21.23445678746313</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>66.94630743838448</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>82.21494824245949</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H28" t="n">
         <v>147.4704919849424</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5372855934948</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>147.1192754070923</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.82676469672089</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>71.0370619272681</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>345.3381760648712</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24770,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>45.7118506509218</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>45.71185065092132</v>
       </c>
       <c r="I30" t="n">
-        <v>21.23445678746315</v>
+        <v>21.23445678746313</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>103.4982728609301</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.3312300154376</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5372855934948</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8539331444638</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2284975741443</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>270.8873376086293</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>283.3588377251567</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>11.63261555903455</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>301.5808821335967</v>
       </c>
       <c r="I32" t="n">
-        <v>67.82676469672094</v>
+        <v>67.82676469672089</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7034381600318</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>66.9463074383867</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>66.94630743838313</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>147.4704919849424</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5372855934949</v>
+        <v>105.5372855934948</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.7130883573544</v>
+        <v>139.7130883573538</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>80.0203233162531</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>144.1951129333416</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>67.82676469672094</v>
+        <v>67.82676469672089</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>206.8985460394687</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>45.71185065092044</v>
       </c>
       <c r="I36" t="n">
-        <v>21.23445678746315</v>
+        <v>21.23445678746313</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>45.71185065092249</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.5372855934948</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>11.72059007675546</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.5677937061495</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>283.3588377251558</v>
+        <v>105.1833702974989</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H38" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.82676469672094</v>
+        <v>67.82676469672089</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T38" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.23445678746313</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>45.71185065092135</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>66.94630743838562</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.20850290895291</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>147.4704919849424</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5372855934949</v>
+        <v>105.5372855934948</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8539331444638</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>98.69113539482808</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H41" t="n">
         <v>301.5808821335967</v>
       </c>
       <c r="I41" t="n">
-        <v>67.82676469672094</v>
+        <v>67.82676469672089</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>206.8985460394687</v>
       </c>
       <c r="U41" t="n">
-        <v>164.6773798387101</v>
+        <v>10.18920923206488</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>66.94630743838354</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25718,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>66.94630743838579</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>62.00617384917592</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3312300154376</v>
+        <v>109.4868129621179</v>
       </c>
       <c r="H43" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>105.5372855934949</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>220.8539331444638</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>302.1336331894497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>411.602611067468</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>215.2902208281163</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>66.94630743838562</v>
+        <v>66.94630743838474</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>166.3312300154376</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4704919849424</v>
+        <v>52.06054756335139</v>
       </c>
       <c r="I46" t="n">
         <v>105.5372855934949</v>
@@ -26073,22 +26073,22 @@
         <v>102.665025462782</v>
       </c>
       <c r="S46" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>73.11554270859418</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>625453.7169158401</v>
+        <v>625453.7169158397</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>625453.7169158397</v>
+        <v>625453.7169158399</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>625453.7169158397</v>
+        <v>625453.7169158398</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>625453.7169158397</v>
+        <v>625453.7169158399</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>625453.7169158397</v>
+        <v>625453.7169158401</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>625453.7169158397</v>
+        <v>625453.7169158401</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>625453.7169158397</v>
+        <v>625453.7169158398</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>625453.7169158397</v>
+        <v>625453.7169158399</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>625453.7169158397</v>
+        <v>625453.7169158398</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>614457.2540377787</v>
       </c>
       <c r="C2" t="n">
+        <v>614457.2540377786</v>
+      </c>
+      <c r="D2" t="n">
         <v>614457.2540377788</v>
       </c>
-      <c r="D2" t="n">
-        <v>614457.2540377787</v>
-      </c>
       <c r="E2" t="n">
-        <v>452220.1049995837</v>
+        <v>452220.1049995836</v>
       </c>
       <c r="F2" t="n">
         <v>452220.1049995838</v>
       </c>
       <c r="G2" t="n">
+        <v>452220.1049995837</v>
+      </c>
+      <c r="H2" t="n">
         <v>452220.1049995838</v>
       </c>
-      <c r="H2" t="n">
-        <v>452220.1049995837</v>
-      </c>
       <c r="I2" t="n">
-        <v>452220.1049995837</v>
+        <v>452220.1049995838</v>
       </c>
       <c r="J2" t="n">
         <v>452220.1049995838</v>
       </c>
       <c r="K2" t="n">
-        <v>452220.1049995837</v>
+        <v>452220.1049995839</v>
       </c>
       <c r="L2" t="n">
-        <v>452220.1049995836</v>
+        <v>452220.1049995839</v>
       </c>
       <c r="M2" t="n">
-        <v>452220.1049995837</v>
+        <v>452220.1049995839</v>
       </c>
       <c r="N2" t="n">
-        <v>452220.1049995836</v>
+        <v>452220.1049995838</v>
       </c>
       <c r="O2" t="n">
-        <v>452220.1049995836</v>
+        <v>452220.1049995839</v>
       </c>
       <c r="P2" t="n">
-        <v>452220.1049995836</v>
+        <v>452220.1049995838</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>925724.3361543603</v>
+        <v>925724.3361543599</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>155465.2014573366</v>
+        <v>155465.2014573365</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>23002.38492225182</v>
+        <v>23002.3849222518</v>
       </c>
       <c r="F4" t="n">
-        <v>23002.38492225182</v>
+        <v>23002.38492225181</v>
       </c>
       <c r="G4" t="n">
-        <v>23002.38492225179</v>
+        <v>23002.38492225181</v>
       </c>
       <c r="H4" t="n">
         <v>23002.38492225181</v>
       </c>
       <c r="I4" t="n">
-        <v>23002.3849222518</v>
+        <v>23002.38492225181</v>
       </c>
       <c r="J4" t="n">
+        <v>23002.38492225181</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23002.38492225181</v>
+      </c>
+      <c r="L4" t="n">
         <v>23002.38492225183</v>
       </c>
-      <c r="K4" t="n">
-        <v>23002.38492225182</v>
-      </c>
-      <c r="L4" t="n">
-        <v>23002.38492225179</v>
-      </c>
       <c r="M4" t="n">
-        <v>23002.3849222518</v>
+        <v>23002.38492225183</v>
       </c>
       <c r="N4" t="n">
         <v>23002.38492225181</v>
       </c>
       <c r="O4" t="n">
-        <v>23002.3849222518</v>
+        <v>23002.38492225183</v>
       </c>
       <c r="P4" t="n">
-        <v>23002.3849222518</v>
+        <v>23002.38492225182</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57994.76650862439</v>
+        <v>57994.76650862437</v>
       </c>
       <c r="F5" t="n">
         <v>57994.76650862438</v>
       </c>
       <c r="G5" t="n">
-        <v>57994.76650862437</v>
+        <v>57994.76650862438</v>
       </c>
       <c r="H5" t="n">
-        <v>57994.76650862437</v>
+        <v>57994.76650862438</v>
       </c>
       <c r="I5" t="n">
-        <v>57994.76650862437</v>
+        <v>57994.76650862438</v>
       </c>
       <c r="J5" t="n">
         <v>57994.76650862438</v>
@@ -26499,19 +26499,19 @@
         <v>57994.76650862438</v>
       </c>
       <c r="L5" t="n">
-        <v>57994.76650862435</v>
+        <v>57994.76650862439</v>
       </c>
       <c r="M5" t="n">
+        <v>57994.76650862439</v>
+      </c>
+      <c r="N5" t="n">
+        <v>57994.76650862438</v>
+      </c>
+      <c r="O5" t="n">
+        <v>57994.76650862439</v>
+      </c>
+      <c r="P5" t="n">
         <v>57994.76650862437</v>
-      </c>
-      <c r="N5" t="n">
-        <v>57994.76650862437</v>
-      </c>
-      <c r="O5" t="n">
-        <v>57994.76650862436</v>
-      </c>
-      <c r="P5" t="n">
-        <v>57994.76650862436</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133760.8979867047</v>
+        <v>133800.6201875177</v>
       </c>
       <c r="C6" t="n">
-        <v>133760.8979867048</v>
+        <v>133800.6201875176</v>
       </c>
       <c r="D6" t="n">
-        <v>133760.8979867047</v>
+        <v>133800.6201875178</v>
       </c>
       <c r="E6" t="n">
-        <v>-559953.4233322737</v>
+        <v>-555046.5866603145</v>
       </c>
       <c r="F6" t="n">
-        <v>365770.912822087</v>
+        <v>370677.7494940455</v>
       </c>
       <c r="G6" t="n">
-        <v>365770.9128220867</v>
+        <v>370677.7494940454</v>
       </c>
       <c r="H6" t="n">
-        <v>365770.9128220865</v>
+        <v>370677.7494940455</v>
       </c>
       <c r="I6" t="n">
-        <v>365770.9128220865</v>
+        <v>370677.7494940455</v>
       </c>
       <c r="J6" t="n">
-        <v>365770.9128220867</v>
+        <v>370677.7494940455</v>
       </c>
       <c r="K6" t="n">
-        <v>365770.9128220866</v>
+        <v>370677.7494940456</v>
       </c>
       <c r="L6" t="n">
-        <v>365770.9128220865</v>
+        <v>370677.7494940456</v>
       </c>
       <c r="M6" t="n">
-        <v>210305.7113647499</v>
+        <v>215212.5480367091</v>
       </c>
       <c r="N6" t="n">
-        <v>365770.9128220865</v>
+        <v>370677.7494940455</v>
       </c>
       <c r="O6" t="n">
-        <v>365770.9128220865</v>
+        <v>370677.7494940456</v>
       </c>
       <c r="P6" t="n">
-        <v>365770.9128220865</v>
+        <v>370677.7494940455</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>920.4064538571856</v>
+        <v>920.4064538571853</v>
       </c>
       <c r="F3" t="n">
         <v>920.4064538571853</v>
@@ -26755,28 +26755,28 @@
         <v>920.4064538571853</v>
       </c>
       <c r="H3" t="n">
-        <v>920.4064538571851</v>
+        <v>920.4064538571853</v>
       </c>
       <c r="I3" t="n">
-        <v>920.4064538571852</v>
+        <v>920.4064538571854</v>
       </c>
       <c r="J3" t="n">
-        <v>920.4064538571852</v>
+        <v>920.4064538571854</v>
       </c>
       <c r="K3" t="n">
-        <v>920.4064538571852</v>
+        <v>920.4064538571854</v>
       </c>
       <c r="L3" t="n">
-        <v>920.4064538571852</v>
+        <v>920.4064538571854</v>
       </c>
       <c r="M3" t="n">
-        <v>920.4064538571852</v>
+        <v>920.4064538571854</v>
       </c>
       <c r="N3" t="n">
-        <v>920.4064538571852</v>
+        <v>920.4064538571854</v>
       </c>
       <c r="O3" t="n">
-        <v>920.4064538571852</v>
+        <v>920.4064538571854</v>
       </c>
       <c r="P3" t="n">
         <v>920.4064538571852</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>623.8471351075289</v>
+        <v>623.8471351075284</v>
       </c>
       <c r="F4" t="n">
         <v>623.8471351075286</v>
       </c>
       <c r="G4" t="n">
-        <v>623.8471351075284</v>
+        <v>623.8471351075286</v>
       </c>
       <c r="H4" t="n">
-        <v>623.8471351075284</v>
+        <v>623.8471351075286</v>
       </c>
       <c r="I4" t="n">
-        <v>623.8471351075284</v>
+        <v>623.8471351075286</v>
       </c>
       <c r="J4" t="n">
         <v>623.8471351075286</v>
@@ -26819,19 +26819,19 @@
         <v>623.8471351075286</v>
       </c>
       <c r="L4" t="n">
-        <v>623.8471351075282</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="M4" t="n">
-        <v>623.8471351075284</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="N4" t="n">
-        <v>623.8471351075284</v>
+        <v>623.8471351075286</v>
       </c>
       <c r="O4" t="n">
-        <v>623.8471351075283</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="P4" t="n">
-        <v>623.8471351075283</v>
+        <v>623.8471351075285</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>920.4064538571856</v>
+        <v>920.4064538571853</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.35279447026536e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>623.8471351075289</v>
+        <v>623.8471351075284</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>623.8471351075289</v>
+        <v>623.8471351075283</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>623.8471351075289</v>
+        <v>623.8471351075284</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.700126447667075</v>
+        <v>3.700126447667074</v>
       </c>
       <c r="H11" t="n">
-        <v>37.89391998217044</v>
+        <v>37.89391998217043</v>
       </c>
       <c r="I11" t="n">
-        <v>142.6491248736851</v>
+        <v>142.649124873685</v>
       </c>
       <c r="J11" t="n">
-        <v>314.0436070876837</v>
+        <v>314.0436070876836</v>
       </c>
       <c r="K11" t="n">
-        <v>470.6699596174311</v>
+        <v>470.6699596174309</v>
       </c>
       <c r="L11" t="n">
-        <v>583.9077043902224</v>
+        <v>583.9077043902222</v>
       </c>
       <c r="M11" t="n">
-        <v>649.7098281039217</v>
+        <v>649.7098281039215</v>
       </c>
       <c r="N11" t="n">
-        <v>660.2228123733559</v>
+        <v>660.2228123733556</v>
       </c>
       <c r="O11" t="n">
-        <v>623.4296800093664</v>
+        <v>623.4296800093662</v>
       </c>
       <c r="P11" t="n">
-        <v>532.0828083325854</v>
+        <v>532.0828083325852</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.5720299255081</v>
+        <v>399.572029925508</v>
       </c>
       <c r="R11" t="n">
-        <v>232.4280679682671</v>
+        <v>232.428067968267</v>
       </c>
       <c r="S11" t="n">
-        <v>84.31663142621356</v>
+        <v>84.31663142621353</v>
       </c>
       <c r="T11" t="n">
-        <v>16.19730352466263</v>
+        <v>16.19730352466262</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2960101158133659</v>
+        <v>0.2960101158133658</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.979742183768286</v>
+        <v>1.979742183768285</v>
       </c>
       <c r="H12" t="n">
-        <v>19.12014161692003</v>
+        <v>19.12014161692002</v>
       </c>
       <c r="I12" t="n">
-        <v>68.16217606395196</v>
+        <v>68.16217606395195</v>
       </c>
       <c r="J12" t="n">
-        <v>187.0422209673362</v>
+        <v>187.0422209673361</v>
       </c>
       <c r="K12" t="n">
-        <v>319.6849472798114</v>
+        <v>319.6849472798112</v>
       </c>
       <c r="L12" t="n">
-        <v>429.8558631905659</v>
+        <v>429.8558631905657</v>
       </c>
       <c r="M12" t="n">
-        <v>501.6215173521661</v>
+        <v>501.6215173521659</v>
       </c>
       <c r="N12" t="n">
-        <v>514.8979462950684</v>
+        <v>514.8979462950682</v>
       </c>
       <c r="O12" t="n">
-        <v>471.0310273810448</v>
+        <v>471.0310273810446</v>
       </c>
       <c r="P12" t="n">
-        <v>378.043926302209</v>
+        <v>378.0439263022088</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.7123531420711</v>
+        <v>252.712353142071</v>
       </c>
       <c r="R12" t="n">
-        <v>122.9176769887012</v>
+        <v>122.9176769887011</v>
       </c>
       <c r="S12" t="n">
-        <v>36.77284275552055</v>
+        <v>36.77284275552054</v>
       </c>
       <c r="T12" t="n">
-        <v>7.979750293346729</v>
+        <v>7.979750293346727</v>
       </c>
       <c r="U12" t="n">
         <v>0.1302461963005452</v>
@@ -31916,43 +31916,43 @@
         <v>14.75668052249718</v>
       </c>
       <c r="I13" t="n">
-        <v>49.91318933376346</v>
+        <v>49.91318933376343</v>
       </c>
       <c r="J13" t="n">
         <v>117.3442785515956</v>
       </c>
       <c r="K13" t="n">
-        <v>192.8326963982759</v>
+        <v>192.8326963982758</v>
       </c>
       <c r="L13" t="n">
-        <v>246.7594614160724</v>
+        <v>246.7594614160723</v>
       </c>
       <c r="M13" t="n">
-        <v>260.1732538337615</v>
+        <v>260.1732538337614</v>
       </c>
       <c r="N13" t="n">
-        <v>253.9869153734101</v>
+        <v>253.98691537341</v>
       </c>
       <c r="O13" t="n">
-        <v>234.5980253208447</v>
+        <v>234.5980253208446</v>
       </c>
       <c r="P13" t="n">
-        <v>200.739138723213</v>
+        <v>200.7391387232129</v>
       </c>
       <c r="Q13" t="n">
         <v>138.981374532435</v>
       </c>
       <c r="R13" t="n">
-        <v>74.62836591438752</v>
+        <v>74.62836591438749</v>
       </c>
       <c r="S13" t="n">
-        <v>28.92490445974138</v>
+        <v>28.92490445974137</v>
       </c>
       <c r="T13" t="n">
-        <v>7.091656283817657</v>
+        <v>7.091656283817654</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09053178234660851</v>
+        <v>0.09053178234660848</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.700126447667073</v>
+        <v>3.700126447667074</v>
       </c>
       <c r="H20" t="n">
-        <v>37.89391998217042</v>
+        <v>37.89391998217043</v>
       </c>
       <c r="I20" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J20" t="n">
-        <v>314.0436070876835</v>
+        <v>314.0436070876836</v>
       </c>
       <c r="K20" t="n">
-        <v>470.6699596174308</v>
+        <v>470.6699596174309</v>
       </c>
       <c r="L20" t="n">
-        <v>583.9077043902221</v>
+        <v>583.9077043902222</v>
       </c>
       <c r="M20" t="n">
-        <v>649.7098281039214</v>
+        <v>649.7098281039215</v>
       </c>
       <c r="N20" t="n">
-        <v>660.2228123733555</v>
+        <v>660.2228123733556</v>
       </c>
       <c r="O20" t="n">
-        <v>623.4296800093661</v>
+        <v>623.4296800093662</v>
       </c>
       <c r="P20" t="n">
-        <v>532.082808332585</v>
+        <v>532.0828083325852</v>
       </c>
       <c r="Q20" t="n">
-        <v>399.5720299255079</v>
+        <v>399.572029925508</v>
       </c>
       <c r="R20" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S20" t="n">
-        <v>84.3166314262135</v>
+        <v>84.31663142621353</v>
       </c>
       <c r="T20" t="n">
         <v>16.19730352466262</v>
@@ -32548,7 +32548,7 @@
         <v>19.12014161692002</v>
       </c>
       <c r="I21" t="n">
-        <v>68.16217606395192</v>
+        <v>68.16217606395195</v>
       </c>
       <c r="J21" t="n">
         <v>187.0422209673361</v>
@@ -32557,34 +32557,34 @@
         <v>319.6849472798112</v>
       </c>
       <c r="L21" t="n">
-        <v>429.8558631905656</v>
+        <v>429.8558631905657</v>
       </c>
       <c r="M21" t="n">
-        <v>501.6215173521658</v>
+        <v>501.6215173521659</v>
       </c>
       <c r="N21" t="n">
-        <v>514.8979462950681</v>
+        <v>514.8979462950682</v>
       </c>
       <c r="O21" t="n">
-        <v>471.0310273810445</v>
+        <v>471.0310273810446</v>
       </c>
       <c r="P21" t="n">
         <v>378.0439263022088</v>
       </c>
       <c r="Q21" t="n">
-        <v>252.7123531420709</v>
+        <v>252.712353142071</v>
       </c>
       <c r="R21" t="n">
         <v>122.9176769887011</v>
       </c>
       <c r="S21" t="n">
-        <v>36.77284275552053</v>
+        <v>36.77284275552054</v>
       </c>
       <c r="T21" t="n">
-        <v>7.979750293346724</v>
+        <v>7.979750293346727</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1302461963005451</v>
+        <v>0.1302461963005452</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.659749343021153</v>
+        <v>1.659749343021154</v>
       </c>
       <c r="H22" t="n">
-        <v>14.75668052249717</v>
+        <v>14.75668052249718</v>
       </c>
       <c r="I22" t="n">
-        <v>49.91318933376342</v>
+        <v>49.91318933376343</v>
       </c>
       <c r="J22" t="n">
-        <v>117.3442785515955</v>
+        <v>117.3442785515956</v>
       </c>
       <c r="K22" t="n">
-        <v>192.8326963982757</v>
+        <v>192.8326963982758</v>
       </c>
       <c r="L22" t="n">
-        <v>246.7594614160722</v>
+        <v>246.7594614160723</v>
       </c>
       <c r="M22" t="n">
-        <v>260.1732538337613</v>
+        <v>260.1732538337614</v>
       </c>
       <c r="N22" t="n">
-        <v>253.9869153734099</v>
+        <v>253.98691537341</v>
       </c>
       <c r="O22" t="n">
         <v>234.5980253208446</v>
       </c>
       <c r="P22" t="n">
-        <v>200.7391387232128</v>
+        <v>200.7391387232129</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.9813745324349</v>
+        <v>138.981374532435</v>
       </c>
       <c r="R22" t="n">
-        <v>74.62836591438747</v>
+        <v>74.62836591438749</v>
       </c>
       <c r="S22" t="n">
-        <v>28.92490445974136</v>
+        <v>28.92490445974137</v>
       </c>
       <c r="T22" t="n">
-        <v>7.091656283817652</v>
+        <v>7.091656283817654</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09053178234660846</v>
+        <v>0.09053178234660848</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.700126447667073</v>
+        <v>3.700126447667074</v>
       </c>
       <c r="H23" t="n">
-        <v>37.89391998217042</v>
+        <v>37.89391998217043</v>
       </c>
       <c r="I23" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J23" t="n">
-        <v>314.0436070876835</v>
+        <v>314.0436070876836</v>
       </c>
       <c r="K23" t="n">
-        <v>470.6699596174308</v>
+        <v>470.6699596174309</v>
       </c>
       <c r="L23" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902223</v>
       </c>
       <c r="M23" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039216</v>
       </c>
       <c r="N23" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733557</v>
       </c>
       <c r="O23" t="n">
-        <v>623.4296800093661</v>
+        <v>623.4296800093663</v>
       </c>
       <c r="P23" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325853</v>
       </c>
       <c r="Q23" t="n">
-        <v>399.5720299255079</v>
+        <v>399.572029925508</v>
       </c>
       <c r="R23" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S23" t="n">
-        <v>84.31663142621352</v>
+        <v>84.31663142621353</v>
       </c>
       <c r="T23" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H24" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I24" t="n">
-        <v>68.16217606395193</v>
+        <v>68.16217606395195</v>
       </c>
       <c r="J24" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K24" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798113</v>
       </c>
       <c r="L24" t="n">
-        <v>429.8558631905656</v>
+        <v>429.8558631905657</v>
       </c>
       <c r="M24" t="n">
-        <v>501.6215173521658</v>
+        <v>501.621517352166</v>
       </c>
       <c r="N24" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950683</v>
       </c>
       <c r="O24" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810447</v>
       </c>
       <c r="P24" t="n">
-        <v>378.0439263022088</v>
+        <v>378.0439263022089</v>
       </c>
       <c r="Q24" t="n">
         <v>252.712353142071</v>
@@ -32818,10 +32818,10 @@
         <v>36.77284275552054</v>
       </c>
       <c r="T24" t="n">
-        <v>7.979750293346725</v>
+        <v>7.979750293346727</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1302461963005451</v>
+        <v>0.1302461963005452</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,28 +32858,28 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.659749343021153</v>
+        <v>1.659749343021154</v>
       </c>
       <c r="H25" t="n">
-        <v>14.75668052249717</v>
+        <v>14.75668052249718</v>
       </c>
       <c r="I25" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376344</v>
       </c>
       <c r="J25" t="n">
-        <v>117.3442785515955</v>
+        <v>117.3442785515956</v>
       </c>
       <c r="K25" t="n">
         <v>192.8326963982758</v>
       </c>
       <c r="L25" t="n">
-        <v>246.7594614160722</v>
+        <v>246.7594614160723</v>
       </c>
       <c r="M25" t="n">
-        <v>260.1732538337613</v>
+        <v>260.1732538337614</v>
       </c>
       <c r="N25" t="n">
-        <v>253.9869153734099</v>
+        <v>253.98691537341</v>
       </c>
       <c r="O25" t="n">
         <v>234.5980253208446</v>
@@ -32891,16 +32891,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R25" t="n">
-        <v>74.62836591438747</v>
+        <v>74.6283659143875</v>
       </c>
       <c r="S25" t="n">
-        <v>28.92490445974136</v>
+        <v>28.92490445974137</v>
       </c>
       <c r="T25" t="n">
-        <v>7.091656283817653</v>
+        <v>7.091656283817655</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09053178234660847</v>
+        <v>0.0905317823466085</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.700126447667073</v>
+        <v>3.700126447667074</v>
       </c>
       <c r="H26" t="n">
-        <v>37.89391998217042</v>
+        <v>37.89391998217043</v>
       </c>
       <c r="I26" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J26" t="n">
-        <v>314.0436070876835</v>
+        <v>314.0436070876836</v>
       </c>
       <c r="K26" t="n">
-        <v>470.6699596174308</v>
+        <v>470.6699596174309</v>
       </c>
       <c r="L26" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902223</v>
       </c>
       <c r="M26" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039216</v>
       </c>
       <c r="N26" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733557</v>
       </c>
       <c r="O26" t="n">
-        <v>623.4296800093661</v>
+        <v>623.4296800093663</v>
       </c>
       <c r="P26" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325853</v>
       </c>
       <c r="Q26" t="n">
-        <v>399.5720299255079</v>
+        <v>399.572029925508</v>
       </c>
       <c r="R26" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S26" t="n">
-        <v>84.31663142621352</v>
+        <v>84.31663142621353</v>
       </c>
       <c r="T26" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H27" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I27" t="n">
-        <v>68.16217606395193</v>
+        <v>68.16217606395195</v>
       </c>
       <c r="J27" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K27" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798113</v>
       </c>
       <c r="L27" t="n">
-        <v>429.8558631905656</v>
+        <v>429.8558631905657</v>
       </c>
       <c r="M27" t="n">
-        <v>501.6215173521658</v>
+        <v>501.621517352166</v>
       </c>
       <c r="N27" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950683</v>
       </c>
       <c r="O27" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810447</v>
       </c>
       <c r="P27" t="n">
-        <v>378.0439263022088</v>
+        <v>378.0439263022089</v>
       </c>
       <c r="Q27" t="n">
         <v>252.712353142071</v>
@@ -33055,10 +33055,10 @@
         <v>36.77284275552054</v>
       </c>
       <c r="T27" t="n">
-        <v>7.979750293346725</v>
+        <v>7.979750293346727</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1302461963005451</v>
+        <v>0.1302461963005452</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,28 +33095,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.659749343021153</v>
+        <v>1.659749343021154</v>
       </c>
       <c r="H28" t="n">
-        <v>14.75668052249717</v>
+        <v>14.75668052249718</v>
       </c>
       <c r="I28" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376344</v>
       </c>
       <c r="J28" t="n">
-        <v>117.3442785515955</v>
+        <v>117.3442785515956</v>
       </c>
       <c r="K28" t="n">
         <v>192.8326963982758</v>
       </c>
       <c r="L28" t="n">
-        <v>246.7594614160722</v>
+        <v>246.7594614160723</v>
       </c>
       <c r="M28" t="n">
-        <v>260.1732538337613</v>
+        <v>260.1732538337614</v>
       </c>
       <c r="N28" t="n">
-        <v>253.9869153734099</v>
+        <v>253.98691537341</v>
       </c>
       <c r="O28" t="n">
         <v>234.5980253208446</v>
@@ -33128,16 +33128,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R28" t="n">
-        <v>74.62836591438747</v>
+        <v>74.6283659143875</v>
       </c>
       <c r="S28" t="n">
-        <v>28.92490445974136</v>
+        <v>28.92490445974137</v>
       </c>
       <c r="T28" t="n">
-        <v>7.091656283817653</v>
+        <v>7.091656283817655</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09053178234660847</v>
+        <v>0.0905317823466085</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.700126447667073</v>
+        <v>3.700126447667074</v>
       </c>
       <c r="H29" t="n">
-        <v>37.89391998217042</v>
+        <v>37.89391998217043</v>
       </c>
       <c r="I29" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J29" t="n">
-        <v>314.0436070876835</v>
+        <v>314.0436070876836</v>
       </c>
       <c r="K29" t="n">
-        <v>470.6699596174308</v>
+        <v>470.6699596174309</v>
       </c>
       <c r="L29" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902223</v>
       </c>
       <c r="M29" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039216</v>
       </c>
       <c r="N29" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733557</v>
       </c>
       <c r="O29" t="n">
-        <v>623.4296800093661</v>
+        <v>623.4296800093663</v>
       </c>
       <c r="P29" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325853</v>
       </c>
       <c r="Q29" t="n">
-        <v>399.5720299255079</v>
+        <v>399.572029925508</v>
       </c>
       <c r="R29" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S29" t="n">
-        <v>84.31663142621352</v>
+        <v>84.31663142621353</v>
       </c>
       <c r="T29" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H30" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I30" t="n">
-        <v>68.16217606395193</v>
+        <v>68.16217606395195</v>
       </c>
       <c r="J30" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K30" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798113</v>
       </c>
       <c r="L30" t="n">
-        <v>429.8558631905656</v>
+        <v>429.8558631905657</v>
       </c>
       <c r="M30" t="n">
-        <v>501.6215173521658</v>
+        <v>501.621517352166</v>
       </c>
       <c r="N30" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950683</v>
       </c>
       <c r="O30" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810447</v>
       </c>
       <c r="P30" t="n">
-        <v>378.0439263022088</v>
+        <v>378.0439263022089</v>
       </c>
       <c r="Q30" t="n">
         <v>252.712353142071</v>
@@ -33292,10 +33292,10 @@
         <v>36.77284275552054</v>
       </c>
       <c r="T30" t="n">
-        <v>7.979750293346725</v>
+        <v>7.979750293346727</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1302461963005451</v>
+        <v>0.1302461963005452</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,28 +33332,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.659749343021153</v>
+        <v>1.659749343021154</v>
       </c>
       <c r="H31" t="n">
-        <v>14.75668052249717</v>
+        <v>14.75668052249718</v>
       </c>
       <c r="I31" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376344</v>
       </c>
       <c r="J31" t="n">
-        <v>117.3442785515955</v>
+        <v>117.3442785515956</v>
       </c>
       <c r="K31" t="n">
         <v>192.8326963982758</v>
       </c>
       <c r="L31" t="n">
-        <v>246.7594614160722</v>
+        <v>246.7594614160723</v>
       </c>
       <c r="M31" t="n">
-        <v>260.1732538337613</v>
+        <v>260.1732538337614</v>
       </c>
       <c r="N31" t="n">
-        <v>253.9869153734099</v>
+        <v>253.98691537341</v>
       </c>
       <c r="O31" t="n">
         <v>234.5980253208446</v>
@@ -33365,16 +33365,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R31" t="n">
-        <v>74.62836591438747</v>
+        <v>74.6283659143875</v>
       </c>
       <c r="S31" t="n">
-        <v>28.92490445974136</v>
+        <v>28.92490445974137</v>
       </c>
       <c r="T31" t="n">
-        <v>7.091656283817653</v>
+        <v>7.091656283817655</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09053178234660847</v>
+        <v>0.0905317823466085</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.700126447667073</v>
+        <v>3.700126447667074</v>
       </c>
       <c r="H32" t="n">
-        <v>37.89391998217042</v>
+        <v>37.89391998217043</v>
       </c>
       <c r="I32" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J32" t="n">
-        <v>314.0436070876835</v>
+        <v>314.0436070876836</v>
       </c>
       <c r="K32" t="n">
-        <v>470.6699596174308</v>
+        <v>470.6699596174309</v>
       </c>
       <c r="L32" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902223</v>
       </c>
       <c r="M32" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039216</v>
       </c>
       <c r="N32" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733557</v>
       </c>
       <c r="O32" t="n">
-        <v>623.4296800093661</v>
+        <v>623.4296800093663</v>
       </c>
       <c r="P32" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325853</v>
       </c>
       <c r="Q32" t="n">
-        <v>399.5720299255079</v>
+        <v>399.572029925508</v>
       </c>
       <c r="R32" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S32" t="n">
-        <v>84.31663142621352</v>
+        <v>84.31663142621353</v>
       </c>
       <c r="T32" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H33" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I33" t="n">
-        <v>68.16217606395193</v>
+        <v>68.16217606395195</v>
       </c>
       <c r="J33" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K33" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798113</v>
       </c>
       <c r="L33" t="n">
-        <v>429.8558631905656</v>
+        <v>429.8558631905657</v>
       </c>
       <c r="M33" t="n">
-        <v>501.6215173521658</v>
+        <v>501.621517352166</v>
       </c>
       <c r="N33" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950683</v>
       </c>
       <c r="O33" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810447</v>
       </c>
       <c r="P33" t="n">
-        <v>378.0439263022088</v>
+        <v>378.0439263022089</v>
       </c>
       <c r="Q33" t="n">
         <v>252.712353142071</v>
@@ -33529,10 +33529,10 @@
         <v>36.77284275552054</v>
       </c>
       <c r="T33" t="n">
-        <v>7.979750293346725</v>
+        <v>7.979750293346727</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1302461963005451</v>
+        <v>0.1302461963005452</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,28 +33569,28 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.659749343021153</v>
+        <v>1.659749343021154</v>
       </c>
       <c r="H34" t="n">
-        <v>14.75668052249717</v>
+        <v>14.75668052249718</v>
       </c>
       <c r="I34" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376344</v>
       </c>
       <c r="J34" t="n">
-        <v>117.3442785515955</v>
+        <v>117.3442785515956</v>
       </c>
       <c r="K34" t="n">
         <v>192.8326963982758</v>
       </c>
       <c r="L34" t="n">
-        <v>246.7594614160722</v>
+        <v>246.7594614160723</v>
       </c>
       <c r="M34" t="n">
-        <v>260.1732538337613</v>
+        <v>260.1732538337614</v>
       </c>
       <c r="N34" t="n">
-        <v>253.9869153734099</v>
+        <v>253.98691537341</v>
       </c>
       <c r="O34" t="n">
         <v>234.5980253208446</v>
@@ -33602,16 +33602,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R34" t="n">
-        <v>74.62836591438747</v>
+        <v>74.6283659143875</v>
       </c>
       <c r="S34" t="n">
-        <v>28.92490445974136</v>
+        <v>28.92490445974137</v>
       </c>
       <c r="T34" t="n">
-        <v>7.091656283817653</v>
+        <v>7.091656283817655</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09053178234660847</v>
+        <v>0.0905317823466085</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.700126447667073</v>
+        <v>3.700126447667074</v>
       </c>
       <c r="H35" t="n">
-        <v>37.89391998217042</v>
+        <v>37.89391998217043</v>
       </c>
       <c r="I35" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J35" t="n">
-        <v>314.0436070876835</v>
+        <v>314.0436070876836</v>
       </c>
       <c r="K35" t="n">
-        <v>470.6699596174308</v>
+        <v>470.6699596174309</v>
       </c>
       <c r="L35" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902223</v>
       </c>
       <c r="M35" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039216</v>
       </c>
       <c r="N35" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733557</v>
       </c>
       <c r="O35" t="n">
-        <v>623.4296800093661</v>
+        <v>623.4296800093663</v>
       </c>
       <c r="P35" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325853</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.5720299255079</v>
+        <v>399.572029925508</v>
       </c>
       <c r="R35" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S35" t="n">
-        <v>84.31663142621352</v>
+        <v>84.31663142621353</v>
       </c>
       <c r="T35" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H36" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I36" t="n">
-        <v>68.16217606395193</v>
+        <v>68.16217606395195</v>
       </c>
       <c r="J36" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K36" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798113</v>
       </c>
       <c r="L36" t="n">
-        <v>429.8558631905656</v>
+        <v>429.8558631905657</v>
       </c>
       <c r="M36" t="n">
-        <v>501.6215173521658</v>
+        <v>501.621517352166</v>
       </c>
       <c r="N36" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950683</v>
       </c>
       <c r="O36" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810447</v>
       </c>
       <c r="P36" t="n">
-        <v>378.0439263022088</v>
+        <v>378.0439263022089</v>
       </c>
       <c r="Q36" t="n">
         <v>252.712353142071</v>
@@ -33766,10 +33766,10 @@
         <v>36.77284275552054</v>
       </c>
       <c r="T36" t="n">
-        <v>7.979750293346725</v>
+        <v>7.979750293346727</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1302461963005451</v>
+        <v>0.1302461963005452</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,28 +33806,28 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.659749343021153</v>
+        <v>1.659749343021154</v>
       </c>
       <c r="H37" t="n">
-        <v>14.75668052249717</v>
+        <v>14.75668052249718</v>
       </c>
       <c r="I37" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376344</v>
       </c>
       <c r="J37" t="n">
-        <v>117.3442785515955</v>
+        <v>117.3442785515956</v>
       </c>
       <c r="K37" t="n">
         <v>192.8326963982758</v>
       </c>
       <c r="L37" t="n">
-        <v>246.7594614160722</v>
+        <v>246.7594614160723</v>
       </c>
       <c r="M37" t="n">
-        <v>260.1732538337613</v>
+        <v>260.1732538337614</v>
       </c>
       <c r="N37" t="n">
-        <v>253.9869153734099</v>
+        <v>253.98691537341</v>
       </c>
       <c r="O37" t="n">
         <v>234.5980253208446</v>
@@ -33839,16 +33839,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R37" t="n">
-        <v>74.62836591438747</v>
+        <v>74.6283659143875</v>
       </c>
       <c r="S37" t="n">
-        <v>28.92490445974136</v>
+        <v>28.92490445974137</v>
       </c>
       <c r="T37" t="n">
-        <v>7.091656283817653</v>
+        <v>7.091656283817655</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09053178234660847</v>
+        <v>0.0905317823466085</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.700126447667073</v>
+        <v>3.700126447667074</v>
       </c>
       <c r="H38" t="n">
-        <v>37.89391998217042</v>
+        <v>37.89391998217043</v>
       </c>
       <c r="I38" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J38" t="n">
-        <v>314.0436070876835</v>
+        <v>314.0436070876836</v>
       </c>
       <c r="K38" t="n">
-        <v>470.6699596174308</v>
+        <v>470.6699596174309</v>
       </c>
       <c r="L38" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902223</v>
       </c>
       <c r="M38" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039216</v>
       </c>
       <c r="N38" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733557</v>
       </c>
       <c r="O38" t="n">
-        <v>623.4296800093661</v>
+        <v>623.4296800093663</v>
       </c>
       <c r="P38" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325853</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.5720299255079</v>
+        <v>399.572029925508</v>
       </c>
       <c r="R38" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S38" t="n">
-        <v>84.31663142621352</v>
+        <v>84.31663142621353</v>
       </c>
       <c r="T38" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H39" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I39" t="n">
-        <v>68.16217606395193</v>
+        <v>68.16217606395195</v>
       </c>
       <c r="J39" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K39" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798113</v>
       </c>
       <c r="L39" t="n">
-        <v>429.8558631905656</v>
+        <v>429.8558631905657</v>
       </c>
       <c r="M39" t="n">
-        <v>501.6215173521658</v>
+        <v>501.621517352166</v>
       </c>
       <c r="N39" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950683</v>
       </c>
       <c r="O39" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810447</v>
       </c>
       <c r="P39" t="n">
-        <v>378.0439263022088</v>
+        <v>378.0439263022089</v>
       </c>
       <c r="Q39" t="n">
         <v>252.712353142071</v>
@@ -34003,10 +34003,10 @@
         <v>36.77284275552054</v>
       </c>
       <c r="T39" t="n">
-        <v>7.979750293346725</v>
+        <v>7.979750293346727</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1302461963005451</v>
+        <v>0.1302461963005452</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,28 +34043,28 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.659749343021153</v>
+        <v>1.659749343021154</v>
       </c>
       <c r="H40" t="n">
-        <v>14.75668052249717</v>
+        <v>14.75668052249718</v>
       </c>
       <c r="I40" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376344</v>
       </c>
       <c r="J40" t="n">
-        <v>117.3442785515955</v>
+        <v>117.3442785515956</v>
       </c>
       <c r="K40" t="n">
         <v>192.8326963982758</v>
       </c>
       <c r="L40" t="n">
-        <v>246.7594614160722</v>
+        <v>246.7594614160723</v>
       </c>
       <c r="M40" t="n">
-        <v>260.1732538337613</v>
+        <v>260.1732538337614</v>
       </c>
       <c r="N40" t="n">
-        <v>253.9869153734099</v>
+        <v>253.98691537341</v>
       </c>
       <c r="O40" t="n">
         <v>234.5980253208446</v>
@@ -34076,16 +34076,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R40" t="n">
-        <v>74.62836591438747</v>
+        <v>74.6283659143875</v>
       </c>
       <c r="S40" t="n">
-        <v>28.92490445974136</v>
+        <v>28.92490445974137</v>
       </c>
       <c r="T40" t="n">
-        <v>7.091656283817653</v>
+        <v>7.091656283817655</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09053178234660847</v>
+        <v>0.0905317823466085</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.700126447667073</v>
+        <v>3.700126447667074</v>
       </c>
       <c r="H41" t="n">
-        <v>37.89391998217042</v>
+        <v>37.89391998217043</v>
       </c>
       <c r="I41" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J41" t="n">
-        <v>314.0436070876827</v>
+        <v>314.0436070876836</v>
       </c>
       <c r="K41" t="n">
-        <v>470.6699596174308</v>
+        <v>470.6699596174309</v>
       </c>
       <c r="L41" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902223</v>
       </c>
       <c r="M41" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039216</v>
       </c>
       <c r="N41" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733557</v>
       </c>
       <c r="O41" t="n">
-        <v>623.4296800093661</v>
+        <v>623.4296800093663</v>
       </c>
       <c r="P41" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325853</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.5720299255079</v>
+        <v>399.572029925508</v>
       </c>
       <c r="R41" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S41" t="n">
-        <v>84.31663142621352</v>
+        <v>84.31663142621353</v>
       </c>
       <c r="T41" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H42" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I42" t="n">
-        <v>68.16217606395193</v>
+        <v>68.16217606395195</v>
       </c>
       <c r="J42" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K42" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798113</v>
       </c>
       <c r="L42" t="n">
-        <v>429.8558631905656</v>
+        <v>429.8558631905657</v>
       </c>
       <c r="M42" t="n">
-        <v>501.6215173521658</v>
+        <v>501.621517352166</v>
       </c>
       <c r="N42" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950683</v>
       </c>
       <c r="O42" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810447</v>
       </c>
       <c r="P42" t="n">
-        <v>378.0439263022088</v>
+        <v>378.0439263022089</v>
       </c>
       <c r="Q42" t="n">
         <v>252.712353142071</v>
@@ -34240,10 +34240,10 @@
         <v>36.77284275552054</v>
       </c>
       <c r="T42" t="n">
-        <v>7.979750293346725</v>
+        <v>7.979750293346727</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1302461963005451</v>
+        <v>0.1302461963005452</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,28 +34280,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.659749343021153</v>
+        <v>1.659749343021154</v>
       </c>
       <c r="H43" t="n">
-        <v>14.75668052249717</v>
+        <v>14.75668052249718</v>
       </c>
       <c r="I43" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376344</v>
       </c>
       <c r="J43" t="n">
-        <v>117.3442785515955</v>
+        <v>117.3442785515956</v>
       </c>
       <c r="K43" t="n">
         <v>192.8326963982758</v>
       </c>
       <c r="L43" t="n">
-        <v>246.7594614160722</v>
+        <v>246.7594614160723</v>
       </c>
       <c r="M43" t="n">
-        <v>260.1732538337613</v>
+        <v>260.1732538337614</v>
       </c>
       <c r="N43" t="n">
-        <v>253.9869153734099</v>
+        <v>253.98691537341</v>
       </c>
       <c r="O43" t="n">
         <v>234.5980253208446</v>
@@ -34313,16 +34313,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R43" t="n">
-        <v>74.62836591438747</v>
+        <v>74.6283659143875</v>
       </c>
       <c r="S43" t="n">
-        <v>28.92490445974136</v>
+        <v>28.92490445974137</v>
       </c>
       <c r="T43" t="n">
-        <v>7.091656283817653</v>
+        <v>7.091656283817655</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09053178234660847</v>
+        <v>0.0905317823466085</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.9977025609974</v>
+        <v>132.9977025609973</v>
       </c>
       <c r="K11" t="n">
-        <v>250.5801085724505</v>
+        <v>250.5801085724503</v>
       </c>
       <c r="L11" t="n">
-        <v>348.1412894202352</v>
+        <v>348.141289420235</v>
       </c>
       <c r="M11" t="n">
-        <v>419.363594876649</v>
+        <v>419.3635948766488</v>
       </c>
       <c r="N11" t="n">
-        <v>430.8097487767649</v>
+        <v>430.8097487767647</v>
       </c>
       <c r="O11" t="n">
-        <v>393.3314685876796</v>
+        <v>393.3314685876794</v>
       </c>
       <c r="P11" t="n">
-        <v>300.8498125773158</v>
+        <v>300.8498125773156</v>
       </c>
       <c r="Q11" t="n">
-        <v>177.2663400510586</v>
+        <v>177.2663400510585</v>
       </c>
       <c r="R11" t="n">
-        <v>16.84253015413498</v>
+        <v>16.84253015413489</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.20459430066953</v>
+        <v>60.20459430066944</v>
       </c>
       <c r="K12" t="n">
-        <v>181.8435083054524</v>
+        <v>181.8435083054522</v>
       </c>
       <c r="L12" t="n">
-        <v>291.3014834106917</v>
+        <v>291.3014834106915</v>
       </c>
       <c r="M12" t="n">
-        <v>623.8471351075289</v>
+        <v>623.8471351075284</v>
       </c>
       <c r="N12" t="n">
-        <v>623.8471351075289</v>
+        <v>604.9911507363564</v>
       </c>
       <c r="O12" t="n">
-        <v>328.4347829366004</v>
+        <v>328.4347829366002</v>
       </c>
       <c r="P12" t="n">
-        <v>244.0695188878788</v>
+        <v>244.0695188878786</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.6344375209358</v>
+        <v>112.7305790560495</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.759842836058</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.98509843492282</v>
+        <v>23.98509843492278</v>
       </c>
       <c r="K13" t="n">
-        <v>170.563204572393</v>
+        <v>170.5632045723929</v>
       </c>
       <c r="L13" t="n">
-        <v>274.3494866763886</v>
+        <v>274.3494866763884</v>
       </c>
       <c r="M13" t="n">
-        <v>299.7571307956021</v>
+        <v>299.7571307956019</v>
       </c>
       <c r="N13" t="n">
-        <v>298.1190877526387</v>
+        <v>298.1190877526386</v>
       </c>
       <c r="O13" t="n">
         <v>259.1831532348843</v>
@@ -35588,7 +35588,7 @@
         <v>198.0176979881064</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.81933128074063</v>
+        <v>52.8193312807406</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.20459430066944</v>
+        <v>94.21648059030257</v>
       </c>
       <c r="K15" t="n">
-        <v>181.8435083054522</v>
+        <v>446.3087453180308</v>
       </c>
       <c r="L15" t="n">
         <v>291.3014834106915</v>
       </c>
       <c r="M15" t="n">
-        <v>549.8696994612222</v>
+        <v>359.4874834301476</v>
       </c>
       <c r="N15" t="n">
         <v>383.5562342117349</v>
       </c>
       <c r="O15" t="n">
-        <v>623.8471351075286</v>
+        <v>328.4347829366002</v>
       </c>
       <c r="P15" t="n">
         <v>244.0695188878786</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.7305790560495</v>
+        <v>322.8078667918986</v>
       </c>
       <c r="R15" t="n">
-        <v>22.759842836058</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>186.2956296410783</v>
+        <v>60.20459430066944</v>
       </c>
       <c r="K18" t="n">
-        <v>354.2295962672542</v>
+        <v>371.935150703576</v>
       </c>
       <c r="L18" t="n">
         <v>291.3014834106915</v>
@@ -35980,10 +35980,10 @@
         <v>328.4347829366002</v>
       </c>
       <c r="P18" t="n">
-        <v>244.0695188878786</v>
+        <v>562.5322875278157</v>
       </c>
       <c r="Q18" t="n">
-        <v>322.8078667918986</v>
+        <v>112.7305790560495</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.9977025609972</v>
+        <v>132.9977025609973</v>
       </c>
       <c r="K20" t="n">
-        <v>250.5801085724502</v>
+        <v>250.5801085724503</v>
       </c>
       <c r="L20" t="n">
-        <v>348.1412894202348</v>
+        <v>348.141289420235</v>
       </c>
       <c r="M20" t="n">
-        <v>419.3635948766487</v>
+        <v>419.3635948766488</v>
       </c>
       <c r="N20" t="n">
-        <v>430.8097487767646</v>
+        <v>430.8097487767647</v>
       </c>
       <c r="O20" t="n">
-        <v>393.3314685876793</v>
+        <v>393.3314685876794</v>
       </c>
       <c r="P20" t="n">
-        <v>300.8498125773155</v>
+        <v>300.8498125773156</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.2663400510584</v>
+        <v>177.2663400510585</v>
       </c>
       <c r="R20" t="n">
-        <v>16.84253015413483</v>
+        <v>16.84253015413489</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.20459430066941</v>
+        <v>186.2956296410783</v>
       </c>
       <c r="K21" t="n">
         <v>181.8435083054522</v>
       </c>
       <c r="L21" t="n">
-        <v>291.3014834106914</v>
+        <v>291.3014834106915</v>
       </c>
       <c r="M21" t="n">
-        <v>359.4874834301474</v>
+        <v>359.4874834301476</v>
       </c>
       <c r="N21" t="n">
-        <v>383.5562342117348</v>
+        <v>555.9423221735381</v>
       </c>
       <c r="O21" t="n">
-        <v>328.4347829366001</v>
+        <v>328.4347829366002</v>
       </c>
       <c r="P21" t="n">
-        <v>562.5322875278157</v>
+        <v>244.0695188878786</v>
       </c>
       <c r="Q21" t="n">
-        <v>302.8222214541731</v>
+        <v>322.8078667918986</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.98509843492275</v>
+        <v>23.98509843492278</v>
       </c>
       <c r="K22" t="n">
         <v>170.5632045723929</v>
       </c>
       <c r="L22" t="n">
-        <v>274.3494866763883</v>
+        <v>274.3494866763884</v>
       </c>
       <c r="M22" t="n">
         <v>299.7571307956019</v>
       </c>
       <c r="N22" t="n">
-        <v>298.1190877526385</v>
+        <v>298.1190877526386</v>
       </c>
       <c r="O22" t="n">
-        <v>259.1831532348842</v>
+        <v>259.1831532348843</v>
       </c>
       <c r="P22" t="n">
-        <v>198.0176979881063</v>
+        <v>198.0176979881064</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.81933128074054</v>
+        <v>52.8193312807406</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.9977025609969</v>
+        <v>132.9977025609973</v>
       </c>
       <c r="K23" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724504</v>
       </c>
       <c r="L23" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202351</v>
       </c>
       <c r="M23" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766486</v>
       </c>
       <c r="N23" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767648</v>
       </c>
       <c r="O23" t="n">
-        <v>393.3314685876793</v>
+        <v>393.3314685876795</v>
       </c>
       <c r="P23" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773157</v>
       </c>
       <c r="Q23" t="n">
-        <v>177.2663400510584</v>
+        <v>177.2663400510586</v>
       </c>
       <c r="R23" t="n">
-        <v>16.84253015413486</v>
+        <v>16.84253015413492</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>186.2956296410783</v>
       </c>
       <c r="K24" t="n">
-        <v>446.3087453180308</v>
+        <v>331.469753431197</v>
       </c>
       <c r="L24" t="n">
-        <v>291.3014834106914</v>
+        <v>291.3014834106916</v>
       </c>
       <c r="M24" t="n">
-        <v>359.4874834301475</v>
+        <v>359.4874834301477</v>
       </c>
       <c r="N24" t="n">
-        <v>383.5562342117349</v>
+        <v>383.556234211735</v>
       </c>
       <c r="O24" t="n">
-        <v>328.4347829366001</v>
+        <v>328.4347829366002</v>
       </c>
       <c r="P24" t="n">
-        <v>244.0695188878785</v>
+        <v>244.0695188878786</v>
       </c>
       <c r="Q24" t="n">
-        <v>230.7287177411223</v>
+        <v>322.8078667918986</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.75984283605801</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.98509843492276</v>
+        <v>23.98509843492279</v>
       </c>
       <c r="K25" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L25" t="n">
         <v>274.3494866763884</v>
@@ -36527,16 +36527,16 @@
         <v>299.7571307956019</v>
       </c>
       <c r="N25" t="n">
-        <v>298.1190877526385</v>
+        <v>298.1190877526386</v>
       </c>
       <c r="O25" t="n">
-        <v>259.1831532348842</v>
+        <v>259.1831532348843</v>
       </c>
       <c r="P25" t="n">
         <v>198.0176979881064</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.81933128074057</v>
+        <v>52.8193312807406</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>132.9977025609973</v>
       </c>
       <c r="K26" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724504</v>
       </c>
       <c r="L26" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202351</v>
       </c>
       <c r="M26" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766489</v>
       </c>
       <c r="N26" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767648</v>
       </c>
       <c r="O26" t="n">
-        <v>393.3314685876793</v>
+        <v>393.3314685876795</v>
       </c>
       <c r="P26" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773157</v>
       </c>
       <c r="Q26" t="n">
-        <v>177.2663400510584</v>
+        <v>177.2663400510586</v>
       </c>
       <c r="R26" t="n">
-        <v>16.84253015413486</v>
+        <v>16.84253015413492</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.21648059030325</v>
+        <v>186.2956296410783</v>
       </c>
       <c r="K27" t="n">
-        <v>446.3087453180308</v>
+        <v>331.469753431197</v>
       </c>
       <c r="L27" t="n">
-        <v>291.3014834106914</v>
+        <v>291.3014834106916</v>
       </c>
       <c r="M27" t="n">
-        <v>359.4874834301475</v>
+        <v>359.4874834301477</v>
       </c>
       <c r="N27" t="n">
-        <v>383.5562342117349</v>
+        <v>383.556234211735</v>
       </c>
       <c r="O27" t="n">
-        <v>328.4347829366001</v>
+        <v>328.4347829366002</v>
       </c>
       <c r="P27" t="n">
-        <v>244.0695188878785</v>
+        <v>244.0695188878786</v>
       </c>
       <c r="Q27" t="n">
-        <v>322.8078667918985</v>
+        <v>322.8078667918986</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>22.75984283605801</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.98509843492276</v>
+        <v>23.98509843492279</v>
       </c>
       <c r="K28" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L28" t="n">
         <v>274.3494866763884</v>
@@ -36764,16 +36764,16 @@
         <v>299.7571307956019</v>
       </c>
       <c r="N28" t="n">
-        <v>298.1190877526385</v>
+        <v>298.1190877526386</v>
       </c>
       <c r="O28" t="n">
-        <v>259.1831532348842</v>
+        <v>259.1831532348843</v>
       </c>
       <c r="P28" t="n">
         <v>198.0176979881064</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.81933128074057</v>
+        <v>52.8193312807406</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>132.9977025609973</v>
       </c>
       <c r="K29" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724504</v>
       </c>
       <c r="L29" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202351</v>
       </c>
       <c r="M29" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766489</v>
       </c>
       <c r="N29" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767648</v>
       </c>
       <c r="O29" t="n">
-        <v>393.3314685876793</v>
+        <v>393.3314685876795</v>
       </c>
       <c r="P29" t="n">
-        <v>300.8498125773161</v>
+        <v>300.8498125773157</v>
       </c>
       <c r="Q29" t="n">
-        <v>177.2663400510584</v>
+        <v>177.2663400510586</v>
       </c>
       <c r="R29" t="n">
-        <v>16.84253015413486</v>
+        <v>16.84253015413459</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>186.2956296410783</v>
       </c>
       <c r="K30" t="n">
-        <v>446.3087453180308</v>
+        <v>331.469753431197</v>
       </c>
       <c r="L30" t="n">
-        <v>291.3014834106914</v>
+        <v>291.3014834106916</v>
       </c>
       <c r="M30" t="n">
-        <v>359.4874834301475</v>
+        <v>359.4874834301477</v>
       </c>
       <c r="N30" t="n">
-        <v>383.5562342117349</v>
+        <v>383.556234211735</v>
       </c>
       <c r="O30" t="n">
-        <v>328.4347829366001</v>
+        <v>328.4347829366002</v>
       </c>
       <c r="P30" t="n">
-        <v>244.0695188878785</v>
+        <v>244.0695188878786</v>
       </c>
       <c r="Q30" t="n">
-        <v>230.7287177411232</v>
+        <v>322.8078667918986</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.75984283605801</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.98509843492276</v>
+        <v>23.98509843492279</v>
       </c>
       <c r="K31" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L31" t="n">
         <v>274.3494866763884</v>
@@ -37001,16 +37001,16 @@
         <v>299.7571307956019</v>
       </c>
       <c r="N31" t="n">
-        <v>298.1190877526385</v>
+        <v>298.1190877526386</v>
       </c>
       <c r="O31" t="n">
-        <v>259.1831532348842</v>
+        <v>259.1831532348843</v>
       </c>
       <c r="P31" t="n">
         <v>198.0176979881064</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.81933128074057</v>
+        <v>52.8193312807406</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>132.9977025609973</v>
       </c>
       <c r="K32" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724504</v>
       </c>
       <c r="L32" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202351</v>
       </c>
       <c r="M32" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766489</v>
       </c>
       <c r="N32" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767648</v>
       </c>
       <c r="O32" t="n">
-        <v>393.3314685876793</v>
+        <v>393.3314685876795</v>
       </c>
       <c r="P32" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773157</v>
       </c>
       <c r="Q32" t="n">
-        <v>177.2663400510584</v>
+        <v>177.2663400510586</v>
       </c>
       <c r="R32" t="n">
-        <v>16.84253015413486</v>
+        <v>16.84253015413492</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.21648059030144</v>
+        <v>60.20459430066947</v>
       </c>
       <c r="K33" t="n">
-        <v>446.3087453180308</v>
+        <v>446.3087453180309</v>
       </c>
       <c r="L33" t="n">
-        <v>291.3014834106914</v>
+        <v>291.3014834106916</v>
       </c>
       <c r="M33" t="n">
-        <v>359.4874834301475</v>
+        <v>359.4874834301477</v>
       </c>
       <c r="N33" t="n">
-        <v>383.5562342117349</v>
+        <v>394.8082776653109</v>
       </c>
       <c r="O33" t="n">
-        <v>328.4347829366001</v>
+        <v>328.4347829366002</v>
       </c>
       <c r="P33" t="n">
-        <v>244.0695188878785</v>
+        <v>244.0695188878786</v>
       </c>
       <c r="Q33" t="n">
-        <v>322.8078667918985</v>
+        <v>322.8078667918986</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.75984283605801</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.98509843492276</v>
+        <v>23.98509843492279</v>
       </c>
       <c r="K34" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L34" t="n">
         <v>274.3494866763884</v>
@@ -37238,16 +37238,16 @@
         <v>299.7571307956019</v>
       </c>
       <c r="N34" t="n">
-        <v>298.1190877526385</v>
+        <v>298.1190877526386</v>
       </c>
       <c r="O34" t="n">
-        <v>259.1831532348842</v>
+        <v>259.1831532348843</v>
       </c>
       <c r="P34" t="n">
         <v>198.0176979881064</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.81933128074057</v>
+        <v>52.8193312807406</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>132.9977025609973</v>
       </c>
       <c r="K35" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724504</v>
       </c>
       <c r="L35" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202351</v>
       </c>
       <c r="M35" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766489</v>
       </c>
       <c r="N35" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767648</v>
       </c>
       <c r="O35" t="n">
-        <v>393.3314685876793</v>
+        <v>393.3314685876795</v>
       </c>
       <c r="P35" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773157</v>
       </c>
       <c r="Q35" t="n">
-        <v>177.2663400510584</v>
+        <v>177.2663400510586</v>
       </c>
       <c r="R35" t="n">
-        <v>16.84253015413486</v>
+        <v>16.84253015413492</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>186.2956296410783</v>
       </c>
       <c r="K36" t="n">
-        <v>446.3087453180308</v>
+        <v>331.4697534311979</v>
       </c>
       <c r="L36" t="n">
-        <v>291.3014834106914</v>
+        <v>291.3014834106916</v>
       </c>
       <c r="M36" t="n">
-        <v>359.4874834301475</v>
+        <v>359.4874834301477</v>
       </c>
       <c r="N36" t="n">
-        <v>383.5562342117349</v>
+        <v>383.556234211735</v>
       </c>
       <c r="O36" t="n">
-        <v>328.4347829366001</v>
+        <v>328.4347829366002</v>
       </c>
       <c r="P36" t="n">
-        <v>244.0695188878785</v>
+        <v>244.0695188878786</v>
       </c>
       <c r="Q36" t="n">
-        <v>230.7287177411223</v>
+        <v>322.8078667918986</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.75984283605801</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.98509843492276</v>
+        <v>23.98509843492279</v>
       </c>
       <c r="K37" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L37" t="n">
         <v>274.3494866763884</v>
@@ -37475,16 +37475,16 @@
         <v>299.7571307956019</v>
       </c>
       <c r="N37" t="n">
-        <v>298.1190877526385</v>
+        <v>298.1190877526386</v>
       </c>
       <c r="O37" t="n">
-        <v>259.1831532348842</v>
+        <v>259.1831532348843</v>
       </c>
       <c r="P37" t="n">
         <v>198.0176979881064</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.81933128074057</v>
+        <v>52.8193312807406</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.9977025609969</v>
+        <v>132.9977025609973</v>
       </c>
       <c r="K38" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724504</v>
       </c>
       <c r="L38" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202351</v>
       </c>
       <c r="M38" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766489</v>
       </c>
       <c r="N38" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767648</v>
       </c>
       <c r="O38" t="n">
-        <v>393.3314685876793</v>
+        <v>393.3314685876795</v>
       </c>
       <c r="P38" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773157</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.2663400510584</v>
+        <v>177.2663400510586</v>
       </c>
       <c r="R38" t="n">
-        <v>16.84253015413486</v>
+        <v>16.84253015413492</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.21648059030235</v>
+        <v>186.2956296410783</v>
       </c>
       <c r="K39" t="n">
-        <v>446.3087453180308</v>
+        <v>181.8435083054523</v>
       </c>
       <c r="L39" t="n">
-        <v>291.3014834106914</v>
+        <v>291.3014834106916</v>
       </c>
       <c r="M39" t="n">
-        <v>359.4874834301475</v>
+        <v>359.4874834301477</v>
       </c>
       <c r="N39" t="n">
-        <v>383.5562342117349</v>
+        <v>383.556234211735</v>
       </c>
       <c r="O39" t="n">
-        <v>328.4347829366001</v>
+        <v>328.4347829366002</v>
       </c>
       <c r="P39" t="n">
-        <v>244.0695188878785</v>
+        <v>393.6957640136235</v>
       </c>
       <c r="Q39" t="n">
-        <v>322.8078667918985</v>
+        <v>322.8078667918986</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.75984283605801</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.98509843492276</v>
+        <v>23.98509843492279</v>
       </c>
       <c r="K40" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L40" t="n">
         <v>274.3494866763884</v>
@@ -37712,16 +37712,16 @@
         <v>299.7571307956019</v>
       </c>
       <c r="N40" t="n">
-        <v>298.1190877526385</v>
+        <v>298.1190877526386</v>
       </c>
       <c r="O40" t="n">
-        <v>259.1831532348842</v>
+        <v>259.1831532348843</v>
       </c>
       <c r="P40" t="n">
         <v>198.0176979881064</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.81933128074057</v>
+        <v>52.8193312807406</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.9977025609964</v>
+        <v>132.9977025609973</v>
       </c>
       <c r="K41" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724504</v>
       </c>
       <c r="L41" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202351</v>
       </c>
       <c r="M41" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766489</v>
       </c>
       <c r="N41" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767648</v>
       </c>
       <c r="O41" t="n">
-        <v>393.3314685876793</v>
+        <v>393.3314685876795</v>
       </c>
       <c r="P41" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773157</v>
       </c>
       <c r="Q41" t="n">
-        <v>177.2663400510584</v>
+        <v>177.2663400510586</v>
       </c>
       <c r="R41" t="n">
-        <v>16.84253015413486</v>
+        <v>16.84253015413492</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.2164805903019</v>
+        <v>186.2956296410783</v>
       </c>
       <c r="K42" t="n">
-        <v>446.3087453180308</v>
+        <v>331.4697534311979</v>
       </c>
       <c r="L42" t="n">
-        <v>291.3014834106914</v>
+        <v>291.3014834106916</v>
       </c>
       <c r="M42" t="n">
-        <v>359.4874834301475</v>
+        <v>359.4874834301477</v>
       </c>
       <c r="N42" t="n">
-        <v>383.5562342117349</v>
+        <v>383.556234211735</v>
       </c>
       <c r="O42" t="n">
-        <v>328.4347829366001</v>
+        <v>328.4347829366002</v>
       </c>
       <c r="P42" t="n">
-        <v>244.0695188878785</v>
+        <v>244.0695188878786</v>
       </c>
       <c r="Q42" t="n">
-        <v>322.8078667918985</v>
+        <v>322.8078667918986</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.75984283605801</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.98509843492276</v>
+        <v>23.98509843492279</v>
       </c>
       <c r="K43" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L43" t="n">
         <v>274.3494866763884</v>
@@ -37949,16 +37949,16 @@
         <v>299.7571307956019</v>
       </c>
       <c r="N43" t="n">
-        <v>298.1190877526385</v>
+        <v>298.1190877526386</v>
       </c>
       <c r="O43" t="n">
-        <v>259.1831532348842</v>
+        <v>259.1831532348843</v>
       </c>
       <c r="P43" t="n">
         <v>198.0176979881064</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.81933128074057</v>
+        <v>52.8193312807406</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>71.45663775424396</v>
+        <v>186.2956296410783</v>
       </c>
       <c r="K45" t="n">
-        <v>446.3087453180308</v>
+        <v>324.0159831073109</v>
       </c>
       <c r="L45" t="n">
         <v>291.3014834106914</v>
@@ -38107,7 +38107,7 @@
         <v>359.4874834301475</v>
       </c>
       <c r="N45" t="n">
-        <v>383.5562342117349</v>
+        <v>623.8471351075285</v>
       </c>
       <c r="O45" t="n">
         <v>328.4347829366001</v>
@@ -38116,10 +38116,10 @@
         <v>244.0695188878785</v>
       </c>
       <c r="Q45" t="n">
-        <v>322.8078667918985</v>
+        <v>112.7305790560494</v>
       </c>
       <c r="R45" t="n">
-        <v>22.75984283605798</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
